--- a/GameDesign/宠物设计.xlsx
+++ b/GameDesign/宠物设计.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E68D76-94EA-4CA3-B346-BD9CD2870847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B8C13E-0CDE-45B4-AFF1-E57748CD2FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="宠物被动技能" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,41 +25,590 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
-  <si>
-    <t>近战宠物</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="183">
+  <si>
+    <t>勇猛</t>
+  </si>
+  <si>
+    <t>暴击</t>
+  </si>
+  <si>
+    <t>魔法</t>
+  </si>
+  <si>
+    <t>集中</t>
+  </si>
+  <si>
+    <t>移动</t>
+  </si>
+  <si>
+    <t>重击</t>
+  </si>
+  <si>
+    <t>反击</t>
+  </si>
+  <si>
+    <t>反震</t>
+  </si>
+  <si>
+    <t>抵抗</t>
+  </si>
+  <si>
+    <t>生命</t>
+  </si>
+  <si>
+    <t>再生</t>
+  </si>
+  <si>
+    <t>神迹</t>
+  </si>
+  <si>
+    <t>灵巧</t>
+  </si>
+  <si>
+    <t>神佑</t>
+  </si>
+  <si>
+    <t>破咒</t>
+  </si>
+  <si>
+    <t>防御</t>
+  </si>
+  <si>
+    <t>幸运</t>
+  </si>
+  <si>
+    <t>强力</t>
+  </si>
+  <si>
+    <t>防护</t>
+  </si>
+  <si>
+    <t>专注</t>
+  </si>
+  <si>
+    <t>魔焰</t>
+  </si>
+  <si>
+    <t>破甲</t>
+  </si>
+  <si>
+    <t>嘲讽</t>
+  </si>
+  <si>
+    <t>奋勇</t>
+  </si>
+  <si>
+    <t>闪击</t>
+  </si>
+  <si>
+    <t>缓速</t>
+  </si>
+  <si>
+    <t>嫁祸</t>
+  </si>
+  <si>
+    <t>崩裂</t>
+  </si>
+  <si>
+    <t>高阶勇猛</t>
+  </si>
+  <si>
+    <t>高阶暴击</t>
+  </si>
+  <si>
+    <t>高阶魔法</t>
+  </si>
+  <si>
+    <t>高阶集中</t>
+  </si>
+  <si>
+    <t>高阶移动</t>
+  </si>
+  <si>
+    <t>高阶重击</t>
+  </si>
+  <si>
+    <t>高阶反击</t>
+  </si>
+  <si>
+    <t>高阶反震</t>
+  </si>
+  <si>
+    <t>高阶抵抗</t>
+  </si>
+  <si>
+    <t>高阶生命</t>
+  </si>
+  <si>
+    <t>高阶再生</t>
+  </si>
+  <si>
+    <t>高阶神迹</t>
+  </si>
+  <si>
+    <t>高阶灵巧</t>
+  </si>
+  <si>
+    <t>高阶神佑</t>
+  </si>
+  <si>
+    <t>高阶破咒</t>
+  </si>
+  <si>
+    <t>高阶防御</t>
+  </si>
+  <si>
+    <t>高阶幸运</t>
+  </si>
+  <si>
+    <t>高阶强力</t>
+  </si>
+  <si>
+    <t>高阶防护</t>
+  </si>
+  <si>
+    <t>高阶专注</t>
+  </si>
+  <si>
+    <t>高阶魔焰</t>
+  </si>
+  <si>
+    <t>高阶破甲</t>
+  </si>
+  <si>
+    <t>高阶嘲讽</t>
+  </si>
+  <si>
+    <t>高阶奋勇</t>
+  </si>
+  <si>
+    <t>高阶闪击</t>
+  </si>
+  <si>
+    <t>高阶缓速</t>
+  </si>
+  <si>
+    <t>高阶嫁祸</t>
+  </si>
+  <si>
+    <t>高阶崩裂</t>
+  </si>
+  <si>
+    <t>尖刺刺身</t>
+  </si>
+  <si>
+    <t>蛇击</t>
+  </si>
+  <si>
+    <t>毒墨攻击</t>
+  </si>
+  <si>
+    <t>淘气爆炸</t>
+  </si>
+  <si>
+    <t>闪电链</t>
+  </si>
+  <si>
+    <t>铁甲之力</t>
+  </si>
+  <si>
+    <t>迷惑之术</t>
+  </si>
+  <si>
+    <t>天使之翼</t>
+  </si>
+  <si>
+    <t>吸收:金</t>
+  </si>
+  <si>
+    <t>吸收:木</t>
+  </si>
+  <si>
+    <t>吸收:水</t>
+  </si>
+  <si>
+    <t>吸收:火</t>
+  </si>
+  <si>
+    <t>吸收:土</t>
+  </si>
+  <si>
+    <t>弱势:木</t>
+  </si>
+  <si>
+    <t>弱势:水</t>
+  </si>
+  <si>
+    <t>弱势:火</t>
+  </si>
+  <si>
+    <t>弱势:土</t>
+  </si>
+  <si>
+    <t>麋鹿治愈</t>
+  </si>
+  <si>
+    <t>幽光之击</t>
+  </si>
+  <si>
+    <t>魔龙之吼</t>
+  </si>
+  <si>
+    <t>神之专属</t>
+  </si>
+  <si>
+    <t>麋鹿光芒</t>
+  </si>
+  <si>
+    <t>治愈法阵</t>
+  </si>
+  <si>
+    <t>幽光庇护</t>
+  </si>
+  <si>
+    <t>幽光冲击</t>
+  </si>
+  <si>
+    <t>魔幻冲击</t>
+  </si>
+  <si>
+    <t>物理攻击提升10%</t>
+  </si>
+  <si>
+    <t>暴击概率提升10%</t>
+  </si>
+  <si>
+    <t>魔法攻击提升10%</t>
+  </si>
+  <si>
+    <t>闪避概率提升5%,命中概率提升10%</t>
+  </si>
+  <si>
+    <t>移动速度提升10%</t>
+  </si>
+  <si>
+    <t>攻击时有10%概率忽视目标身上对应的防御属性</t>
+  </si>
+  <si>
+    <t>受到攻击时有20%概率立即对目标造成一次伤害</t>
+  </si>
+  <si>
+    <t>受到物理攻击有30%概率给与攻击者反震,造成的伤害为受到伤害的50%</t>
+  </si>
+  <si>
+    <t>受到魔法攻击有10%概率进行抵抗</t>
+  </si>
+  <si>
+    <t>血量提升10%</t>
+  </si>
+  <si>
+    <t>每秒恢复最大生命值的1%</t>
+  </si>
+  <si>
+    <t>受到异常状态有25%概率进行抵抗</t>
+  </si>
+  <si>
+    <t>受到技能攻击有10%概率进行闪避</t>
+  </si>
+  <si>
+    <t>生命变为0时有10%概率立即恢复全部生命值</t>
+  </si>
+  <si>
+    <t>当目标有神佑技能时,造成伤害提升15%</t>
+  </si>
+  <si>
+    <t>物防和魔防提升10%</t>
+  </si>
+  <si>
+    <t>受到目标攻击有10%概率恢复自身攻击的50%生命值</t>
+  </si>
+  <si>
+    <t>攻击目标造成的伤害提升10%</t>
+  </si>
+  <si>
+    <t>受到目标攻击造成的伤害降低10%</t>
+  </si>
+  <si>
+    <t>释放技能时有10%概率连续释放2次</t>
+  </si>
+  <si>
+    <t>远程攻击时10%概率触发,对目标区域造成200%伤害</t>
+  </si>
+  <si>
+    <t>普通攻击时,概率降低目标10%的防御和魔防,持续6秒</t>
+  </si>
+  <si>
+    <t>近战攻击时有15%概率触发,强迫目标立即攻击自身6秒</t>
+  </si>
+  <si>
+    <t>目标生命低于30%伤害提升20%</t>
+  </si>
+  <si>
+    <t>远程攻击时5%概率触发,立即对当前目标造成250%伤害</t>
+  </si>
+  <si>
+    <t>近战攻击时概率降低目标移动速度10%,持续6秒</t>
+  </si>
+  <si>
+    <t>降低自身攻击造成的15%的仇恨</t>
+  </si>
+  <si>
+    <t>近战攻击时5%概率触发,立即对前方区域造成200%伤害</t>
+  </si>
+  <si>
+    <t>物理攻击提升20%</t>
+  </si>
+  <si>
+    <t>暴击概率提升20%</t>
+  </si>
+  <si>
+    <t>魔法攻击提升20%</t>
+  </si>
+  <si>
+    <t>闪避概率提升10%,命中概率提升20%</t>
+  </si>
+  <si>
+    <t>移动速度提升20%</t>
+  </si>
+  <si>
+    <t>攻击时有20%概率忽视目标身上对应的防御属性</t>
+  </si>
+  <si>
+    <t>受到物理攻击有50%概率给与攻击者反震,造成的反正伤害为受到伤害的50%</t>
+  </si>
+  <si>
+    <t>受到魔法技能攻击有20%概率进行抵抗</t>
+  </si>
+  <si>
+    <t>血量提升20%</t>
+  </si>
+  <si>
+    <t>每秒恢复最大生命值的2%</t>
+  </si>
+  <si>
+    <t>受到异常状态有50%概率进行抵抗</t>
+  </si>
+  <si>
+    <t>受到技能攻击有20%概率进行闪避</t>
+  </si>
+  <si>
+    <t>生命变为0时有20%概率立即恢复全部生命值</t>
+  </si>
+  <si>
+    <t>当目标有神佑技能时,造成伤害提升30%</t>
+  </si>
+  <si>
+    <t>物防和魔防提升20%</t>
+  </si>
+  <si>
+    <t>受到目标攻击有20%概率恢复自身攻击的50%生命值</t>
+  </si>
+  <si>
+    <t>攻击目标造成的伤害提升20%</t>
+  </si>
+  <si>
+    <t>受到目标攻击造成的伤害降低20%</t>
+  </si>
+  <si>
+    <t>释放技能时有20%概率连续释放2次</t>
+  </si>
+  <si>
+    <t>远程攻击时20%概率触发,对目标区域造成200%伤害</t>
+  </si>
+  <si>
+    <t>普通攻击时,概率降低目标20%的防御和魔防,持续6秒</t>
+  </si>
+  <si>
+    <t>近战攻击时有30%概率触发,强迫目标立即攻击自身6秒</t>
+  </si>
+  <si>
+    <t>目标生命低于30%伤害提升40%</t>
+  </si>
+  <si>
+    <t>远程攻击时10%概率触发,立即对当前目标造成250%伤害</t>
+  </si>
+  <si>
+    <t>近战攻击时概率降低目标移动速度20%,持续6秒</t>
+  </si>
+  <si>
+    <t>降低自身攻击造成的30%的仇恨</t>
+  </si>
+  <si>
+    <t>近战攻击时10%概率触发,立即对前方区域造成200%伤害</t>
+  </si>
+  <si>
+    <t>近战对受到攻击有20%概率进行反射,对攻击者造成80%的伤害</t>
+  </si>
+  <si>
+    <t>近战普攻有10%概率造成200%伤害,并附带2秒眩晕</t>
+  </si>
+  <si>
+    <t>近战普攻有10%概率对前方范围造成喷吐伤害造成200%伤害,并使目标命中降低30%</t>
+  </si>
+  <si>
+    <t>自身是生命为0时会对附近单位造成一次300%爆炸伤害,并眩晕2秒</t>
+  </si>
+  <si>
+    <t>远程攻击有20%概率对目标进行释放闪电链, 对最多5个单位造成150%伤害，受到闪电链攻击的目标将产生静电效果,收到伤害额外提升10%,持续5秒</t>
+  </si>
+  <si>
+    <t>受到攻击有15%几率触发铁甲效果,免疫一切伤害2秒,对敌人范围内造成200%伤害和1秒眩晕</t>
+  </si>
+  <si>
+    <t>受到攻击后有20%概率,立即对闪烁到目标身后,对范围内所有敌人造成200%伤害和2秒束缚</t>
+  </si>
+  <si>
+    <t>战斗开始时,必定触发一次,每次远程攻击有10%概率恢复自身和周围队友5%最大生命值，并且自身攻速提升50%持续5秒</t>
+  </si>
+  <si>
+    <t>受到金属性的攻击有20%概率免疫目标的一切攻击,并恢复50%攻击伤害为己方生命值</t>
+  </si>
+  <si>
+    <t>受到金属性攻击将额外承受30%伤害</t>
+  </si>
+  <si>
+    <t>受到木属性攻击将额外承受30%伤害</t>
+  </si>
+  <si>
+    <t>受到水属性攻击将额外承受30%伤害</t>
+  </si>
+  <si>
+    <t>受到火属性攻击将额外承受30%伤害</t>
+  </si>
+  <si>
+    <t>受到土属性攻击将额外承受30%伤害</t>
+  </si>
+  <si>
+    <t>恢复己方范围内所有友方玩家20%的生命值</t>
+  </si>
+  <si>
+    <t>每次攻击造成120%的范围伤害</t>
+  </si>
+  <si>
+    <t>每次攻击有概率对前方区域造成300%伤害</t>
+  </si>
+  <si>
+    <t>生命变为0时有25%概率立即恢复全部生命值,且对怪伤害额外造成100%</t>
+  </si>
+  <si>
+    <t>受到攻击有15%几率以自身为中点释放一个法阵，法阵内队友获得20%伤害减免和每秒4%最大生命值恢复，自身处于霸体状态，并且敌方在法阵中降低60%移动速度，法阵存在时间5秒</t>
+  </si>
+  <si>
+    <t>近战攻击有15%的几率对范围内敌人造成150%伤害和3秒眩晕</t>
+  </si>
+  <si>
+    <t>受到攻击有15%几率释放一个法阵，法阵内队友获得50%伤害免疫和每秒4%最大生命值恢复，并且敌方在法阵中降低80%移动速度，法阵存在时间5秒</t>
+  </si>
+  <si>
+    <t>远程攻击有15%的几率增加自身和队友的攻击速度100%持续6秒，开局必定触发。</t>
+  </si>
+  <si>
+    <t>每普攻5次会对目标释放3波冲击波造成120%伤害</t>
+  </si>
+  <si>
+    <t>近战普攻有20%几率向前方发起两次连续冲锋，每次对敌人造成120%伤害和1秒眩晕,随后生成一片熔岩区域对敌人造成每秒30%伤害和60%减速,持续5秒</t>
+  </si>
+  <si>
+    <t>普攻有15%几率向前方发起两次连续冲锋，每次对敌人造成120%伤害和1秒眩晕</t>
+  </si>
+  <si>
+    <t>生成一片熔岩区域对敌人造成每秒30%伤害和60%减速</t>
+  </si>
+  <si>
+    <t>近战每次攻击有概率对前方区域造成200%伤害,并对目标造成易伤状态,使其受到伤害额外提升15%,持续6秒</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>弱势</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>:金</t>
+    </r>
+  </si>
+  <si>
+    <t>参考技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>远程宠物</t>
+    <t>宠物属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>恢复宠物</t>
+    <t>血量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>绝望斗士</t>
+    <t>攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>孤灵</t>
+    <t>魔法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>森灵之鹿</t>
+    <t>物防</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能1</t>
+    <t>魔防</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前劈击</t>
+    <t>勇猛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主动技能</t>
+    <t>宠物加点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速度提升10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避概率提升10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中提高10%，造成伤害提升5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗暴提高10%, 受到伤害降低提升5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成伤害提升10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害减免提升10%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -67,7 +616,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +629,26 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -103,10 +672,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -388,57 +963,860 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:G17"/>
+  <dimension ref="B1:L93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="49.125" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="58.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C2" t="s">
+    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1"/>
+    <row r="2" spans="2:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="2:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="L4" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="C10" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="K10" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="L10" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
+      <c r="D15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K51" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K52" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K53" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K54" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K55" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K56" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K57" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K59" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K60" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K61" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K62" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K63" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K64" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K65" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K66" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K67" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K68" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K69" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K70" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K71" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K72" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K73" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K74" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K75" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K76" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K77" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K78" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K79" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="80" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K80" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K81" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K82" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K83" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K84" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K85" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K86" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K87" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K88" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="89" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K89" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="90" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K90" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="91" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K91" s="2"/>
+    </row>
+    <row r="92" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K92" s="2"/>
+    </row>
+    <row r="93" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="K93" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GameDesign/宠物设计.xlsx
+++ b/GameDesign/宠物设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B8C13E-0CDE-45B4-AFF1-E57748CD2FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49A921F-CF6F-4AFF-BC92-3A00464607F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="185">
   <si>
     <t>勇猛</t>
   </si>
@@ -304,9 +304,6 @@
   </si>
   <si>
     <t>每秒恢复最大生命值的1%</t>
-  </si>
-  <si>
-    <t>受到异常状态有25%概率进行抵抗</t>
   </si>
   <si>
     <t>受到技能攻击有10%概率进行闪避</t>
@@ -609,6 +606,18 @@
   </si>
   <si>
     <t>伤害减免提升10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗暴提高10%，防御提升10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到异常状态有25%概率进行抵抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到异常状态有25%概率进行抵抗,并恢复自身5%生命</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -966,7 +975,7 @@
   <dimension ref="B1:L93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -980,14 +989,14 @@
     <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1"/>
     <row r="2" spans="2:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C2" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="2:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -998,13 +1007,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>82</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>0</v>
@@ -1024,7 +1033,7 @@
         <v>84</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>1</v>
@@ -1045,7 +1054,7 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>2</v>
@@ -1062,10 +1071,10 @@
         <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
@@ -1079,13 +1088,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>4</v>
@@ -1116,10 +1125,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F10" s="2"/>
       <c r="K10" s="2" t="s">
@@ -1134,10 +1143,10 @@
         <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>7</v>
@@ -1151,7 +1160,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>8</v>
@@ -1165,7 +1174,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>9</v>
@@ -1179,7 +1188,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>10</v>
@@ -1202,143 +1211,152 @@
         <v>11</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>93</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="2:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="D16" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="K16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>184</v>
+      </c>
       <c r="K17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K25" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K27" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K28" s="2" t="s">
         <v>24</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K29" s="2" t="s">
         <v>25</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K30" s="2" t="s">
         <v>26</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K31" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K32" s="2" t="s">
         <v>28</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1346,7 +1364,7 @@
         <v>29</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1354,7 +1372,7 @@
         <v>30</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1362,7 +1380,7 @@
         <v>31</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1370,7 +1388,7 @@
         <v>32</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1378,7 +1396,7 @@
         <v>33</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1394,7 +1412,7 @@
         <v>35</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1402,7 +1420,7 @@
         <v>36</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1410,7 +1428,7 @@
         <v>37</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1418,7 +1436,7 @@
         <v>38</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1426,7 +1444,7 @@
         <v>39</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1434,7 +1452,7 @@
         <v>40</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1442,7 +1460,7 @@
         <v>41</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1450,7 +1468,7 @@
         <v>42</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1458,7 +1476,7 @@
         <v>43</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1466,7 +1484,7 @@
         <v>44</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1474,7 +1492,7 @@
         <v>45</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1482,7 +1500,7 @@
         <v>46</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1490,7 +1508,7 @@
         <v>47</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1498,7 +1516,7 @@
         <v>48</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1506,7 +1524,7 @@
         <v>49</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1514,7 +1532,7 @@
         <v>50</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1522,7 +1540,7 @@
         <v>51</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1530,7 +1548,7 @@
         <v>52</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1538,7 +1556,7 @@
         <v>53</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1546,7 +1564,7 @@
         <v>54</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1554,7 +1572,7 @@
         <v>55</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1562,7 +1580,7 @@
         <v>56</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1570,7 +1588,7 @@
         <v>57</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1578,7 +1596,7 @@
         <v>58</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1586,7 +1604,7 @@
         <v>59</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1594,7 +1612,7 @@
         <v>60</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1602,7 +1620,7 @@
         <v>61</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1610,7 +1628,7 @@
         <v>62</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1618,7 +1636,7 @@
         <v>63</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1626,7 +1644,7 @@
         <v>64</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1634,7 +1652,7 @@
         <v>65</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1642,7 +1660,7 @@
         <v>66</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1650,7 +1668,7 @@
         <v>67</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1658,15 +1676,15 @@
         <v>68</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K73" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1674,7 +1692,7 @@
         <v>69</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1682,7 +1700,7 @@
         <v>70</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1690,7 +1708,7 @@
         <v>71</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1698,7 +1716,7 @@
         <v>72</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1706,7 +1724,7 @@
         <v>73</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1714,7 +1732,7 @@
         <v>74</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1722,7 +1740,7 @@
         <v>75</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1730,7 +1748,7 @@
         <v>76</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1738,7 +1756,7 @@
         <v>73</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1746,7 +1764,7 @@
         <v>77</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1754,7 +1772,7 @@
         <v>78</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1762,7 +1780,7 @@
         <v>79</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1770,7 +1788,7 @@
         <v>80</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1778,7 +1796,7 @@
         <v>81</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1786,7 +1804,7 @@
         <v>81</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1794,7 +1812,7 @@
         <v>20</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="90" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1802,7 +1820,7 @@
         <v>75</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">

--- a/GameDesign/宠物设计.xlsx
+++ b/GameDesign/宠物设计.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49A921F-CF6F-4AFF-BC92-3A00464607F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC4C105-DADB-4171-BCEC-F2A9841BF273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="宠物被动技能" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="230">
   <si>
     <t>勇猛</t>
   </si>
@@ -304,6 +305,9 @@
   </si>
   <si>
     <t>每秒恢复最大生命值的1%</t>
+  </si>
+  <si>
+    <t>受到异常状态有25%概率进行抵抗</t>
   </si>
   <si>
     <t>受到技能攻击有10%概率进行闪避</t>
@@ -618,6 +622,148 @@
   </si>
   <si>
     <t>受到异常状态有25%概率进行抵抗,并恢复自身5%生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避概率提升10%,命中概率提升10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到技能攻击有10%概率进行抵抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击会额外攻击1个目标,伤害降低75%,可主动开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史莱姆</t>
+  </si>
+  <si>
+    <t>森灵小妖</t>
+  </si>
+  <si>
+    <t>森灵小猪</t>
+  </si>
+  <si>
+    <t>绿林熊妖</t>
+  </si>
+  <si>
+    <t>山贼</t>
+  </si>
+  <si>
+    <t>森林蜘蛛</t>
+  </si>
+  <si>
+    <t>森林熊</t>
+  </si>
+  <si>
+    <t>绿洲龟</t>
+  </si>
+  <si>
+    <t>绿洲恐龙</t>
+  </si>
+  <si>
+    <t>绿洲蜗牛</t>
+  </si>
+  <si>
+    <t>荒漠鹰</t>
+  </si>
+  <si>
+    <t>迅捷恐龙</t>
+  </si>
+  <si>
+    <t>遗迹火焰</t>
+  </si>
+  <si>
+    <t>遗迹弓手</t>
+  </si>
+  <si>
+    <t>螃蟹护卫</t>
+  </si>
+  <si>
+    <t>猛虎</t>
+  </si>
+  <si>
+    <t>丛林虎</t>
+  </si>
+  <si>
+    <t>兽人护卫</t>
+  </si>
+  <si>
+    <t>地精守卫</t>
+  </si>
+  <si>
+    <t>兽人骑兵</t>
+  </si>
+  <si>
+    <t>岩石护卫</t>
+  </si>
+  <si>
+    <t>冰灵蜘蛛</t>
+  </si>
+  <si>
+    <t>雪狼</t>
+  </si>
+  <si>
+    <t>冰灵山羊</t>
+  </si>
+  <si>
+    <t>冰封蜗牛</t>
+  </si>
+  <si>
+    <t>冰块士兵</t>
+  </si>
+  <si>
+    <t>冰灵</t>
+  </si>
+  <si>
+    <t>冰块护卫</t>
+  </si>
+  <si>
+    <t>精灵蝴蝶</t>
+  </si>
+  <si>
+    <t>影月护卫</t>
+  </si>
+  <si>
+    <t>影月弓手</t>
+  </si>
+  <si>
+    <t>影月骑兵</t>
+  </si>
+  <si>
+    <t>暗灵士兵</t>
+  </si>
+  <si>
+    <t>熔岩护卫</t>
+  </si>
+  <si>
+    <t>这次普通怪物要和当前技能匹配, 2 如果怪物有这个技能抓过来也会有这个技能 ？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -661,12 +807,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -681,7 +833,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -691,6 +843,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -972,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L93"/>
+  <dimension ref="B1:O93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -984,36 +1145,40 @@
     <col min="4" max="4" width="49.125" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
     <col min="12" max="12" width="58.875" customWidth="1"/>
+    <col min="13" max="13" width="9" style="6"/>
+    <col min="15" max="15" width="37.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1"/>
-    <row r="2" spans="2:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="2:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="2" spans="2:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C2" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="2:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="2:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="2:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>82</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>0</v>
@@ -1021,8 +1186,11 @@
       <c r="L4" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1033,7 +1201,7 @@
         <v>84</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>1</v>
@@ -1041,8 +1209,11 @@
       <c r="L5" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1054,7 +1225,7 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>2</v>
@@ -1062,8 +1233,11 @@
       <c r="L6" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -1071,30 +1245,36 @@
         <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K7" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="M7" s="2">
+        <v>2</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="2">
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>4</v>
@@ -1102,8 +1282,11 @@
       <c r="L8" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="2">
         <v>6</v>
       </c>
@@ -1119,16 +1302,19 @@
       <c r="L9" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="2">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="F10" s="2"/>
       <c r="K10" s="2" t="s">
@@ -1137,16 +1323,19 @@
       <c r="L10" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="2">
         <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>7</v>
@@ -1154,27 +1343,36 @@
       <c r="L11" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="2">
         <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="K12" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="M12" s="2">
+        <v>2</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="2">
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>9</v>
@@ -1182,13 +1380,16 @@
       <c r="L13" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="2">
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>10</v>
@@ -1196,8 +1397,11 @@
       <c r="L14" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="2">
         <v>12</v>
       </c>
@@ -1211,630 +1415,2886 @@
         <v>11</v>
       </c>
       <c r="L15" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="M15" s="2">
+        <v>2</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="D16" s="3" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="D16" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>94</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>95</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="K18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>96</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="K19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>97</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>98</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>99</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>101</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>102</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="D25" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="K25" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>103</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>104</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B27" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="K27" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>105</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K28" s="2" t="s">
         <v>24</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>106</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K29" s="2" t="s">
         <v>25</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>107</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K30" s="2" t="s">
         <v>26</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>108</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K31" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="3:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>109</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K32" s="2" t="s">
         <v>28</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>110</v>
+      </c>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K33" s="2" t="s">
         <v>29</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>111</v>
+      </c>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K34" s="2" t="s">
         <v>30</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>112</v>
+      </c>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K35" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>113</v>
+      </c>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K36" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>114</v>
+      </c>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K37" s="2" t="s">
         <v>33</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>115</v>
+      </c>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K38" s="2" t="s">
         <v>34</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="39" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K39" s="2" t="s">
         <v>35</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>116</v>
+      </c>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K40" s="2" t="s">
         <v>36</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>117</v>
+      </c>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K41" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>118</v>
+      </c>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K42" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>119</v>
+      </c>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K43" s="2" t="s">
         <v>39</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>120</v>
+      </c>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>121</v>
+      </c>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K45" s="2" t="s">
         <v>41</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>122</v>
+      </c>
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K46" s="2" t="s">
         <v>42</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>123</v>
+      </c>
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K47" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="48" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>124</v>
+      </c>
+      <c r="M47" s="2"/>
+    </row>
+    <row r="48" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K48" s="2" t="s">
         <v>44</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="49" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>125</v>
+      </c>
+      <c r="M48" s="2"/>
+    </row>
+    <row r="49" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K49" s="2" t="s">
         <v>45</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="50" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>126</v>
+      </c>
+      <c r="M49" s="2"/>
+    </row>
+    <row r="50" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K50" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="51" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>127</v>
+      </c>
+      <c r="M50" s="2"/>
+    </row>
+    <row r="51" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K51" s="2" t="s">
         <v>47</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>128</v>
+      </c>
+      <c r="M51" s="2"/>
+    </row>
+    <row r="52" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K52" s="2" t="s">
         <v>48</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="53" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>129</v>
+      </c>
+      <c r="M52" s="2"/>
+    </row>
+    <row r="53" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K53" s="2" t="s">
         <v>49</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="54" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>130</v>
+      </c>
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K54" s="2" t="s">
         <v>50</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>131</v>
+      </c>
+      <c r="M54" s="2"/>
+    </row>
+    <row r="55" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K55" s="2" t="s">
         <v>51</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="56" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>132</v>
+      </c>
+      <c r="M55" s="2"/>
+    </row>
+    <row r="56" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K56" s="2" t="s">
         <v>52</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="57" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>133</v>
+      </c>
+      <c r="M56" s="2"/>
+    </row>
+    <row r="57" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K57" s="2" t="s">
         <v>53</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="58" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>134</v>
+      </c>
+      <c r="M57" s="2"/>
+    </row>
+    <row r="58" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K58" s="2" t="s">
         <v>54</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="59" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>135</v>
+      </c>
+      <c r="M58" s="2"/>
+    </row>
+    <row r="59" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K59" s="2" t="s">
         <v>55</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>136</v>
+      </c>
+      <c r="M59" s="2"/>
+    </row>
+    <row r="60" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K60" s="2" t="s">
         <v>56</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="61" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>137</v>
+      </c>
+      <c r="M60" s="2"/>
+    </row>
+    <row r="61" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K61" s="2" t="s">
         <v>57</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="62" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>138</v>
+      </c>
+      <c r="M61" s="2"/>
+    </row>
+    <row r="62" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K62" s="2" t="s">
         <v>58</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="63" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>139</v>
+      </c>
+      <c r="M62" s="2"/>
+    </row>
+    <row r="63" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K63" s="2" t="s">
         <v>59</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="64" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>140</v>
+      </c>
+      <c r="M63" s="2"/>
+    </row>
+    <row r="64" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K64" s="2" t="s">
         <v>60</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="65" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>141</v>
+      </c>
+      <c r="M64" s="2"/>
+    </row>
+    <row r="65" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K65" s="2" t="s">
         <v>61</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="66" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>142</v>
+      </c>
+      <c r="M65" s="2"/>
+    </row>
+    <row r="66" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K66" s="2" t="s">
         <v>62</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="67" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>143</v>
+      </c>
+      <c r="M66" s="2"/>
+    </row>
+    <row r="67" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K67" s="2" t="s">
         <v>63</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>144</v>
+      </c>
+      <c r="M67" s="2"/>
+    </row>
+    <row r="68" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K68" s="2" t="s">
         <v>64</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="69" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>145</v>
+      </c>
+      <c r="M68" s="2"/>
+    </row>
+    <row r="69" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K69" s="2" t="s">
         <v>65</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="70" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>145</v>
+      </c>
+      <c r="M69" s="2"/>
+    </row>
+    <row r="70" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K70" s="2" t="s">
         <v>66</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="71" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>145</v>
+      </c>
+      <c r="M70" s="2"/>
+    </row>
+    <row r="71" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K71" s="2" t="s">
         <v>67</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="72" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>145</v>
+      </c>
+      <c r="M71" s="2"/>
+    </row>
+    <row r="72" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K72" s="2" t="s">
         <v>68</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="73" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>145</v>
+      </c>
+      <c r="M72" s="2"/>
+    </row>
+    <row r="73" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K73" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="74" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>146</v>
+      </c>
+      <c r="M73" s="2"/>
+    </row>
+    <row r="74" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K74" s="2" t="s">
         <v>69</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="75" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>147</v>
+      </c>
+      <c r="M74" s="2"/>
+    </row>
+    <row r="75" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K75" s="2" t="s">
         <v>70</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="76" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>148</v>
+      </c>
+      <c r="M75" s="2"/>
+    </row>
+    <row r="76" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K76" s="2" t="s">
         <v>71</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="77" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>149</v>
+      </c>
+      <c r="M76" s="2"/>
+    </row>
+    <row r="77" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K77" s="2" t="s">
         <v>72</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="78" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>150</v>
+      </c>
+      <c r="M77" s="2"/>
+    </row>
+    <row r="78" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K78" s="2" t="s">
         <v>73</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="79" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>151</v>
+      </c>
+      <c r="M78" s="2"/>
+    </row>
+    <row r="79" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K79" s="2" t="s">
         <v>74</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="80" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>152</v>
+      </c>
+      <c r="M79" s="2"/>
+    </row>
+    <row r="80" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K80" s="2" t="s">
         <v>75</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="81" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>153</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K81" s="2" t="s">
         <v>76</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="82" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>154</v>
+      </c>
+      <c r="M81" s="2"/>
+    </row>
+    <row r="82" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K82" s="2" t="s">
         <v>73</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="83" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>155</v>
+      </c>
+      <c r="M82" s="2"/>
+    </row>
+    <row r="83" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K83" s="2" t="s">
         <v>77</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="84" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>156</v>
+      </c>
+      <c r="M83" s="2"/>
+    </row>
+    <row r="84" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K84" s="2" t="s">
         <v>78</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="85" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>157</v>
+      </c>
+      <c r="M84" s="2"/>
+    </row>
+    <row r="85" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K85" s="2" t="s">
         <v>79</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="86" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>158</v>
+      </c>
+      <c r="M85" s="2"/>
+    </row>
+    <row r="86" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K86" s="2" t="s">
         <v>80</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="87" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>159</v>
+      </c>
+      <c r="M86" s="2"/>
+    </row>
+    <row r="87" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K87" s="2" t="s">
         <v>81</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="88" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>160</v>
+      </c>
+      <c r="M87" s="2"/>
+    </row>
+    <row r="88" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K88" s="2" t="s">
         <v>81</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="89" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>161</v>
+      </c>
+      <c r="M88" s="2"/>
+    </row>
+    <row r="89" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K89" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="90" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>162</v>
+      </c>
+      <c r="M89" s="2"/>
+    </row>
+    <row r="90" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K90" s="2" t="s">
         <v>75</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="91" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>163</v>
+      </c>
+      <c r="M90" s="2"/>
+    </row>
+    <row r="91" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K91" s="2"/>
-    </row>
-    <row r="92" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="M91" s="2"/>
+    </row>
+    <row r="92" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K92" s="2"/>
-    </row>
-    <row r="93" spans="11:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="M92" s="2"/>
+    </row>
+    <row r="93" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K93" s="2"/>
+      <c r="M93" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64ED461B-9A4E-44B2-982C-34BEFDC32D79}">
+  <dimension ref="B2:AG42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="21" width="9" style="2"/>
+    <col min="33" max="33" width="52.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:33">
+      <c r="D2" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="2:33">
+      <c r="B3" s="2">
+        <v>310101</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2301001</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2301011</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2301005</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N3" s="2">
+        <v>2301010</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="V3" t="str">
+        <f>F3&amp;G3&amp;H3&amp;I3&amp;J3&amp;K3&amp;L3&amp;M3&amp;N3&amp;O3&amp;P3&amp;Q3&amp;R3&amp;S3&amp;T3</f>
+        <v>2301011,0.5;2301005,0.1;2301010,0.1;</v>
+      </c>
+      <c r="AE3">
+        <v>2301001</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="2:33">
+      <c r="B4" s="2">
+        <v>310102</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2301004</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2301002</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N4" s="2">
+        <v>2301019</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="V4" t="str">
+        <f t="shared" ref="V4:V36" si="0">F4&amp;G4&amp;H4&amp;I4&amp;J4&amp;K4&amp;L4&amp;M4&amp;N4&amp;O4&amp;P4&amp;Q4&amp;R4&amp;S4&amp;T4</f>
+        <v>2301002,0.2;2301019,0.2;</v>
+      </c>
+      <c r="AE4">
+        <v>2301002</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="2:33">
+      <c r="B5" s="2">
+        <v>310103</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2301005</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2301007</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N5" s="2">
+        <v>2301019</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="V5" t="str">
+        <f t="shared" si="0"/>
+        <v>2301007,0.2;2301019,0.2;</v>
+      </c>
+      <c r="AE5">
+        <v>2301003</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="2:33">
+      <c r="B6" s="2">
+        <v>310104</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2301006</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2301013</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2301007</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2301008</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="V6" t="str">
+        <f t="shared" si="0"/>
+        <v>2301013,0.5;2301007,0.1;2301008,0.1;</v>
+      </c>
+      <c r="AE6">
+        <v>2301004</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="2:33">
+      <c r="B7" s="2">
+        <v>310105</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2301010</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2301012</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N7" s="2">
+        <v>2301020</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="V7" t="str">
+        <f t="shared" si="0"/>
+        <v>2301012,0.2;2301020,0.2;</v>
+      </c>
+      <c r="AE7">
+        <v>2301005</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="2:33">
+      <c r="B8" s="2">
+        <v>310106</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2301001</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2301004</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N8" s="2">
+        <v>2301016</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="V8" t="str">
+        <f t="shared" si="0"/>
+        <v>2301004,0.2;2301016,0.2;</v>
+      </c>
+      <c r="AE8">
+        <v>2301006</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="2:33">
+      <c r="B9" s="2">
+        <v>310107</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2301018</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2301016</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2301019</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N9" s="2">
+        <v>2301020</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="V9" t="str">
+        <f t="shared" si="0"/>
+        <v>2301016,0.5;2301019,0.1;2301020,0.1;</v>
+      </c>
+      <c r="AE9">
+        <v>2301007</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="2:33">
+      <c r="B10" s="2">
+        <v>320101</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2301008</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2301016</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N10" s="2">
+        <v>2301017</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="V10" t="str">
+        <f t="shared" si="0"/>
+        <v>2301016,0.2;2301017,0.2;</v>
+      </c>
+      <c r="AE10">
+        <v>2301008</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="2:33">
+      <c r="B11" s="2">
+        <v>320102</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2301002</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2301013</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2301018</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N11" s="2">
+        <v>2301007</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="V11" t="str">
+        <f t="shared" si="0"/>
+        <v>2301013,0.5;2301018,0.1;2301007,0.1;</v>
+      </c>
+      <c r="AE11">
+        <v>2301009</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="2:33">
+      <c r="B12" s="2">
+        <v>320103</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2301009</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2301014</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2301010</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N12" s="2">
+        <v>2301016</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="V12" t="str">
+        <f t="shared" si="0"/>
+        <v>2301014,0.5;2301010,0.1;2301016,0.1;</v>
+      </c>
+      <c r="AE12">
+        <v>2301010</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="2:33">
+      <c r="B13" s="2">
+        <v>320104</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2301011</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2301002</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N13" s="2">
+        <v>2301020</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="V13" t="str">
+        <f t="shared" si="0"/>
+        <v>2301002,0.2;2301020,0.2;</v>
+      </c>
+      <c r="AE13">
+        <v>2301011</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="2:33">
+      <c r="B14" s="2">
+        <v>320105</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2301020</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2301005</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2301001</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N14" s="2">
+        <v>2301013</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="V14" t="str">
+        <f t="shared" si="0"/>
+        <v>2301005,0.5;2301001,0.2;2301013,0.2;</v>
+      </c>
+      <c r="AE14">
+        <v>2301012</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="2:33">
+      <c r="B15" s="2">
+        <v>320106</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2301005</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2301011</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2301009</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N15" s="2">
+        <v>2301014</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="V15" t="str">
+        <f t="shared" si="0"/>
+        <v>2301011,0.5;2301009,0.2;2301014,0.2;</v>
+      </c>
+      <c r="AE15">
+        <v>2301013</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="2:33">
+      <c r="B16" s="2">
+        <v>320107</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2301015</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2301010</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2302018</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N16" s="2">
+        <v>2301005</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="V16" t="str">
+        <f t="shared" si="0"/>
+        <v>2301010,0.5;2302018,0.2;2301005,0.2;</v>
+      </c>
+      <c r="AE16">
+        <v>2301014</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="2:33">
+      <c r="B17" s="2">
+        <v>330101</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2301012</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2301011</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2301013</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N17" s="2">
+        <v>2302017</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="V17" t="str">
+        <f t="shared" si="0"/>
+        <v>2301011,0.5;2301013,0.2;2302017,0.2;</v>
+      </c>
+      <c r="AE17">
+        <v>2301015</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="2:33">
+      <c r="B18" s="2">
+        <v>330102</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2301006</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2301012</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2302016</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N18" s="2">
+        <v>2301018</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="V18" t="str">
+        <f t="shared" si="0"/>
+        <v>2301012,0.5;2302016,0.2;2301018,0.2;</v>
+      </c>
+      <c r="AE18">
+        <v>2301016</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="2:33">
+      <c r="B19" s="2">
+        <v>330103</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2301001</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2301013</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J19" s="2">
+        <v>2302015</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N19" s="2">
+        <v>2302014</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="V19" t="str">
+        <f t="shared" si="0"/>
+        <v>2301013,0.5;2302015,0.2;2302014,0.2;</v>
+      </c>
+      <c r="AE19">
+        <v>2301017</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="2:33">
+      <c r="B20" s="2">
+        <v>330104</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2301005</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2301008</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2302013</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N20" s="2">
+        <v>2301015</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="V20" t="str">
+        <f t="shared" si="0"/>
+        <v>2301008,0.5;2302013,0.2;2301015,0.2;</v>
+      </c>
+      <c r="AE20">
+        <v>2301018</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="2:33">
+      <c r="B21" s="2">
+        <v>330105</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2301006</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2301015</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2302012</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N21" s="2">
+        <v>2301016</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="V21" t="str">
+        <f t="shared" si="0"/>
+        <v>2301015,0.5;2302012,0.2;2301016,0.2;</v>
+      </c>
+      <c r="AE21">
+        <v>2301019</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:33">
+      <c r="B22" s="2">
+        <v>330106</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2301007</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2301016</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J22" s="2">
+        <v>2302007</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N22" s="2">
+        <v>2301001</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="V22" t="str">
+        <f t="shared" si="0"/>
+        <v>2301016,0.5;2302007,0.2;2301001,0.2;</v>
+      </c>
+      <c r="AE22">
+        <v>2301020</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33">
+      <c r="B23" s="2">
+        <v>330107</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2301008</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2301017</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J23" s="2">
+        <v>2302011</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N23" s="2">
+        <v>2301002</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="V23" t="str">
+        <f t="shared" si="0"/>
+        <v>2301017,0.5;2302011,0.2;2301002,0.2;</v>
+      </c>
+      <c r="AE23">
+        <v>2302001</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="2:33">
+      <c r="B24" s="2">
+        <v>340101</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2301009</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2301018</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J24" s="2">
+        <v>2302005</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N24" s="2">
+        <v>2301019</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="V24" t="str">
+        <f t="shared" si="0"/>
+        <v>2301018,0.5;2302005,0.2;2301019,0.2;</v>
+      </c>
+      <c r="AE24">
+        <v>2302002</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="2:33">
+      <c r="B25" s="2">
+        <v>340102</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2301010</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2301019</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J25" s="2">
+        <v>2302006</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N25" s="2">
+        <v>2301020</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="V25" t="str">
+        <f t="shared" si="0"/>
+        <v>2301019,0.5;2302006,0.2;2301020,0.2;</v>
+      </c>
+      <c r="AE25">
+        <v>2302003</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="2:33">
+      <c r="B26" s="2">
+        <v>340103</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2301001</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2301005</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J26" s="2">
+        <v>2301020</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N26" s="2">
+        <v>2302011</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="V26" t="str">
+        <f t="shared" si="0"/>
+        <v>2301005,0.5;2301020,0.2;2302011,0.2;</v>
+      </c>
+      <c r="AE26">
+        <v>2302004</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="2:33">
+      <c r="B27" s="2">
+        <v>340104</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2301004</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2301001</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J27" s="2">
+        <v>2302010</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N27" s="2">
+        <v>2301019</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="V27" t="str">
+        <f t="shared" si="0"/>
+        <v>2301001,0.5;2302010,0.2;2301019,0.2;</v>
+      </c>
+      <c r="AE27">
+        <v>2302005</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="2:33">
+      <c r="B28" s="2">
+        <v>340105</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2301011</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2301020</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J28" s="2">
+        <v>2302008</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N28" s="2">
+        <v>2301002</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="V28" t="str">
+        <f t="shared" si="0"/>
+        <v>2301020,0.5;2302008,0.2;2301002,0.2;</v>
+      </c>
+      <c r="AE28">
+        <v>2302006</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="2:33">
+      <c r="B29" s="2">
+        <v>340106</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2301003</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2301002</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J29" s="2">
+        <v>2301011</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N29" s="2">
+        <v>2302009</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="V29" t="str">
+        <f t="shared" si="0"/>
+        <v>2301002,0.5;2301011,0.2;2302009,0.2;</v>
+      </c>
+      <c r="AE29">
+        <v>2302007</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="2:33">
+      <c r="B30" s="2">
+        <v>340107</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2301010</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2301004</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J30" s="2">
+        <v>2302007</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N30" s="2">
+        <v>2301011</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="V30" t="str">
+        <f t="shared" si="0"/>
+        <v>2301004,0.5;2302007,0.2;2301011,0.2;</v>
+      </c>
+      <c r="AE30">
+        <v>2302008</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="2:33">
+      <c r="B31" s="2">
+        <v>350101</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2301013</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2301005</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J31" s="2">
+        <v>2302003</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N31" s="2">
+        <v>2301012</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="R31" s="2">
+        <v>2301016</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="T31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="V31" t="str">
+        <f t="shared" si="0"/>
+        <v>2301005,0.5;2302003,0.2;2301012,0.1;2301016,0.1</v>
+      </c>
+      <c r="AE31">
+        <v>2302009</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="2:33">
+      <c r="B32" s="2">
+        <v>350102</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2301014</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2301010</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J32" s="2">
+        <v>2302006</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N32" s="2">
+        <v>2301007</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="R32" s="2">
+        <v>2301017</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="T32" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="V32" t="str">
+        <f t="shared" si="0"/>
+        <v>2301010,0.5;2302006,0.2;2301007,0.1;2301017,0.1</v>
+      </c>
+      <c r="AE32">
+        <v>2302010</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="2:33">
+      <c r="B33" s="2">
+        <v>350103</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2301013</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2301007</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J33" s="2">
+        <v>2302004</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N33" s="2">
+        <v>2301020</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="R33" s="2">
+        <v>2301010</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="T33" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="V33" t="str">
+        <f t="shared" si="0"/>
+        <v>2301007,0.5;2302004,0.2;2301020,0.1;2301010,0.1</v>
+      </c>
+      <c r="AE33">
+        <v>2302011</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="2:33">
+      <c r="B34" s="2">
+        <v>350104</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2301008</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2301010</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J34" s="2">
+        <v>2302005</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N34" s="2">
+        <v>2301009</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="R34" s="2">
+        <v>2301011</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="T34" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="V34" t="str">
+        <f t="shared" si="0"/>
+        <v>2301010,0.5;2302005,0.2;2301009,0.1;2301011,0.1</v>
+      </c>
+      <c r="AE34">
+        <v>2302012</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="2:33">
+      <c r="B35" s="2">
+        <v>350105</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2301010</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2301009</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J35" s="2">
+        <v>2302001</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N35" s="2">
+        <v>2302019</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="R35" s="2">
+        <v>2301012</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="T35" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="V35" t="str">
+        <f t="shared" si="0"/>
+        <v>2301009,0.5;2302001,0.2;2302019,0.1;2301012,0.1</v>
+      </c>
+      <c r="AE35">
+        <v>2302013</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="2:33">
+      <c r="B36" s="2">
+        <v>350106</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2301011</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2301010</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J36" s="2">
+        <v>2302002</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N36" s="2">
+        <v>2302020</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="R36" s="2">
+        <v>2301013</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="T36" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="V36" t="str">
+        <f t="shared" si="0"/>
+        <v>2301010,0.5;2302002,0.2;2302020,0.1;2301013,0.1</v>
+      </c>
+      <c r="AE36">
+        <v>2302014</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="2:33">
+      <c r="AE37">
+        <v>2302015</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="2:33">
+      <c r="AE38">
+        <v>2302016</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="2:33">
+      <c r="AE39">
+        <v>2302017</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="2:33">
+      <c r="AE40">
+        <v>2302018</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="2:33">
+      <c r="AE41">
+        <v>2302019</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="2:33">
+      <c r="AE42">
+        <v>2302020</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GameDesign/宠物设计.xlsx
+++ b/GameDesign/宠物设计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC4C105-DADB-4171-BCEC-F2A9841BF273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247DD647-BE76-46B8-8FD6-8E8C0AFFC909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="宠物被动技能" sheetId="1" r:id="rId1"/>
@@ -1135,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O93"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2187,8 +2187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64ED461B-9A4E-44B2-982C-34BEFDC32D79}">
   <dimension ref="B2:AG42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/GameDesign/宠物设计.xlsx
+++ b/GameDesign/宠物设计.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247DD647-BE76-46B8-8FD6-8E8C0AFFC909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8F715A-FA9F-419F-996A-1F38A3E17554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="宠物被动技能" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="345">
   <si>
     <t>勇猛</t>
   </si>
@@ -766,12 +767,446 @@
     <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>主动技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对前方范围造成225%伤害</t>
+  </si>
+  <si>
+    <t>立即跳跃到目标区域,并对附近敌方单位造成150%伤害</t>
+  </si>
+  <si>
+    <t>对前方发射气功波,造成250%伤害</t>
+  </si>
+  <si>
+    <t>对目标区域持续性释放,每秒造成125%伤害,持续5秒</t>
+  </si>
+  <si>
+    <t>对前方范围发送3个法力球,对触碰到的敌方单位造成150%伤害</t>
+  </si>
+  <si>
+    <t>对目标区域进行攻击,造成150%伤害,并将目标置空1秒</t>
+  </si>
+  <si>
+    <t>恢复己方10%的生命值,并使自身每秒额外恢复1%生命,持续10秒</t>
+  </si>
+  <si>
+    <t>对指定区域恢复10%的生命</t>
+  </si>
+  <si>
+    <t>对目标区域造成150%伤害,并使其每秒损失20%生命,持续6秒</t>
+  </si>
+  <si>
+    <t>灵犀一击</t>
+  </si>
+  <si>
+    <t>星耀冲击</t>
+  </si>
+  <si>
+    <t>月华之击</t>
+  </si>
+  <si>
+    <t>魔法光柱</t>
+  </si>
+  <si>
+    <t>法力之球</t>
+  </si>
+  <si>
+    <t>聚散能量</t>
+  </si>
+  <si>
+    <t>治愈之力</t>
+  </si>
+  <si>
+    <t>治愈之境</t>
+  </si>
+  <si>
+    <t>神谕之力</t>
+  </si>
+  <si>
+    <t>恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跃击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即跳跃到目标区域造成200%伤害,并眩晕1秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向前方发射一团毒物,对触碰的目标造成250%伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒气攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾跑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度提升100%,持续6秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猛击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对当前目标造成250%伤害,并眩晕1秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷吐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对前方区域喷吐毒液,造成200%伤害并使目标移动速度降低50%,持续3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对自身范围造成200%伤害,并使目标造成伤害降低30%,持续5秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚硬甲壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使自身受到伤害降低90%,持续3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅捷印记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使自身伤害和移动速度提升30%,持续6秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反弹攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身受到的伤害50%转移给敌方,持续6秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还要有光环类技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速移动到目标区域,对目标立即造成200%伤害,并眩晕1秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极速射击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即提升自身100%的攻击速度,持续5秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰散射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即对前方区域发射3个法球，对目标造成200%的伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使自身暴击概率和造成伤害提升20%,持续6秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记印记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猛虎印记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标进行标记,使其他目标对其造成的伤害提升30%,持续6秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚硬防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跃猛扑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即跳跃到目标区域,对目标区域造成200%伤害,并使其移动速度降低50%,持续3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤一个兽人骑兵协助自己进行战斗,骑兵具备冲锋技能，每次冲锋对目标造成200%伤害和1秒眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰封之击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标区域进行冰封攻击,造成200%伤害和1秒眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给自身附加一个抵抗伤害护盾,可以抵消相当于20%最大生命值,持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31. 火焰护盾：为英雄创造一个火焰护盾，对靠近的敌人造成伤害。</t>
+  </si>
+  <si>
+    <t>32. 冰霜护盾：为英雄创造一个冰霜护盾，降低敌人的攻击速度。</t>
+  </si>
+  <si>
+    <t>33. 暗影护盾：为英雄创造一个暗影护盾，吸收魔法伤害并反弹一部分给攻击者。</t>
+  </si>
+  <si>
+    <t>41. 召唤石巨人：召唤一个强大的石巨人协助作战，石巨人具有高生命值和攻击力。</t>
+  </si>
+  <si>
+    <t>42. 召唤风元素：召唤一个风元素，风元素可以释放旋风攻击敌人，并提升友军的移动速度。</t>
+  </si>
+  <si>
+    <t>43. 召唤火精灵：召唤一个火精灵，火精灵可以对敌人造成持续伤害，并在死亡时爆炸。</t>
+  </si>
+  <si>
+    <t>44. 召唤水精灵：召唤一个水精灵，水精灵可以治疗友军单位，并对敌人造成减速效果。</t>
+  </si>
+  <si>
+    <t>45. 召唤土元素：召唤一个土元素，土元素具有高防御力，可以嘲讽敌人。</t>
+  </si>
+  <si>
+    <t>怒吼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即对自身范围内的敌方单位造成200%伤害,并使其眩晕1秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飓风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向前方发射一道飓风,对目标造成200%伤害,并使目标受到伤害提升20%,持续6秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚光攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标范围内造成200%伤害,并使其防御降低50%,持续6秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰灵喷吐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对前方目标造成200%伤害,并使目标造成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即对当前目标造成300%的伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环绕法球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发一个围绕在自身的法球,对碰撞的单位造成75%伤害,并使其移动速度降低20%,持续5秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理解对附近单位进行燃烧,每秒造成75%伤害,并使目标触发燃烧,每秒造成30%伤害,持续5秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝地防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即己方区域的单位10%的生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复己方最大生命的15%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治愈之境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影月旗帜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即在当前召唤一个旗帜,旗帜范围内的己方单位其造成伤害提升20%，持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即使自身受到伤害降低50%,持续5秒,血量每秒恢复1%,持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼之闪击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即移动到目标区域,对目标区域造成200%伤害,并使造成伤害降低50%,持续3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰震</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即对自身范围内的敌方单位造成200%伤害,并将其击退一定距离,使其移动速度降低30%,持续3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兽人之怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对前方区域进行冲锋,对触碰到的敌人造成200%伤害,并使造成1秒眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对前方区域造成200%伤害,并使目标造成伤害降低30%,持续4秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身闪避提升30%,每次闪避恢复自身2%的最大生命值,持续6秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他可配置技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群星坠落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴风雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续施法3秒,每秒对附近单位造成150%伤害,并使移动速度降低50%,持续3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒对己方范围1-2个单位造成150%伤害，持续3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁锢之网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即对目标区域的单位造成200%伤害,并使其产生禁锢效果,持续1秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗守卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤一个治疗守卫，为周围的友军单位提供持续的生命恢复效果,每秒恢复1.5%最大生命,持续10秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轰击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即对目标造成200%伤害,如果目标血量低于30%,则技能变为双倍伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸性毒液</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御之击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标区域释放酸性液体,对敌方单位每秒造成60%伤害,并使其受到伤害提升20%,持续5秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即对自身释放反震状态,每次受到攻击，攻击这会受到200%的伤害,持续3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗自身10%的当前血量,立即提升自身50%的伤害,持续5秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量之地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即释放一片能量之地,在能量之地的范围中伤害提升20%,敌方单位每秒损失50%生命,持续6秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -806,6 +1241,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -833,7 +1276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -850,8 +1293,24 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1135,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1145,7 +1604,7 @@
     <col min="4" max="4" width="49.125" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
     <col min="12" max="12" width="58.875" customWidth="1"/>
-    <col min="13" max="13" width="9" style="6"/>
+    <col min="13" max="13" width="9" style="7"/>
     <col min="15" max="15" width="37.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1601,6 +2060,9 @@
       </c>
     </row>
     <row r="29" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C29" s="3" t="s">
+        <v>268</v>
+      </c>
       <c r="K29" s="2" t="s">
         <v>25</v>
       </c>
@@ -1634,6 +2096,9 @@
       </c>
     </row>
     <row r="32" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C32" s="3" t="s">
+        <v>288</v>
+      </c>
       <c r="K32" s="2" t="s">
         <v>28</v>
       </c>
@@ -1642,7 +2107,10 @@
       </c>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C33" s="3" t="s">
+        <v>289</v>
+      </c>
       <c r="K33" s="2" t="s">
         <v>29</v>
       </c>
@@ -1651,7 +2119,10 @@
       </c>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C34" s="3" t="s">
+        <v>290</v>
+      </c>
       <c r="K34" s="2" t="s">
         <v>30</v>
       </c>
@@ -1660,7 +2131,7 @@
       </c>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K35" s="2" t="s">
         <v>31</v>
       </c>
@@ -1669,7 +2140,10 @@
       </c>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C36" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="K36" s="2" t="s">
         <v>32</v>
       </c>
@@ -1678,7 +2152,10 @@
       </c>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C37" s="3" t="s">
+        <v>292</v>
+      </c>
       <c r="K37" s="2" t="s">
         <v>33</v>
       </c>
@@ -1687,7 +2164,10 @@
       </c>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C38" s="3" t="s">
+        <v>293</v>
+      </c>
       <c r="K38" s="2" t="s">
         <v>34</v>
       </c>
@@ -1696,7 +2176,10 @@
       </c>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C39" s="3" t="s">
+        <v>294</v>
+      </c>
       <c r="K39" s="2" t="s">
         <v>35</v>
       </c>
@@ -1705,7 +2188,10 @@
       </c>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C40" s="3" t="s">
+        <v>295</v>
+      </c>
       <c r="K40" s="2" t="s">
         <v>36</v>
       </c>
@@ -1714,7 +2200,7 @@
       </c>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K41" s="2" t="s">
         <v>37</v>
       </c>
@@ -1723,7 +2209,7 @@
       </c>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K42" s="2" t="s">
         <v>38</v>
       </c>
@@ -1732,7 +2218,7 @@
       </c>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K43" s="2" t="s">
         <v>39</v>
       </c>
@@ -1741,7 +2227,7 @@
       </c>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K44" s="2" t="s">
         <v>40</v>
       </c>
@@ -1750,7 +2236,7 @@
       </c>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K45" s="2" t="s">
         <v>41</v>
       </c>
@@ -1759,7 +2245,7 @@
       </c>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K46" s="2" t="s">
         <v>42</v>
       </c>
@@ -1768,7 +2254,7 @@
       </c>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K47" s="2" t="s">
         <v>43</v>
       </c>
@@ -1777,7 +2263,7 @@
       </c>
       <c r="M47" s="2"/>
     </row>
-    <row r="48" spans="11:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="K48" s="2" t="s">
         <v>44</v>
       </c>
@@ -2188,7 +2674,7 @@
   <dimension ref="B2:AG42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="C36" sqref="B3:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2527,7 +3013,7 @@
       <c r="D9" s="2">
         <v>2301018</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="7">
         <v>2301016</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -4293,6 +4779,847 @@
         <v>132</v>
       </c>
     </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DB049E-55D8-4921-8104-92BAC46EB264}">
+  <dimension ref="B1:V58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="9" style="10"/>
+    <col min="6" max="6" width="76.875" customWidth="1"/>
+    <col min="15" max="15" width="12.375" customWidth="1"/>
+    <col min="16" max="16" width="12.125" customWidth="1"/>
+    <col min="17" max="17" width="51.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="E1" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="N1" s="8"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+    </row>
+    <row r="2" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="B2" s="2">
+        <v>310101</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2101010</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+    </row>
+    <row r="3" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="B3" s="2">
+        <v>310102</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2101020</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="N3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+    </row>
+    <row r="4" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="2">
+        <v>310103</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2101030</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="N4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+    </row>
+    <row r="5" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="2">
+        <v>310104</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2102010</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+    </row>
+    <row r="6" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="2">
+        <v>310105</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2102020</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+    </row>
+    <row r="7" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="2">
+        <v>310106</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2102030</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="N7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+    </row>
+    <row r="8" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="2">
+        <v>310107</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2103010</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="N8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+    </row>
+    <row r="9" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="2">
+        <v>320101</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2103020</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="N9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+    </row>
+    <row r="10" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="2">
+        <v>320102</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2103030</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="N10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+    </row>
+    <row r="11" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="2">
+        <v>320103</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="N11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+    </row>
+    <row r="12" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="2">
+        <v>320104</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="N12" s="8"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+    </row>
+    <row r="13" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="2">
+        <v>320105</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="N13" s="8"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+    </row>
+    <row r="14" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="2">
+        <v>320106</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="N14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+    </row>
+    <row r="15" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="2">
+        <v>320107</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="N15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+    </row>
+    <row r="16" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="2">
+        <v>330101</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="N16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+    </row>
+    <row r="17" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="2">
+        <v>330102</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="N17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+    </row>
+    <row r="18" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="B18" s="2">
+        <v>330103</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="N18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+    </row>
+    <row r="19" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="2">
+        <v>330104</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="N19" s="8"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+    </row>
+    <row r="20" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="2">
+        <v>330105</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="2">
+        <v>330106</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="B22" s="2">
+        <v>330107</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="B23" s="2">
+        <v>340101</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="B24" s="2">
+        <v>340102</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="B25" s="2">
+        <v>340103</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="B26" s="2">
+        <v>340104</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="B27" s="2">
+        <v>340105</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="B28" s="2">
+        <v>340106</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="B29" s="2">
+        <v>340107</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="B30" s="2">
+        <v>350101</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="B31" s="2">
+        <v>350102</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="B32" s="2">
+        <v>350103</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B33" s="2">
+        <v>350104</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B34" s="2">
+        <v>350105</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B35" s="2">
+        <v>350106</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B37" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="20.100000000000001" customHeight="1"/>
+    <row r="39" spans="2:6" ht="20.100000000000001" customHeight="1"/>
+    <row r="40" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" spans="2:6" ht="20.100000000000001" customHeight="1"/>
+    <row r="52" spans="2:6" ht="20.100000000000001" customHeight="1"/>
+    <row r="53" spans="2:6" ht="20.100000000000001" customHeight="1"/>
+    <row r="54" spans="2:6" ht="20.100000000000001" customHeight="1"/>
+    <row r="55" spans="2:6" ht="20.100000000000001" customHeight="1"/>
+    <row r="56" spans="2:6" ht="20.100000000000001" customHeight="1"/>
+    <row r="57" spans="2:6" ht="20.100000000000001" customHeight="1"/>
+    <row r="58" spans="2:6" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameDesign/宠物设计.xlsx
+++ b/GameDesign/宠物设计.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8F715A-FA9F-419F-996A-1F38A3E17554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E97D68-619F-4B64-B471-20C605F7BCC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="宠物被动技能" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="347">
   <si>
     <t>勇猛</t>
   </si>
@@ -830,14 +830,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>跳跃击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>立即跳跃到目标区域造成200%伤害,并眩晕1秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>向前方发射一团毒物,对触碰的目标造成250%伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -850,10 +842,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>移动速度提升100%,持续6秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>震地</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -882,18 +870,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使自身受到伤害降低90%,持续3秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>迅捷印记</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使自身伤害和移动速度提升30%,持续6秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>反弹攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -906,14 +886,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>闪击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快速移动到目标区域,对目标立即造成200%伤害,并眩晕1秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>极速射击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -934,10 +906,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>标记印记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>猛虎印记</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1014,10 +982,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>飓风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>向前方发射一道飓风,对目标造成200%伤害,并使目标受到伤害提升20%,持续6秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1034,10 +998,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对前方目标造成200%伤害,并使目标造成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>立即对当前目标造成300%的伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1058,10 +1018,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>理解对附近单位进行燃烧,每秒造成75%伤害,并使目标触发燃烧,每秒造成30%伤害,持续5秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>绝地防御</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1086,18 +1042,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>立即使自身受到伤害降低50%,持续5秒,血量每秒恢复1%,持续10秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>狼之闪击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>立即移动到目标区域,对目标区域造成200%伤害,并使造成伤害降低50%,持续3秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>冰震</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1122,10 +1070,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自身闪避提升30%,每次闪避恢复自身2%的最大生命值,持续6秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>其他可配置技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1138,10 +1082,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>持续施法3秒,每秒对附近单位造成150%伤害,并使移动速度降低50%,持续3秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每秒对己方范围1-2个单位造成150%伤害，持续3秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1150,10 +1090,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>立即对目标区域的单位造成200%伤害,并使其产生禁锢效果,持续1秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>治疗守卫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1162,10 +1098,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>轰击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>立即对目标造成200%伤害,如果目标血量低于30%,则技能变为双倍伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1182,23 +1114,97 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>立即对自身释放反震状态,每次受到攻击，攻击这会受到200%的伤害,持续3秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗自身10%的当前血量,立即提升自身50%的伤害,持续5秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量之地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>立即释放一片能量之地,在能量之地的范围中伤害提升20%,敌方单位每秒损失50%生命,持续6秒</t>
+    <t>立即跳跃到目标区域造成200%伤害,此必定命中目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跃打击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身移动速度提升50%,持续5秒</t>
+  </si>
+  <si>
+    <t>使自身伤害提升30%和移动速度提升20%,持续6秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使自身的防御和魔御提升100%,持续3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速移动到目标的背后,对目标立即造成200%伤害,并眩晕1秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎物印记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即对目标区域的怪物造成150%伤害,并让其附带一个猎物印记,使目标受到伤害提升20%,闪避属性降低20%,持续5秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身闪避提升30%,每秒恢复自身1.5%的最大生命值,持续6秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兽人骑兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对前方目标造成200%伤害,并使目标攻击速度降低50%,持续3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即移动到目标区域,对目标区域造成175%伤害,并使其攻击降低30%,持续3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飓风之力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对附近单位进行燃烧,每秒造成75%伤害,并使目标触发燃烧,每秒造成30%伤害,持续5秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即使自身受到伤害降低50%和血量每秒恢复2%,持续5秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标区域持续施法造成伤害,每秒造成2次伤害,每次120%伤害,并使移动速度降低50%,持续3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即对目标区域的单位造成200%伤害,并使其产生禁锢效果,持续2秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即对自身释放反震状态,每次受到攻击,攻击者会受到200%的伤害,持续3秒</t>
+  </si>
+  <si>
+    <t>消耗自身15%的当前血量,立即提升自身50%的伤害,持续5秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即对目标释放一个燃烧种子造成120%伤害,并持续燃烧对附近单位每秒造成70%伤害,持续5秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧之种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴之力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轰击压制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2061,7 +2067,7 @@
     </row>
     <row r="29" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C29" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>25</v>
@@ -2097,7 +2103,7 @@
     </row>
     <row r="32" spans="2:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C32" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>28</v>
@@ -2109,7 +2115,7 @@
     </row>
     <row r="33" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C33" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>29</v>
@@ -2121,7 +2127,7 @@
     </row>
     <row r="34" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C34" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>30</v>
@@ -2142,7 +2148,7 @@
     </row>
     <row r="36" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C36" s="3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>32</v>
@@ -2154,7 +2160,7 @@
     </row>
     <row r="37" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C37" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>33</v>
@@ -2166,7 +2172,7 @@
     </row>
     <row r="38" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C38" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>34</v>
@@ -2178,7 +2184,7 @@
     </row>
     <row r="39" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C39" s="3" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>35</v>
@@ -2190,7 +2196,7 @@
     </row>
     <row r="40" spans="3:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C40" s="3" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>36</v>
@@ -4787,17 +4793,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DB049E-55D8-4921-8104-92BAC46EB264}">
-  <dimension ref="B1:V58"/>
+  <dimension ref="B1:V80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="11.25" customWidth="1"/>
     <col min="5" max="5" width="9" style="10"/>
-    <col min="6" max="6" width="76.875" customWidth="1"/>
+    <col min="6" max="6" width="90.375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.375" customWidth="1"/>
     <col min="16" max="16" width="12.125" customWidth="1"/>
     <col min="17" max="17" width="51.75" customWidth="1"/>
@@ -4824,11 +4831,14 @@
       <c r="C2" s="2" t="s">
         <v>191</v>
       </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
       <c r="E2" s="10" t="s">
         <v>249</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H2" s="2">
         <v>2101010</v>
@@ -4853,11 +4863,14 @@
       <c r="C3" s="2" t="s">
         <v>192</v>
       </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
       <c r="E3" s="10" t="s">
-        <v>250</v>
+        <v>324</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>251</v>
+        <v>323</v>
       </c>
       <c r="H3" s="2">
         <v>2101020</v>
@@ -4882,11 +4895,14 @@
       <c r="C4" s="2" t="s">
         <v>193</v>
       </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
       <c r="E4" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H4" s="2">
         <v>2101030</v>
@@ -4911,11 +4927,14 @@
       <c r="C5" s="2" t="s">
         <v>194</v>
       </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
       <c r="E5" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>255</v>
+        <v>325</v>
       </c>
       <c r="H5" s="2">
         <v>2102010</v>
@@ -4940,11 +4959,14 @@
       <c r="C6" s="2" t="s">
         <v>195</v>
       </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
       <c r="E6" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H6" s="2">
         <v>2102020</v>
@@ -4969,11 +4991,14 @@
       <c r="C7" s="2" t="s">
         <v>196</v>
       </c>
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
       <c r="E7" s="10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H7" s="2">
         <v>2102030</v>
@@ -4998,11 +5023,14 @@
       <c r="C8" s="2" t="s">
         <v>197</v>
       </c>
+      <c r="D8" s="2">
+        <v>7</v>
+      </c>
       <c r="E8" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H8" s="2">
         <v>2103010</v>
@@ -5027,11 +5055,14 @@
       <c r="C9" s="2" t="s">
         <v>198</v>
       </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
       <c r="E9" s="10" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>263</v>
+        <v>327</v>
       </c>
       <c r="H9" s="2">
         <v>2103020</v>
@@ -5056,11 +5087,14 @@
       <c r="C10" s="2" t="s">
         <v>199</v>
       </c>
+      <c r="D10" s="2">
+        <v>9</v>
+      </c>
       <c r="E10" s="10" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>265</v>
+        <v>326</v>
       </c>
       <c r="H10" s="2">
         <v>2103030</v>
@@ -5085,11 +5119,14 @@
       <c r="C11" s="2" t="s">
         <v>200</v>
       </c>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
       <c r="E11" s="10" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="N11" s="8"/>
       <c r="R11" s="8"/>
@@ -5105,11 +5142,14 @@
       <c r="C12" s="2" t="s">
         <v>201</v>
       </c>
+      <c r="D12" s="2">
+        <v>11</v>
+      </c>
       <c r="E12" s="10" t="s">
-        <v>269</v>
+        <v>329</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>270</v>
+        <v>328</v>
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="2"/>
@@ -5128,11 +5168,14 @@
       <c r="C13" s="2" t="s">
         <v>202</v>
       </c>
+      <c r="D13" s="2">
+        <v>12</v>
+      </c>
       <c r="E13" s="10" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="2"/>
@@ -5151,11 +5194,14 @@
       <c r="C14" s="2" t="s">
         <v>203</v>
       </c>
+      <c r="D14" s="2">
+        <v>13</v>
+      </c>
       <c r="E14" s="10" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="N14" s="8"/>
       <c r="R14" s="8"/>
@@ -5171,11 +5217,14 @@
       <c r="C15" s="2" t="s">
         <v>204</v>
       </c>
+      <c r="D15" s="2">
+        <v>14</v>
+      </c>
       <c r="E15" s="10" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="N15" s="8"/>
       <c r="R15" s="8"/>
@@ -5191,11 +5240,14 @@
       <c r="C16" s="2" t="s">
         <v>205</v>
       </c>
+      <c r="D16" s="2">
+        <v>15</v>
+      </c>
       <c r="E16" s="10" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="N16" s="8"/>
       <c r="R16" s="8"/>
@@ -5211,11 +5263,14 @@
       <c r="C17" s="2" t="s">
         <v>206</v>
       </c>
+      <c r="D17" s="2">
+        <v>16</v>
+      </c>
       <c r="E17" s="10" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="N17" s="8"/>
       <c r="R17" s="8"/>
@@ -5231,11 +5286,14 @@
       <c r="C18" s="2" t="s">
         <v>207</v>
       </c>
+      <c r="D18" s="2">
+        <v>17</v>
+      </c>
       <c r="E18" s="10" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="N18" s="8"/>
       <c r="R18" s="8"/>
@@ -5251,11 +5309,14 @@
       <c r="C19" s="2" t="s">
         <v>208</v>
       </c>
+      <c r="D19" s="2">
+        <v>18</v>
+      </c>
       <c r="E19" s="10" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="9"/>
@@ -5274,11 +5335,14 @@
       <c r="C20" s="2" t="s">
         <v>209</v>
       </c>
+      <c r="D20" s="2">
+        <v>19</v>
+      </c>
       <c r="E20" s="10" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="2:22" ht="20.100000000000001" customHeight="1">
@@ -5286,13 +5350,16 @@
         <v>330106</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>210</v>
+        <v>333</v>
+      </c>
+      <c r="D21" s="2">
+        <v>20</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="2:22" ht="20.100000000000001" customHeight="1">
@@ -5302,11 +5369,14 @@
       <c r="C22" s="2" t="s">
         <v>211</v>
       </c>
+      <c r="D22" s="2">
+        <v>21</v>
+      </c>
       <c r="E22" s="10" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="2:22" ht="20.100000000000001" customHeight="1">
@@ -5316,11 +5386,14 @@
       <c r="C23" s="2" t="s">
         <v>212</v>
       </c>
+      <c r="D23" s="2">
+        <v>22</v>
+      </c>
       <c r="E23" s="10" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="2:22" ht="20.100000000000001" customHeight="1">
@@ -5330,11 +5403,14 @@
       <c r="C24" s="2" t="s">
         <v>213</v>
       </c>
+      <c r="D24" s="2">
+        <v>23</v>
+      </c>
       <c r="E24" s="10" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="2:22" ht="20.100000000000001" customHeight="1">
@@ -5344,11 +5420,14 @@
       <c r="C25" s="2" t="s">
         <v>214</v>
       </c>
+      <c r="D25" s="2">
+        <v>24</v>
+      </c>
       <c r="E25" s="10" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="2:22" ht="20.100000000000001" customHeight="1">
@@ -5358,11 +5437,14 @@
       <c r="C26" s="2" t="s">
         <v>215</v>
       </c>
+      <c r="D26" s="2">
+        <v>25</v>
+      </c>
       <c r="E26" s="10" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="2:22" ht="20.100000000000001" customHeight="1">
@@ -5372,11 +5454,14 @@
       <c r="C27" s="2" t="s">
         <v>216</v>
       </c>
+      <c r="D27" s="2">
+        <v>26</v>
+      </c>
       <c r="E27" s="10" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="2:22" ht="20.100000000000001" customHeight="1">
@@ -5386,11 +5471,14 @@
       <c r="C28" s="2" t="s">
         <v>217</v>
       </c>
+      <c r="D28" s="2">
+        <v>27</v>
+      </c>
       <c r="E28" s="10" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="2:22" ht="20.100000000000001" customHeight="1">
@@ -5400,11 +5488,14 @@
       <c r="C29" s="2" t="s">
         <v>218</v>
       </c>
+      <c r="D29" s="2">
+        <v>28</v>
+      </c>
       <c r="E29" s="10" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="2:22" ht="20.100000000000001" customHeight="1">
@@ -5414,11 +5505,14 @@
       <c r="C30" s="2" t="s">
         <v>219</v>
       </c>
+      <c r="D30" s="2">
+        <v>29</v>
+      </c>
       <c r="E30" s="10" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="2:22" ht="20.100000000000001" customHeight="1">
@@ -5428,11 +5522,14 @@
       <c r="C31" s="2" t="s">
         <v>220</v>
       </c>
+      <c r="D31" s="2">
+        <v>30</v>
+      </c>
       <c r="E31" s="10" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="2:22" ht="20.100000000000001" customHeight="1">
@@ -5442,11 +5539,14 @@
       <c r="C32" s="2" t="s">
         <v>221</v>
       </c>
+      <c r="D32" s="2">
+        <v>31</v>
+      </c>
       <c r="E32" s="10" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -5456,11 +5556,14 @@
       <c r="C33" s="2" t="s">
         <v>222</v>
       </c>
+      <c r="D33" s="2">
+        <v>32</v>
+      </c>
       <c r="E33" s="10" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -5470,11 +5573,14 @@
       <c r="C34" s="2" t="s">
         <v>223</v>
       </c>
+      <c r="D34" s="2">
+        <v>33</v>
+      </c>
       <c r="E34" s="10" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -5484,106 +5590,127 @@
       <c r="C35" s="2" t="s">
         <v>224</v>
       </c>
+      <c r="D35" s="2">
+        <v>34</v>
+      </c>
       <c r="E35" s="10" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="F36" s="11"/>
     </row>
     <row r="37" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B37" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="20.100000000000001" customHeight="1"/>
-    <row r="39" spans="2:6" ht="20.100000000000001" customHeight="1"/>
+      <c r="B37" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="F39" s="7"/>
+    </row>
     <row r="40" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>330</v>
-      </c>
     </row>
     <row r="41" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
+      <c r="D41" s="10">
+        <v>1</v>
+      </c>
       <c r="E41" s="10" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
+      <c r="D42" s="10">
+        <v>1</v>
+      </c>
       <c r="E42" s="10" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
+      <c r="D43" s="10">
+        <v>1</v>
+      </c>
       <c r="E43" s="10" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
+      <c r="D44" s="10">
+        <v>1</v>
+      </c>
       <c r="E44" s="10" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
+      <c r="D45" s="10">
+        <v>1</v>
+      </c>
       <c r="E45" s="10" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
+      <c r="D46" s="10">
+        <v>1</v>
+      </c>
       <c r="E46" s="10" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
+      <c r="D47" s="10">
+        <v>1</v>
+      </c>
       <c r="E47" s="10" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>342</v>
@@ -5592,12 +5719,14 @@
     <row r="48" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
+      <c r="D48" s="10">
+        <v>1</v>
+      </c>
       <c r="E48" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="F48" s="12" t="s">
         <v>343</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="20.100000000000001" customHeight="1">
@@ -5613,13 +5742,49 @@
       <c r="F50" s="10"/>
     </row>
     <row r="51" spans="2:6" ht="20.100000000000001" customHeight="1"/>
-    <row r="52" spans="2:6" ht="20.100000000000001" customHeight="1"/>
+    <row r="52" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="D52" s="10">
+        <v>1</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>315</v>
+      </c>
+    </row>
     <row r="53" spans="2:6" ht="20.100000000000001" customHeight="1"/>
-    <row r="54" spans="2:6" ht="20.100000000000001" customHeight="1"/>
+    <row r="54" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="F54" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
     <row r="55" spans="2:6" ht="20.100000000000001" customHeight="1"/>
     <row r="56" spans="2:6" ht="20.100000000000001" customHeight="1"/>
     <row r="57" spans="2:6" ht="20.100000000000001" customHeight="1"/>
     <row r="58" spans="2:6" ht="20.100000000000001" customHeight="1"/>
+    <row r="59" spans="2:6" ht="20.100000000000001" customHeight="1"/>
+    <row r="60" spans="2:6" ht="20.100000000000001" customHeight="1"/>
+    <row r="61" spans="2:6" ht="20.100000000000001" customHeight="1"/>
+    <row r="62" spans="2:6" ht="20.100000000000001" customHeight="1"/>
+    <row r="63" spans="2:6" ht="20.100000000000001" customHeight="1"/>
+    <row r="64" spans="2:6" ht="20.100000000000001" customHeight="1"/>
+    <row r="65" ht="20.100000000000001" customHeight="1"/>
+    <row r="66" ht="20.100000000000001" customHeight="1"/>
+    <row r="67" ht="20.100000000000001" customHeight="1"/>
+    <row r="68" ht="20.100000000000001" customHeight="1"/>
+    <row r="69" ht="20.100000000000001" customHeight="1"/>
+    <row r="70" ht="20.100000000000001" customHeight="1"/>
+    <row r="71" ht="20.100000000000001" customHeight="1"/>
+    <row r="72" ht="20.100000000000001" customHeight="1"/>
+    <row r="73" ht="20.100000000000001" customHeight="1"/>
+    <row r="74" ht="20.100000000000001" customHeight="1"/>
+    <row r="75" ht="20.100000000000001" customHeight="1"/>
+    <row r="76" ht="20.100000000000001" customHeight="1"/>
+    <row r="77" ht="20.100000000000001" customHeight="1"/>
+    <row r="78" ht="20.100000000000001" customHeight="1"/>
+    <row r="79" ht="20.100000000000001" customHeight="1"/>
+    <row r="80" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameDesign/宠物设计.xlsx
+++ b/GameDesign/宠物设计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E97D68-619F-4B64-B471-20C605F7BCC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902D866B-438C-4CA6-821B-3C1CA7CFBC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="宠物被动技能" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="484">
   <si>
     <t>勇猛</t>
   </si>
@@ -1205,6 +1205,518 @@
   </si>
   <si>
     <t>轰击压制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCFX_Energy_07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCFX_Beam_02  改短</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCFX_Energy_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCFX_Meteor_04_Area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX_splash_wind_floor</t>
+  </si>
+  <si>
+    <t>FX_splash_ice_floor</t>
+  </si>
+  <si>
+    <t>FX_splash_explosion_02_floor</t>
+  </si>
+  <si>
+    <t>FX_splash_demon_air  头顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX_splash_ice_floor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX_splash_glass_floor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX_splash_light_floor</t>
+  </si>
+  <si>
+    <t>FX_splash_energy_01_floor</t>
+  </si>
+  <si>
+    <t>FX_splash_gas_floor</t>
+  </si>
+  <si>
+    <t>FX_splash_sword_floor  去掉剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX_explosion_up_01_a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">影月旗帜  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_LoopRange_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">治疗守卫 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Skill_LoopRange_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCFX_Eye_01_Die   头顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">HCFX_Marble_04 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> FX_Shoot_14_projectile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX_splash_magic_03_floor  改绿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX_splash_magic_04_floor (1)</t>
+  </si>
+  <si>
+    <t>FX_splash_explosion_02_floor (2)</t>
+  </si>
+  <si>
+    <t>FX_Shoot_06_projectile 改燃烧  通用下面燃烧之种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX_splash_portal_floor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX_splash_force_01_floor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCFX_Energy_01 (2)</t>
+  </si>
+  <si>
+    <t>FX_splash_force_01_floor  改横版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX_Explosion_M_1</t>
+  </si>
+  <si>
+    <t>FX_splash_thorn_02_floor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_01a</t>
+  </si>
+  <si>
+    <t>Buff_01b</t>
+  </si>
+  <si>
+    <t>Buff_01c</t>
+  </si>
+  <si>
+    <t>Buff_02a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加伤害加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低伤害加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>束缚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉默</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FX_Shoot_06_projectile 改燃烧   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireAura</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰减速 或冰冻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HealingAura (1)  改小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillBuff_Stop</t>
+  </si>
+  <si>
+    <t>SkillBuff_Stun</t>
+  </si>
+  <si>
+    <t>Buff_01d</t>
+  </si>
+  <si>
+    <t>FX_Shoot_01_hit   或者 FX_splash_thunder_floor (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VFX_WindShield (1)</t>
+  </si>
+  <si>
+    <t>加伤害减免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低伤害减免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windfury</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加攻速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低攻速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SleepyAura_Teal   去Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShockAura_Yellow</t>
+  </si>
+  <si>
+    <t>DarkAura_Purple (1)</t>
+  </si>
+  <si>
+    <t>Skill_Bomb_19</t>
+  </si>
+  <si>
+    <t>Skill_BombLoop_3</t>
+  </si>
+  <si>
+    <t>Skill_BuffActStatus_2</t>
+  </si>
+  <si>
+    <t>Skill_Bomb_20</t>
+  </si>
+  <si>
+    <t>Skill_Bomb_21</t>
+  </si>
+  <si>
+    <t>Skill_BuffDefUpStatus_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_BuffActStatus_3</t>
+  </si>
+  <si>
+    <t>Buff_03b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_BuffUpStatus_3</t>
+  </si>
+  <si>
+    <t>Skill_Single_6</t>
+  </si>
+  <si>
+    <t>Skill_Bomb_22</t>
+  </si>
+  <si>
+    <t>Buff_01d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_BuffUpStatus_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_BuffUpStatus_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_BufHealStatus_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX_splash_eye_air</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_BallbLoop_5</t>
+  </si>
+  <si>
+    <t>Skill_BuffDownStatus_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Bomb_23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Bomb_24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Single_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spell_BubblyShield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_BuffShieldStatus_1</t>
+  </si>
+  <si>
+    <t>Skill_Bomb_25</t>
+  </si>
+  <si>
+    <t>Skill_Bomb_26</t>
+  </si>
+  <si>
+    <t>Skill_BallbLoop_6</t>
+  </si>
+  <si>
+    <t>Skill_Bomb_27</t>
+  </si>
+  <si>
+    <t>Skill_Bomb_28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_BallbLoop_7</t>
+  </si>
+  <si>
+    <t>FX_EarthSkill_Hit_air_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Bomb_29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Bomb_30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Bomb_31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Single_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Single_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Bomb_32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Bomb_33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_LoopRange_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Bomb_34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Bomb_35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_BuffUpStatus_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Single_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_BuffUpStatus_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillBuff_AddSpeed_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillBuff_SubSpeed_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillBuff_AddActSpeed_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillBuff_SubActSpeed_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillBuff_SubAct_1</t>
+  </si>
+  <si>
+    <t>SkillBuff_AddDef_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillBuff_SubDef_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillBuff_AddDamgeDef_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillBuff_SubDamgeDef_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillBuff_AddDamgeSubDef_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillBuff_SubDamgeSubDef_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillBuff_Stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillBuff_Silent_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillBuff_Poison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillBuff_Burn_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrostAura</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillBuff_IceSubSpeed_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaterAura</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UniverseAura</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HolyAura</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forest aura</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glow aura</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillBuff_AddAct_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confetti aura (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArcaneAura</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DarkLightning_Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trails</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1282,7 +1794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1318,6 +1830,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4793,10 +5306,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DB049E-55D8-4921-8104-92BAC46EB264}">
-  <dimension ref="B1:V80"/>
+  <dimension ref="B1:W80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4805,26 +5318,30 @@
     <col min="3" max="3" width="11.25" customWidth="1"/>
     <col min="5" max="5" width="9" style="10"/>
     <col min="6" max="6" width="90.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.375" customWidth="1"/>
-    <col min="16" max="16" width="12.125" customWidth="1"/>
-    <col min="17" max="17" width="51.75" customWidth="1"/>
+    <col min="7" max="7" width="39.5" style="12" customWidth="1"/>
+    <col min="8" max="8" width="34.375" style="12" customWidth="1"/>
+    <col min="12" max="12" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.375" customWidth="1"/>
+    <col min="17" max="17" width="12.125" customWidth="1"/>
+    <col min="18" max="18" width="51.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="E1" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="9"/>
+      <c r="O1" s="8"/>
       <c r="P1" s="9"/>
-      <c r="Q1" s="8"/>
+      <c r="Q1" s="9"/>
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
-    </row>
-    <row r="2" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="W1" s="8"/>
+    </row>
+    <row r="2" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B2" s="2">
         <v>310101</v>
       </c>
@@ -4840,23 +5357,23 @@
       <c r="F2" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>2101010</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="R2" s="8"/>
+      <c r="O2" s="8"/>
       <c r="S2" s="8"/>
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
-    </row>
-    <row r="3" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="W2" s="8"/>
+    </row>
+    <row r="3" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="2">
         <v>310102</v>
       </c>
@@ -4872,23 +5389,29 @@
       <c r="F3" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="H3" s="2">
+      <c r="G3" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="I3" s="2">
         <v>2101020</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="N3" s="8"/>
-      <c r="R3" s="8"/>
+      <c r="O3" s="8"/>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
-    </row>
-    <row r="4" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="W3" s="8"/>
+    </row>
+    <row r="4" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="2">
         <v>310103</v>
       </c>
@@ -4904,23 +5427,29 @@
       <c r="F4" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="H4" s="2">
+      <c r="G4" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="I4" s="2">
         <v>2101030</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="N4" s="8"/>
-      <c r="R4" s="8"/>
+      <c r="O4" s="8"/>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
-    </row>
-    <row r="5" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="W4" s="8"/>
+    </row>
+    <row r="5" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="2">
         <v>310104</v>
       </c>
@@ -4936,23 +5465,29 @@
       <c r="F5" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="H5" s="2">
+      <c r="G5" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="I5" s="2">
         <v>2102010</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="N5" s="8"/>
-      <c r="R5" s="8"/>
+      <c r="O5" s="8"/>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
-    </row>
-    <row r="6" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="W5" s="8"/>
+    </row>
+    <row r="6" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="2">
         <v>310105</v>
       </c>
@@ -4968,23 +5503,29 @@
       <c r="F6" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="H6" s="2">
+      <c r="G6" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="I6" s="2">
         <v>2102020</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="N6" s="8"/>
-      <c r="R6" s="8"/>
+      <c r="O6" s="8"/>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
-    </row>
-    <row r="7" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="W6" s="8"/>
+    </row>
+    <row r="7" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="2">
         <v>310106</v>
       </c>
@@ -5000,23 +5541,29 @@
       <c r="F7" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="H7" s="2">
+      <c r="G7" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="I7" s="2">
         <v>2102030</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="N7" s="8"/>
-      <c r="R7" s="8"/>
+      <c r="O7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
-    </row>
-    <row r="8" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="W7" s="8"/>
+    </row>
+    <row r="8" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="2">
         <v>310107</v>
       </c>
@@ -5032,23 +5579,29 @@
       <c r="F8" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="H8" s="2">
+      <c r="G8" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="I8" s="2">
         <v>2103010</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="N8" s="8"/>
-      <c r="R8" s="8"/>
+      <c r="O8" s="8"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
       <c r="V8" s="8"/>
-    </row>
-    <row r="9" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="W8" s="8"/>
+    </row>
+    <row r="9" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="2">
         <v>320101</v>
       </c>
@@ -5064,23 +5617,29 @@
       <c r="F9" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="H9" s="2">
+      <c r="G9" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="I9" s="2">
         <v>2103020</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="N9" s="8"/>
-      <c r="R9" s="8"/>
+      <c r="O9" s="8"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
-    </row>
-    <row r="10" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="W9" s="8"/>
+    </row>
+    <row r="10" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="2">
         <v>320102</v>
       </c>
@@ -5096,23 +5655,29 @@
       <c r="F10" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="H10" s="2">
+      <c r="G10" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="I10" s="2">
         <v>2103030</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="N10" s="8"/>
-      <c r="R10" s="8"/>
+      <c r="O10" s="8"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
-    </row>
-    <row r="11" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="W10" s="8"/>
+    </row>
+    <row r="11" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="2">
         <v>320103</v>
       </c>
@@ -5128,14 +5693,20 @@
       <c r="F11" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="N11" s="8"/>
-      <c r="R11" s="8"/>
+      <c r="G11" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="O11" s="8"/>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
-    </row>
-    <row r="12" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="W11" s="8"/>
+    </row>
+    <row r="12" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="2">
         <v>320104</v>
       </c>
@@ -5151,17 +5722,26 @@
       <c r="F12" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="N12" s="8"/>
-      <c r="O12" s="2"/>
+      <c r="G12" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="O12" s="8"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="8"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="3"/>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
-    </row>
-    <row r="13" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="W12" s="8"/>
+    </row>
+    <row r="13" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="2">
         <v>320105</v>
       </c>
@@ -5177,17 +5757,32 @@
       <c r="F13" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="N13" s="8"/>
-      <c r="O13" s="2"/>
+      <c r="G13" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="L13" t="s">
+        <v>408</v>
+      </c>
+      <c r="M13" t="s">
+        <v>457</v>
+      </c>
+      <c r="O13" s="8"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="8"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="3"/>
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
-    </row>
-    <row r="14" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="W13" s="8"/>
+    </row>
+    <row r="14" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="2">
         <v>320106</v>
       </c>
@@ -5203,14 +5798,32 @@
       <c r="F14" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="N14" s="8"/>
-      <c r="R14" s="8"/>
+      <c r="G14" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="I14" t="s">
+        <v>364</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="L14" t="s">
+        <v>474</v>
+      </c>
+      <c r="M14" t="s">
+        <v>458</v>
+      </c>
+      <c r="O14" s="8"/>
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
-    </row>
-    <row r="15" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="W14" s="8"/>
+    </row>
+    <row r="15" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="2">
         <v>320107</v>
       </c>
@@ -5226,14 +5839,32 @@
       <c r="F15" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="N15" s="8"/>
-      <c r="R15" s="8"/>
+      <c r="G15" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="I15" t="s">
+        <v>362</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="L15" t="s">
+        <v>475</v>
+      </c>
+      <c r="M15" t="s">
+        <v>459</v>
+      </c>
+      <c r="O15" s="8"/>
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
-    </row>
-    <row r="16" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="W15" s="8"/>
+    </row>
+    <row r="16" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="2">
         <v>330101</v>
       </c>
@@ -5249,14 +5880,29 @@
       <c r="F16" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="N16" s="8"/>
-      <c r="R16" s="8"/>
+      <c r="G16" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="L16" t="s">
+        <v>411</v>
+      </c>
+      <c r="M16" t="s">
+        <v>460</v>
+      </c>
+      <c r="O16" s="8"/>
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
-    </row>
-    <row r="17" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="W16" s="8"/>
+    </row>
+    <row r="17" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="2">
         <v>330102</v>
       </c>
@@ -5272,14 +5918,29 @@
       <c r="F17" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="N17" s="8"/>
-      <c r="R17" s="8"/>
+      <c r="G17" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="L17" t="s">
+        <v>476</v>
+      </c>
+      <c r="M17" t="s">
+        <v>479</v>
+      </c>
+      <c r="O17" s="8"/>
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
-    </row>
-    <row r="18" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="W17" s="8"/>
+    </row>
+    <row r="18" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="2">
         <v>330103</v>
       </c>
@@ -5295,14 +5956,29 @@
       <c r="F18" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="N18" s="8"/>
-      <c r="R18" s="8"/>
+      <c r="G18" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="L18" t="s">
+        <v>477</v>
+      </c>
+      <c r="M18" t="s">
+        <v>461</v>
+      </c>
+      <c r="O18" s="8"/>
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
-    </row>
-    <row r="19" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="W18" s="8"/>
+    </row>
+    <row r="19" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="2">
         <v>330104</v>
       </c>
@@ -5318,17 +5994,32 @@
       <c r="F19" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="N19" s="8"/>
-      <c r="O19" s="9"/>
+      <c r="G19" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="L19" t="s">
+        <v>405</v>
+      </c>
+      <c r="M19" t="s">
+        <v>462</v>
+      </c>
+      <c r="O19" s="8"/>
       <c r="P19" s="9"/>
-      <c r="Q19" s="8"/>
+      <c r="Q19" s="9"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
-    </row>
-    <row r="20" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="W19" s="8"/>
+    </row>
+    <row r="20" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="2">
         <v>330105</v>
       </c>
@@ -5344,8 +6035,23 @@
       <c r="F20" s="11" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="21" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="G20" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="L20" t="s">
+        <v>478</v>
+      </c>
+      <c r="M20" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="2">
         <v>330106</v>
       </c>
@@ -5361,8 +6067,17 @@
       <c r="F21" s="11" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="22" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="K21" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="L21" t="s">
+        <v>412</v>
+      </c>
+      <c r="M21" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="2">
         <v>330107</v>
       </c>
@@ -5378,8 +6093,23 @@
       <c r="F22" s="11" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="23" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="G22" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="L22" t="s">
+        <v>480</v>
+      </c>
+      <c r="M22" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="2">
         <v>340101</v>
       </c>
@@ -5395,8 +6125,23 @@
       <c r="F23" s="11" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="24" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="G23" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="L23" t="s">
+        <v>481</v>
+      </c>
+      <c r="M23" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="2">
         <v>340102</v>
       </c>
@@ -5412,8 +6157,26 @@
       <c r="F24" s="11" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="25" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="G24" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="L24" t="s">
+        <v>482</v>
+      </c>
+      <c r="M24" t="s">
+        <v>467</v>
+      </c>
+      <c r="O24" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="2">
         <v>340103</v>
       </c>
@@ -5429,8 +6192,23 @@
       <c r="F25" s="11" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="26" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="G25" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="L25" t="s">
+        <v>402</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="2">
         <v>340104</v>
       </c>
@@ -5446,8 +6224,23 @@
       <c r="F26" s="11" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="27" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="G26" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="L26" t="s">
+        <v>401</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="2">
         <v>340105</v>
       </c>
@@ -5463,8 +6256,23 @@
       <c r="F27" s="11" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="28" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="G27" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="L27" t="s">
+        <v>483</v>
+      </c>
+      <c r="M27" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B28" s="2">
         <v>340106</v>
       </c>
@@ -5480,8 +6288,23 @@
       <c r="F28" s="11" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="29" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="G28" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="L28" t="s">
+        <v>400</v>
+      </c>
+      <c r="M28" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B29" s="2">
         <v>340107</v>
       </c>
@@ -5497,8 +6320,23 @@
       <c r="F29" s="11" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="30" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="G29" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="L29" t="s">
+        <v>398</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B30" s="2">
         <v>350101</v>
       </c>
@@ -5514,8 +6352,26 @@
       <c r="F30" s="11" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="31" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="G30" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="J30" t="s">
+        <v>375</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="L30" t="s">
+        <v>472</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="2">
         <v>350102</v>
       </c>
@@ -5531,8 +6387,14 @@
       <c r="F31" s="11" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="32" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="G31" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B32" s="2">
         <v>350103</v>
       </c>
@@ -5548,8 +6410,17 @@
       <c r="F32" s="11" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="G32" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="L32" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B33" s="2">
         <v>350104</v>
       </c>
@@ -5565,8 +6436,14 @@
       <c r="F33" s="11" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="G33" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B34" s="2">
         <v>350105</v>
       </c>
@@ -5582,8 +6459,14 @@
       <c r="F34" s="11" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="G34" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B35" s="2">
         <v>350106</v>
       </c>
@@ -5599,11 +6482,17 @@
       <c r="F35" s="11" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="36" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="G35" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B37" s="2" t="s">
         <v>312</v>
       </c>
@@ -5611,21 +6500,21 @@
       <c r="D37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
     </row>
-    <row r="41" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10">
@@ -5637,8 +6526,14 @@
       <c r="F41" s="12" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="42" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="G41" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10">
@@ -5650,8 +6545,14 @@
       <c r="F42" s="12" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="43" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="G42" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10">
@@ -5663,8 +6564,14 @@
       <c r="F43" s="12" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="44" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="G43" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10">
@@ -5676,8 +6583,14 @@
       <c r="F44" s="12" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="45" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="G44" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10">
@@ -5689,8 +6602,14 @@
       <c r="F45" s="12" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="46" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="G45" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10">
@@ -5702,8 +6621,14 @@
       <c r="F46" s="12" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="47" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="G46" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10">
@@ -5715,8 +6640,14 @@
       <c r="F47" s="12" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="48" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="G47" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10">
@@ -5727,6 +6658,12 @@
       </c>
       <c r="F48" s="12" t="s">
         <v>343</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="20.100000000000001" customHeight="1">

--- a/GameDesign/宠物设计.xlsx
+++ b/GameDesign/宠物设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902D866B-438C-4CA6-821B-3C1CA7CFBC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6C5574-775B-414D-9BDC-D3F7854DD692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1319,404 +1319,406 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>FX_splash_thorn_02_floor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_01a</t>
+  </si>
+  <si>
+    <t>Buff_01b</t>
+  </si>
+  <si>
+    <t>Buff_01c</t>
+  </si>
+  <si>
+    <t>Buff_02a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加伤害加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低伤害加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>束缚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉默</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FX_Shoot_06_projectile 改燃烧   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireAura</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰减速 或冰冻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HealingAura (1)  改小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillBuff_Stop</t>
+  </si>
+  <si>
+    <t>SkillBuff_Stun</t>
+  </si>
+  <si>
+    <t>Buff_01d</t>
+  </si>
+  <si>
+    <t>FX_Shoot_01_hit   或者 FX_splash_thunder_floor (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VFX_WindShield (1)</t>
+  </si>
+  <si>
+    <t>加伤害减免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低伤害减免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windfury</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加攻速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低攻速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SleepyAura_Teal   去Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShockAura_Yellow</t>
+  </si>
+  <si>
+    <t>DarkAura_Purple (1)</t>
+  </si>
+  <si>
+    <t>Skill_Bomb_19</t>
+  </si>
+  <si>
+    <t>Skill_BombLoop_3</t>
+  </si>
+  <si>
+    <t>Skill_BuffActStatus_2</t>
+  </si>
+  <si>
+    <t>Skill_Bomb_20</t>
+  </si>
+  <si>
+    <t>Skill_Bomb_21</t>
+  </si>
+  <si>
+    <t>Skill_BuffDefUpStatus_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_BuffActStatus_3</t>
+  </si>
+  <si>
+    <t>Buff_03b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_BuffUpStatus_3</t>
+  </si>
+  <si>
+    <t>Skill_Single_6</t>
+  </si>
+  <si>
+    <t>Skill_Bomb_22</t>
+  </si>
+  <si>
+    <t>Buff_01d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_BuffUpStatus_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_BuffUpStatus_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_BufHealStatus_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX_splash_eye_air</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_BallbLoop_5</t>
+  </si>
+  <si>
+    <t>Skill_BuffDownStatus_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Bomb_23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Bomb_24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Single_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spell_BubblyShield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Bomb_25</t>
+  </si>
+  <si>
+    <t>Skill_Bomb_26</t>
+  </si>
+  <si>
+    <t>Skill_BallbLoop_6</t>
+  </si>
+  <si>
+    <t>Skill_Bomb_27</t>
+  </si>
+  <si>
+    <t>Skill_Bomb_28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_BallbLoop_7</t>
+  </si>
+  <si>
+    <t>FX_EarthSkill_Hit_air_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Bomb_29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Bomb_30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Bomb_31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Single_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Single_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Bomb_32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Bomb_33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_LoopRange_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Bomb_34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Bomb_35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_BuffUpStatus_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Single_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_BuffUpStatus_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillBuff_AddSpeed_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillBuff_SubSpeed_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillBuff_AddActSpeed_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillBuff_SubActSpeed_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillBuff_SubAct_1</t>
+  </si>
+  <si>
+    <t>SkillBuff_AddDef_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillBuff_SubDef_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillBuff_AddDamgeDef_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillBuff_SubDamgeDef_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillBuff_AddDamgeSubDef_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillBuff_SubDamgeSubDef_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillBuff_Stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillBuff_Silent_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillBuff_Poison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillBuff_Burn_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrostAura</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillBuff_IceSubSpeed_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaterAura</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UniverseAura</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HolyAura</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forest aura</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glow aura</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillBuff_AddAct_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confetti aura (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArcaneAura</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DarkLightning_Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trails</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_BuffShieldStatus_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FX_Explosion_M_1</t>
-  </si>
-  <si>
-    <t>FX_splash_thorn_02_floor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff_01a</t>
-  </si>
-  <si>
-    <t>Buff_01b</t>
-  </si>
-  <si>
-    <t>Buff_01c</t>
-  </si>
-  <si>
-    <t>Buff_02a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加伤害加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低伤害加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>眩晕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>束缚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沉默</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>燃烧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">FX_Shoot_06_projectile 改燃烧   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FireAura</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰减速 或冰冻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HealingAura (1)  改小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillBuff_Stop</t>
-  </si>
-  <si>
-    <t>SkillBuff_Stun</t>
-  </si>
-  <si>
-    <t>Buff_01d</t>
-  </si>
-  <si>
-    <t>FX_Shoot_01_hit   或者 FX_splash_thunder_floor (1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VFX_WindShield (1)</t>
-  </si>
-  <si>
-    <t>加伤害减免</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低伤害减免</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Windfury</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加攻速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低攻速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SleepyAura_Teal   去Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShockAura_Yellow</t>
-  </si>
-  <si>
-    <t>DarkAura_Purple (1)</t>
-  </si>
-  <si>
-    <t>Skill_Bomb_19</t>
-  </si>
-  <si>
-    <t>Skill_BombLoop_3</t>
-  </si>
-  <si>
-    <t>Skill_BuffActStatus_2</t>
-  </si>
-  <si>
-    <t>Skill_Bomb_20</t>
-  </si>
-  <si>
-    <t>Skill_Bomb_21</t>
-  </si>
-  <si>
-    <t>Skill_BuffDefUpStatus_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_BuffActStatus_3</t>
-  </si>
-  <si>
-    <t>Buff_03b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_BuffUpStatus_3</t>
-  </si>
-  <si>
-    <t>Skill_Single_6</t>
-  </si>
-  <si>
-    <t>Skill_Bomb_22</t>
-  </si>
-  <si>
-    <t>Buff_01d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_BuffUpStatus_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_BuffUpStatus_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_BufHealStatus_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FX_splash_eye_air</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_BallbLoop_5</t>
-  </si>
-  <si>
-    <t>Skill_BuffDownStatus_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_Bomb_23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_Bomb_24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_Single_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spell_BubblyShield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_BuffShieldStatus_1</t>
-  </si>
-  <si>
-    <t>Skill_Bomb_25</t>
-  </si>
-  <si>
-    <t>Skill_Bomb_26</t>
-  </si>
-  <si>
-    <t>Skill_BallbLoop_6</t>
-  </si>
-  <si>
-    <t>Skill_Bomb_27</t>
-  </si>
-  <si>
-    <t>Skill_Bomb_28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_BallbLoop_7</t>
-  </si>
-  <si>
-    <t>FX_EarthSkill_Hit_air_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_Bomb_29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_Bomb_30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_Bomb_31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_Single_7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_Single_8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_Bomb_32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_Bomb_33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_LoopRange_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_Bomb_34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_Bomb_35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_BuffUpStatus_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_Single_9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_BuffUpStatus_7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillBuff_AddSpeed_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillBuff_SubSpeed_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillBuff_AddActSpeed_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillBuff_SubActSpeed_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillBuff_SubAct_1</t>
-  </si>
-  <si>
-    <t>SkillBuff_AddDef_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillBuff_SubDef_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillBuff_AddDamgeDef_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillBuff_SubDamgeDef_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillBuff_AddDamgeSubDef_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillBuff_SubDamgeSubDef_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillBuff_Stop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillBuff_Silent_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillBuff_Poison</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillBuff_Burn_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FrostAura</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillBuff_IceSubSpeed_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WaterAura</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UniverseAura</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HolyAura</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Forest aura</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glow aura</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillBuff_AddAct_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Confetti aura (1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArcaneAura</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DarkLightning_Shield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trails</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5308,8 +5310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DB049E-55D8-4921-8104-92BAC46EB264}">
   <dimension ref="B1:W80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5393,7 +5395,7 @@
         <v>349</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I3" s="2">
         <v>2101020</v>
@@ -5431,7 +5433,7 @@
         <v>357</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I4" s="2">
         <v>2101030</v>
@@ -5466,10 +5468,10 @@
         <v>325</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I5" s="2">
         <v>2102010</v>
@@ -5504,10 +5506,10 @@
         <v>255</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I6" s="2">
         <v>2102020</v>
@@ -5542,10 +5544,10 @@
         <v>257</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>377</v>
+        <v>483</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I7" s="2">
         <v>2102030</v>
@@ -5583,7 +5585,7 @@
         <v>360</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I8" s="2">
         <v>2103010</v>
@@ -5618,10 +5620,10 @@
         <v>327</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I9" s="2">
         <v>2103020</v>
@@ -5656,10 +5658,10 @@
         <v>326</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I10" s="2">
         <v>2103030</v>
@@ -5694,10 +5696,10 @@
         <v>262</v>
       </c>
       <c r="G11" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>421</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>422</v>
       </c>
       <c r="O11" s="8"/>
       <c r="S11" s="8"/>
@@ -5726,10 +5728,10 @@
         <v>348</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O12" s="8"/>
       <c r="P12" s="2"/>
@@ -5761,16 +5763,16 @@
         <v>373</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M13" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="O13" s="8"/>
       <c r="P13" s="2"/>
@@ -5802,19 +5804,19 @@
         <v>368</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I14" t="s">
         <v>364</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L14" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="M14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="O14" s="8"/>
       <c r="S14" s="8"/>
@@ -5840,22 +5842,22 @@
         <v>265</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I15" t="s">
         <v>362</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L15" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="M15" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="O15" s="8"/>
       <c r="S15" s="8"/>
@@ -5881,19 +5883,19 @@
         <v>332</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K16" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="L16" t="s">
         <v>410</v>
       </c>
-      <c r="L16" t="s">
-        <v>411</v>
-      </c>
       <c r="M16" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="O16" s="8"/>
       <c r="S16" s="8"/>
@@ -5919,19 +5921,19 @@
         <v>270</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L17" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="M17" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="O17" s="8"/>
       <c r="S17" s="8"/>
@@ -5960,16 +5962,16 @@
         <v>347</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L18" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="M18" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="O18" s="8"/>
       <c r="S18" s="8"/>
@@ -5995,19 +5997,19 @@
         <v>311</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L19" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M19" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="O19" s="8"/>
       <c r="P19" s="9"/>
@@ -6039,16 +6041,16 @@
         <v>361</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L20" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="M20" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="2:23" ht="20.100000000000001" customHeight="1">
@@ -6068,13 +6070,13 @@
         <v>275</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M21" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="22" spans="2:23" ht="20.100000000000001" customHeight="1">
@@ -6094,19 +6096,19 @@
         <v>278</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>436</v>
+        <v>482</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L22" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="M22" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23" spans="2:23" ht="20.100000000000001" customHeight="1">
@@ -6129,16 +6131,16 @@
         <v>352</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L23" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="M23" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="2:23" ht="20.100000000000001" customHeight="1">
@@ -6161,19 +6163,19 @@
         <v>353</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L24" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="M24" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="O24" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="2:23" ht="20.100000000000001" customHeight="1">
@@ -6196,16 +6198,16 @@
         <v>376</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L25" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="26" spans="2:23" ht="20.100000000000001" customHeight="1">
@@ -6228,16 +6230,16 @@
         <v>367</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L26" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="27" spans="2:23" ht="20.100000000000001" customHeight="1">
@@ -6260,16 +6262,16 @@
         <v>356</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L27" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="M27" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="28" spans="2:23" ht="20.100000000000001" customHeight="1">
@@ -6292,16 +6294,16 @@
         <v>355</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L28" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M28" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="2:23" ht="20.100000000000001" customHeight="1">
@@ -6324,16 +6326,16 @@
         <v>369</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L29" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="30" spans="2:23" ht="20.100000000000001" customHeight="1">
@@ -6356,19 +6358,19 @@
         <v>351</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J30" t="s">
         <v>375</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L30" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="31" spans="2:23" ht="20.100000000000001" customHeight="1">
@@ -6388,10 +6390,10 @@
         <v>338</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="32" spans="2:23" ht="20.100000000000001" customHeight="1">
@@ -6411,10 +6413,10 @@
         <v>292</v>
       </c>
       <c r="G32" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="H32" s="12" t="s">
         <v>443</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>445</v>
       </c>
       <c r="L32" t="s">
         <v>358</v>
@@ -6463,7 +6465,7 @@
         <v>374</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="20.100000000000001" customHeight="1">
@@ -6486,7 +6488,7 @@
         <v>372</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="20.100000000000001" customHeight="1">
@@ -6530,7 +6532,7 @@
         <v>350</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="20.100000000000001" customHeight="1">
@@ -6549,7 +6551,7 @@
         <v>370</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="20.100000000000001" customHeight="1">
@@ -6568,7 +6570,7 @@
         <v>365</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="20.100000000000001" customHeight="1">
@@ -6587,7 +6589,7 @@
         <v>371</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="20.100000000000001" customHeight="1">
@@ -6606,7 +6608,7 @@
         <v>359</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="20.100000000000001" customHeight="1">
@@ -6625,7 +6627,7 @@
         <v>366</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="20.100000000000001" customHeight="1">
@@ -6644,7 +6646,7 @@
         <v>354</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="20.100000000000001" customHeight="1">
@@ -6660,10 +6662,10 @@
         <v>343</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="20.100000000000001" customHeight="1">

--- a/GameDesign/宠物设计.xlsx
+++ b/GameDesign/宠物设计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6C5574-775B-414D-9BDC-D3F7854DD692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5A6C15-F06D-49D3-88C9-CCF99880095F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="宠物被动技能" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="523">
   <si>
     <t>勇猛</t>
   </si>
@@ -1720,6 +1720,123 @@
   <si>
     <t>FX_Explosion_M_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疗愈</t>
+  </si>
+  <si>
+    <t>跳跃打击</t>
+  </si>
+  <si>
+    <t>毒气攻击</t>
+  </si>
+  <si>
+    <t>疾跑</t>
+  </si>
+  <si>
+    <t>猛击</t>
+  </si>
+  <si>
+    <t>喷吐</t>
+  </si>
+  <si>
+    <t>震地</t>
+  </si>
+  <si>
+    <t>坚硬甲壳</t>
+  </si>
+  <si>
+    <t>迅捷印记</t>
+  </si>
+  <si>
+    <t>反弹攻击</t>
+  </si>
+  <si>
+    <t>伏击</t>
+  </si>
+  <si>
+    <t>猎物印记</t>
+  </si>
+  <si>
+    <t>极速射击</t>
+  </si>
+  <si>
+    <t>坚硬防御</t>
+  </si>
+  <si>
+    <t>猛虎印记</t>
+  </si>
+  <si>
+    <t>兽人之怒</t>
+  </si>
+  <si>
+    <t>强击</t>
+  </si>
+  <si>
+    <t>召唤兽骑</t>
+  </si>
+  <si>
+    <t>魔法护盾</t>
+  </si>
+  <si>
+    <t>冰灵喷吐</t>
+  </si>
+  <si>
+    <t>狼之闪击</t>
+  </si>
+  <si>
+    <t>冲击</t>
+  </si>
+  <si>
+    <t>能量之球</t>
+  </si>
+  <si>
+    <t>冰震</t>
+  </si>
+  <si>
+    <t>冰封之击</t>
+  </si>
+  <si>
+    <t>飓风之力</t>
+  </si>
+  <si>
+    <t>绝地防御</t>
+  </si>
+  <si>
+    <t>聚光攻击</t>
+  </si>
+  <si>
+    <t>影月旗帜</t>
+  </si>
+  <si>
+    <t>怒吼</t>
+  </si>
+  <si>
+    <t>燃烧</t>
+  </si>
+  <si>
+    <t>暴风雪</t>
+  </si>
+  <si>
+    <t>禁锢之网</t>
+  </si>
+  <si>
+    <t>治疗守卫</t>
+  </si>
+  <si>
+    <t>轰击压制</t>
+  </si>
+  <si>
+    <t>酸性毒液</t>
+  </si>
+  <si>
+    <t>防御之击</t>
+  </si>
+  <si>
+    <t>狂暴之力</t>
+  </si>
+  <si>
+    <t>燃烧之种</t>
   </si>
 </sst>
 </file>
@@ -2115,8 +2232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O93"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3192,10 +3309,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64ED461B-9A4E-44B2-982C-34BEFDC32D79}">
-  <dimension ref="B2:AG42"/>
+  <dimension ref="B2:AG84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="B3:C36"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3241,26 +3358,23 @@
         <v>228</v>
       </c>
       <c r="L3" s="2">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>229</v>
       </c>
       <c r="N3" s="2">
-        <v>2301010</v>
+        <v>2303010</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P3" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>229</v>
+        <v>0.15</v>
       </c>
       <c r="V3" t="str">
         <f>F3&amp;G3&amp;H3&amp;I3&amp;J3&amp;K3&amp;L3&amp;M3&amp;N3&amp;O3&amp;P3&amp;Q3&amp;R3&amp;S3&amp;T3</f>
-        <v>2301011,0.5;2301005,0.1;2301010,0.1;</v>
+        <v>2301011,0.5;2301005,0.15;2303010;0.15</v>
       </c>
       <c r="AE3">
         <v>2301001</v>
@@ -3289,26 +3403,23 @@
         <v>228</v>
       </c>
       <c r="L4" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>229</v>
       </c>
       <c r="N4" s="2">
-        <v>2301019</v>
+        <v>2303020</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P4" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>229</v>
+        <v>0.15</v>
       </c>
       <c r="V4" t="str">
         <f t="shared" ref="V4:V36" si="0">F4&amp;G4&amp;H4&amp;I4&amp;J4&amp;K4&amp;L4&amp;M4&amp;N4&amp;O4&amp;P4&amp;Q4&amp;R4&amp;S4&amp;T4</f>
-        <v>2301002,0.2;2301019,0.2;</v>
+        <v>2301002,0.3;2303020;0.15</v>
       </c>
       <c r="AE4">
         <v>2301002</v>
@@ -3337,26 +3448,23 @@
         <v>228</v>
       </c>
       <c r="L5" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>229</v>
       </c>
       <c r="N5" s="2">
-        <v>2301019</v>
+        <v>2303030</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P5" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>229</v>
+        <v>0.15</v>
       </c>
       <c r="V5" t="str">
         <f t="shared" si="0"/>
-        <v>2301007,0.2;2301019,0.2;</v>
+        <v>2301007,0.3;2303030;0.15</v>
       </c>
       <c r="AE5">
         <v>2301003</v>
@@ -3397,26 +3505,23 @@
         <v>228</v>
       </c>
       <c r="L6" s="2">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>229</v>
       </c>
       <c r="N6" s="2">
-        <v>2301008</v>
+        <v>2303040</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P6" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>229</v>
+        <v>0.15</v>
       </c>
       <c r="V6" t="str">
         <f t="shared" si="0"/>
-        <v>2301013,0.5;2301007,0.1;2301008,0.1;</v>
+        <v>2301013,0.5;2301007,0.15;2303040;0.15</v>
       </c>
       <c r="AE6">
         <v>2301004</v>
@@ -3445,26 +3550,23 @@
         <v>228</v>
       </c>
       <c r="L7" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>229</v>
       </c>
       <c r="N7" s="2">
-        <v>2301020</v>
+        <v>2303050</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P7" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>229</v>
+        <v>0.15</v>
       </c>
       <c r="V7" t="str">
         <f t="shared" si="0"/>
-        <v>2301012,0.2;2301020,0.2;</v>
+        <v>2301012,0.3;2303050;0.15</v>
       </c>
       <c r="AE7">
         <v>2301005</v>
@@ -3493,26 +3595,23 @@
         <v>228</v>
       </c>
       <c r="L8" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>229</v>
       </c>
       <c r="N8" s="2">
-        <v>2301016</v>
+        <v>2303060</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P8" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>229</v>
+        <v>0.15</v>
       </c>
       <c r="V8" t="str">
         <f t="shared" si="0"/>
-        <v>2301004,0.2;2301016,0.2;</v>
+        <v>2301004,0.3;2303060;0.15</v>
       </c>
       <c r="AE8">
         <v>2301006</v>
@@ -3553,26 +3652,23 @@
         <v>228</v>
       </c>
       <c r="L9" s="2">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>229</v>
       </c>
       <c r="N9" s="2">
-        <v>2301020</v>
+        <v>2303070</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P9" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>229</v>
+        <v>0.15</v>
       </c>
       <c r="V9" t="str">
         <f t="shared" si="0"/>
-        <v>2301016,0.5;2301019,0.1;2301020,0.1;</v>
+        <v>2301016,0.5;2301019,0.15;2303070;0.15</v>
       </c>
       <c r="AE9">
         <v>2301007</v>
@@ -3601,26 +3697,23 @@
         <v>228</v>
       </c>
       <c r="L10" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>229</v>
       </c>
       <c r="N10" s="2">
-        <v>2301017</v>
+        <v>2303080</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P10" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>229</v>
+        <v>0.15</v>
       </c>
       <c r="V10" t="str">
         <f t="shared" si="0"/>
-        <v>2301016,0.2;2301017,0.2;</v>
+        <v>2301016,0.3;2303080;0.15</v>
       </c>
       <c r="AE10">
         <v>2301008</v>
@@ -3661,26 +3754,23 @@
         <v>228</v>
       </c>
       <c r="L11" s="2">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>229</v>
       </c>
       <c r="N11" s="2">
-        <v>2301007</v>
+        <v>2303090</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P11" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>229</v>
+        <v>0.15</v>
       </c>
       <c r="V11" t="str">
         <f t="shared" si="0"/>
-        <v>2301013,0.5;2301018,0.1;2301007,0.1;</v>
+        <v>2301013,0.5;2301018,0.15;2303090;0.15</v>
       </c>
       <c r="AE11">
         <v>2301009</v>
@@ -3721,26 +3811,23 @@
         <v>228</v>
       </c>
       <c r="L12" s="2">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>229</v>
       </c>
       <c r="N12" s="2">
-        <v>2301016</v>
+        <v>2303100</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P12" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>229</v>
+        <v>0.15</v>
       </c>
       <c r="V12" t="str">
         <f t="shared" si="0"/>
-        <v>2301014,0.5;2301010,0.1;2301016,0.1;</v>
+        <v>2301014,0.5;2301010,0.15;2303100;0.15</v>
       </c>
       <c r="AE12">
         <v>2301010</v>
@@ -3769,26 +3856,32 @@
         <v>228</v>
       </c>
       <c r="L13" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>229</v>
       </c>
       <c r="N13" s="2">
-        <v>2301020</v>
+        <v>2303110</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P13" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>229</v>
+        <v>0.15</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>2303040</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0.15</v>
       </c>
       <c r="V13" t="str">
         <f t="shared" si="0"/>
-        <v>2301002,0.2;2301020,0.2;</v>
+        <v>2301002,0.3;2303110;0.152303040;0.15</v>
       </c>
       <c r="AE13">
         <v>2301011</v>
@@ -3829,26 +3922,23 @@
         <v>228</v>
       </c>
       <c r="L14" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>229</v>
       </c>
       <c r="N14" s="2">
-        <v>2301013</v>
+        <v>2303120</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P14" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>229</v>
+        <v>0.15</v>
       </c>
       <c r="V14" t="str">
         <f t="shared" si="0"/>
-        <v>2301005,0.5;2301001,0.2;2301013,0.2;</v>
+        <v>2301005,0.5;2301001,0.3;2303120;0.15</v>
       </c>
       <c r="AE14">
         <v>2301012</v>
@@ -3889,26 +3979,23 @@
         <v>228</v>
       </c>
       <c r="L15" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>229</v>
       </c>
       <c r="N15" s="2">
-        <v>2301014</v>
+        <v>2303130</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P15" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>229</v>
+        <v>0.15</v>
       </c>
       <c r="V15" t="str">
         <f t="shared" si="0"/>
-        <v>2301011,0.5;2301009,0.2;2301014,0.2;</v>
+        <v>2301011,0.5;2301009,0.3;2303130;0.15</v>
       </c>
       <c r="AE15">
         <v>2301013</v>
@@ -3942,33 +4029,27 @@
       <c r="I16" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="J16" s="2">
-        <v>2302018</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="N16" s="2">
-        <v>2301005</v>
+        <v>2303140</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P16" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>229</v>
+        <v>0.15</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>2303090</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0.15</v>
       </c>
       <c r="V16" t="str">
         <f t="shared" si="0"/>
-        <v>2301010,0.5;2302018,0.2;2301005,0.2;</v>
+        <v>2301010,0.5;2303140;0.152303090;0.15</v>
       </c>
       <c r="AE16">
         <v>2301014</v>
@@ -4009,26 +4090,23 @@
         <v>228</v>
       </c>
       <c r="L17" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>229</v>
       </c>
       <c r="N17" s="2">
-        <v>2302017</v>
+        <v>2303150</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P17" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>229</v>
+        <v>0.15</v>
       </c>
       <c r="V17" t="str">
         <f t="shared" si="0"/>
-        <v>2301011,0.5;2301013,0.2;2302017,0.2;</v>
+        <v>2301011,0.5;2301013,0.3;2303150;0.15</v>
       </c>
       <c r="AE17">
         <v>2301015</v>
@@ -4069,26 +4147,23 @@
         <v>228</v>
       </c>
       <c r="L18" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>229</v>
       </c>
       <c r="N18" s="2">
-        <v>2301018</v>
+        <v>2303160</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P18" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>229</v>
+        <v>0.15</v>
       </c>
       <c r="V18" t="str">
         <f t="shared" si="0"/>
-        <v>2301012,0.5;2302016,0.2;2301018,0.2;</v>
+        <v>2301012,0.5;2302016,0.3;2303160;0.15</v>
       </c>
       <c r="AE18">
         <v>2301016</v>
@@ -4122,33 +4197,27 @@
       <c r="I19" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="J19" s="2">
-        <v>2302015</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="N19" s="2">
-        <v>2302014</v>
+        <v>2303170</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P19" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>229</v>
+        <v>0.15</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>2303090</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="S19" s="2">
+        <v>0.15</v>
       </c>
       <c r="V19" t="str">
         <f t="shared" si="0"/>
-        <v>2301013,0.5;2302015,0.2;2302014,0.2;</v>
+        <v>2301013,0.5;2303170;0.152303090;0.15</v>
       </c>
       <c r="AE19">
         <v>2301017</v>
@@ -4189,26 +4258,23 @@
         <v>228</v>
       </c>
       <c r="L20" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>229</v>
       </c>
       <c r="N20" s="2">
-        <v>2301015</v>
+        <v>2303180</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P20" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>229</v>
+        <v>0.15</v>
       </c>
       <c r="V20" t="str">
         <f t="shared" si="0"/>
-        <v>2301008,0.5;2302013,0.2;2301015,0.2;</v>
+        <v>2301008,0.5;2302013,0.3;2303180;0.15</v>
       </c>
       <c r="AE20">
         <v>2301018</v>
@@ -4249,26 +4315,23 @@
         <v>228</v>
       </c>
       <c r="L21" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="N21" s="2">
-        <v>2301016</v>
+      <c r="N21" s="10">
+        <v>2303190</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P21" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>229</v>
+        <v>0.15</v>
       </c>
       <c r="V21" t="str">
         <f t="shared" si="0"/>
-        <v>2301015,0.5;2302012,0.2;2301016,0.2;</v>
+        <v>2301015,0.5;2302012,0.3;2303190;0.15</v>
       </c>
       <c r="AE21">
         <v>2301019</v>
@@ -4309,26 +4372,23 @@
         <v>228</v>
       </c>
       <c r="L22" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="N22" s="2">
-        <v>2301001</v>
+      <c r="N22" s="10">
+        <v>2303200</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>229</v>
+        <v>0.15</v>
       </c>
       <c r="V22" t="str">
         <f t="shared" si="0"/>
-        <v>2301016,0.5;2302007,0.2;2301001,0.2;</v>
+        <v>2301016,0.5;2302007,0.3;2303200;0.15</v>
       </c>
       <c r="AE22">
         <v>2301020</v>
@@ -4362,33 +4422,27 @@
       <c r="I23" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="J23" s="2">
-        <v>2302011</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="N23" s="2">
-        <v>2301002</v>
+      <c r="N23" s="10">
+        <v>2303210</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P23" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>229</v>
+        <v>0.15</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>2303080</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0.15</v>
       </c>
       <c r="V23" t="str">
         <f t="shared" si="0"/>
-        <v>2301017,0.5;2302011,0.2;2301002,0.2;</v>
+        <v>2301017,0.5;2303210;0.152303080;0.15</v>
       </c>
       <c r="AE23">
         <v>2302001</v>
@@ -4429,26 +4483,23 @@
         <v>228</v>
       </c>
       <c r="L24" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="N24" s="2">
-        <v>2301019</v>
+      <c r="N24" s="10">
+        <v>2303220</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P24" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>229</v>
+        <v>0.15</v>
       </c>
       <c r="V24" t="str">
         <f t="shared" si="0"/>
-        <v>2301018,0.5;2302005,0.2;2301019,0.2;</v>
+        <v>2301018,0.5;2302005,0.3;2303220;0.15</v>
       </c>
       <c r="AE24">
         <v>2302002</v>
@@ -4482,33 +4533,27 @@
       <c r="I25" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="J25" s="2">
-        <v>2302006</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L25" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="N25" s="2">
-        <v>2301020</v>
+      <c r="N25" s="10">
+        <v>2303230</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P25" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>229</v>
+        <v>0.15</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>2303120</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="S25" s="2">
+        <v>0.15</v>
       </c>
       <c r="V25" t="str">
         <f t="shared" si="0"/>
-        <v>2301019,0.5;2302006,0.2;2301020,0.2;</v>
+        <v>2301019,0.5;2303230;0.152303120;0.15</v>
       </c>
       <c r="AE25">
         <v>2302003</v>
@@ -4549,26 +4594,23 @@
         <v>228</v>
       </c>
       <c r="L26" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="N26" s="2">
-        <v>2302011</v>
+      <c r="N26" s="10">
+        <v>2303240</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P26" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>229</v>
+        <v>0.15</v>
       </c>
       <c r="V26" t="str">
         <f t="shared" si="0"/>
-        <v>2301005,0.5;2301020,0.2;2302011,0.2;</v>
+        <v>2301005,0.5;2301020,0.3;2303240;0.15</v>
       </c>
       <c r="AE26">
         <v>2302004</v>
@@ -4609,26 +4651,23 @@
         <v>228</v>
       </c>
       <c r="L27" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="N27" s="2">
-        <v>2301019</v>
+      <c r="N27" s="10">
+        <v>2303250</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P27" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>229</v>
+        <v>0.15</v>
       </c>
       <c r="V27" t="str">
         <f t="shared" si="0"/>
-        <v>2301001,0.5;2302010,0.2;2301019,0.2;</v>
+        <v>2301001,0.5;2302010,0.3;2303250;0.15</v>
       </c>
       <c r="AE27">
         <v>2302005</v>
@@ -4669,26 +4708,23 @@
         <v>228</v>
       </c>
       <c r="L28" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="N28" s="2">
-        <v>2301002</v>
+      <c r="N28" s="10">
+        <v>2303260</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P28" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>229</v>
+        <v>0.15</v>
       </c>
       <c r="V28" t="str">
         <f t="shared" si="0"/>
-        <v>2301020,0.5;2302008,0.2;2301002,0.2;</v>
+        <v>2301020,0.5;2302008,0.3;2303260;0.15</v>
       </c>
       <c r="AE28">
         <v>2302006</v>
@@ -4729,26 +4765,23 @@
         <v>228</v>
       </c>
       <c r="L29" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="N29" s="2">
-        <v>2302009</v>
+      <c r="N29" s="10">
+        <v>2303270</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P29" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>229</v>
+        <v>0.15</v>
       </c>
       <c r="V29" t="str">
         <f t="shared" si="0"/>
-        <v>2301002,0.5;2301011,0.2;2302009,0.2;</v>
+        <v>2301002,0.5;2301011,0.3;2303270;0.15</v>
       </c>
       <c r="AE29">
         <v>2302007</v>
@@ -4789,26 +4822,32 @@
         <v>228</v>
       </c>
       <c r="L30" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="N30" s="2">
-        <v>2301011</v>
+      <c r="N30" s="10">
+        <v>2303280</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P30" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>229</v>
+        <v>0.15</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>2303070</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="S30" s="2">
+        <v>0.15</v>
       </c>
       <c r="V30" t="str">
         <f t="shared" si="0"/>
-        <v>2301004,0.5;2302007,0.2;2301011,0.2;</v>
+        <v>2301004,0.5;2302007,0.3;2303280;0.152303070;0.15</v>
       </c>
       <c r="AE30">
         <v>2302008</v>
@@ -4849,35 +4888,23 @@
         <v>228</v>
       </c>
       <c r="L31" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="N31" s="2">
-        <v>2301012</v>
+      <c r="N31" s="10">
+        <v>2303290</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P31" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="R31" s="2">
-        <v>2301016</v>
-      </c>
-      <c r="S31" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="T31" s="2">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="V31" t="str">
         <f t="shared" si="0"/>
-        <v>2301005,0.5;2302003,0.2;2301012,0.1;2301016,0.1</v>
+        <v>2301005,0.5;2302003,0.3;2303290;0.15</v>
       </c>
       <c r="AE31">
         <v>2302009</v>
@@ -4918,35 +4945,32 @@
         <v>228</v>
       </c>
       <c r="L32" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="N32" s="2">
-        <v>2301007</v>
+      <c r="N32" s="10">
+        <v>2303300</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P32" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="R32" s="2">
-        <v>2301017</v>
-      </c>
-      <c r="S32" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="T32" s="2">
-        <v>0.1</v>
+        <v>0.15</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>2303020</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="S32" s="2">
+        <v>0.15</v>
       </c>
       <c r="V32" t="str">
         <f t="shared" si="0"/>
-        <v>2301010,0.5;2302006,0.2;2301007,0.1;2301017,0.1</v>
+        <v>2301010,0.5;2302006,0.3;2303300;0.152303020;0.15</v>
       </c>
       <c r="AE32">
         <v>2302010</v>
@@ -4987,35 +5011,23 @@
         <v>228</v>
       </c>
       <c r="L33" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="N33" s="2">
-        <v>2301020</v>
+      <c r="N33" s="10">
+        <v>2303310</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="R33" s="2">
-        <v>2301010</v>
-      </c>
-      <c r="S33" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="T33" s="2">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="V33" t="str">
         <f t="shared" si="0"/>
-        <v>2301007,0.5;2302004,0.2;2301020,0.1;2301010,0.1</v>
+        <v>2301007,0.5;2302004,0.3;2303310;0.15</v>
       </c>
       <c r="AE33">
         <v>2302011</v>
@@ -5056,35 +5068,23 @@
         <v>228</v>
       </c>
       <c r="L34" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="N34" s="2">
-        <v>2301009</v>
+      <c r="N34" s="10">
+        <v>2303320</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P34" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="R34" s="2">
-        <v>2301011</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="T34" s="2">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="V34" t="str">
         <f t="shared" si="0"/>
-        <v>2301010,0.5;2302005,0.2;2301009,0.1;2301011,0.1</v>
+        <v>2301010,0.5;2302005,0.3;2303320;0.15</v>
       </c>
       <c r="AE34">
         <v>2302012</v>
@@ -5125,35 +5125,23 @@
         <v>228</v>
       </c>
       <c r="L35" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="N35" s="2">
-        <v>2302019</v>
+      <c r="N35" s="10">
+        <v>2303330</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P35" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="R35" s="2">
-        <v>2301012</v>
-      </c>
-      <c r="S35" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="T35" s="2">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="V35" t="str">
         <f t="shared" si="0"/>
-        <v>2301009,0.5;2302001,0.2;2302019,0.1;2301012,0.1</v>
+        <v>2301009,0.5;2302001,0.3;2303330;0.15</v>
       </c>
       <c r="AE35">
         <v>2302013</v>
@@ -5194,35 +5182,32 @@
         <v>228</v>
       </c>
       <c r="L36" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="N36" s="2">
-        <v>2302020</v>
+      <c r="N36" s="10">
+        <v>2303340</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P36" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="R36" s="2">
-        <v>2301013</v>
-      </c>
-      <c r="S36" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="T36" s="2">
-        <v>0.1</v>
+        <v>0.15</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>2303240</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="S36" s="2">
+        <v>0.15</v>
       </c>
       <c r="V36" t="str">
         <f t="shared" si="0"/>
-        <v>2301010,0.5;2302002,0.2;2302020,0.1;2301013,0.1</v>
+        <v>2301010,0.5;2302002,0.3;2303340;0.152303240;0.15</v>
       </c>
       <c r="AE36">
         <v>2302014</v>
@@ -5298,6 +5283,536 @@
       </c>
       <c r="AG42" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="14:17">
+      <c r="N51" s="2">
+        <v>2301010</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P51" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52" spans="14:17">
+      <c r="N52" s="2">
+        <v>2301019</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P52" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="53" spans="14:17">
+      <c r="N53" s="2">
+        <v>2301019</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P53" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="54" spans="14:17">
+      <c r="N54" s="2">
+        <v>2301008</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P54" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="55" spans="14:17">
+      <c r="N55" s="2">
+        <v>2301020</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P55" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" spans="14:17">
+      <c r="N56" s="2">
+        <v>2301016</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P56" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="57" spans="14:17">
+      <c r="N57" s="2">
+        <v>2301020</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P57" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="58" spans="14:17">
+      <c r="N58" s="2">
+        <v>2301017</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P58" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="59" spans="14:17">
+      <c r="N59" s="2">
+        <v>2301007</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P59" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="60" spans="14:17">
+      <c r="N60" s="2">
+        <v>2301016</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P60" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="61" spans="14:17">
+      <c r="N61" s="2">
+        <v>2301020</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P61" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="62" spans="14:17">
+      <c r="N62" s="2">
+        <v>2301013</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P62" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" spans="14:17">
+      <c r="N63" s="2">
+        <v>2301014</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P63" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="64" spans="14:17">
+      <c r="N64" s="2">
+        <v>2301005</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P64" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="65" spans="14:20">
+      <c r="N65" s="2">
+        <v>2302017</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P65" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="66" spans="14:20">
+      <c r="N66" s="2">
+        <v>2301018</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P66" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="67" spans="14:20">
+      <c r="N67" s="2">
+        <v>2302014</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P67" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="68" spans="14:20">
+      <c r="N68" s="2">
+        <v>2301015</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P68" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="69" spans="14:20">
+      <c r="N69" s="2">
+        <v>2301016</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P69" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q69" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="70" spans="14:20">
+      <c r="N70" s="2">
+        <v>2301001</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P70" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="71" spans="14:20">
+      <c r="N71" s="2">
+        <v>2301002</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P71" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="72" spans="14:20">
+      <c r="N72" s="2">
+        <v>2301019</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P72" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="73" spans="14:20">
+      <c r="N73" s="2">
+        <v>2301020</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P73" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="74" spans="14:20">
+      <c r="N74" s="2">
+        <v>2302011</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P74" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q74" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="75" spans="14:20">
+      <c r="N75" s="2">
+        <v>2301019</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P75" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="76" spans="14:20">
+      <c r="N76" s="2">
+        <v>2301002</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P76" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="77" spans="14:20">
+      <c r="N77" s="2">
+        <v>2302009</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P77" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="78" spans="14:20">
+      <c r="N78" s="2">
+        <v>2301011</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P78" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="79" spans="14:20">
+      <c r="N79" s="2">
+        <v>2301012</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P79" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q79" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="R79" s="2">
+        <v>2301016</v>
+      </c>
+      <c r="S79" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="T79" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="80" spans="14:20">
+      <c r="N80" s="2">
+        <v>2301007</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P80" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="R80" s="2">
+        <v>2301017</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="T80" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="81" spans="14:20">
+      <c r="N81" s="2">
+        <v>2301020</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P81" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q81" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="R81" s="2">
+        <v>2301010</v>
+      </c>
+      <c r="S81" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="T81" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="82" spans="14:20">
+      <c r="N82" s="2">
+        <v>2301009</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P82" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q82" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="R82" s="2">
+        <v>2301011</v>
+      </c>
+      <c r="S82" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="T82" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="83" spans="14:20">
+      <c r="N83" s="2">
+        <v>2302019</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P83" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q83" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="R83" s="2">
+        <v>2301012</v>
+      </c>
+      <c r="S83" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="T83" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="84" spans="14:20">
+      <c r="N84" s="2">
+        <v>2302020</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P84" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q84" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="R84" s="2">
+        <v>2301013</v>
+      </c>
+      <c r="S84" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="T84" s="2">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -5308,10 +5823,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DB049E-55D8-4921-8104-92BAC46EB264}">
-  <dimension ref="B1:W80"/>
+  <dimension ref="A1:AB80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5329,7 +5844,7 @@
     <col min="18" max="18" width="51.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="E1" s="2" t="s">
         <v>230</v>
       </c>
@@ -5343,7 +5858,10 @@
       <c r="V1" s="8"/>
       <c r="W1" s="8"/>
     </row>
-    <row r="2" spans="2:23" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:28" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="2">
+        <v>2303010</v>
+      </c>
       <c r="B2" s="2">
         <v>310101</v>
       </c>
@@ -5370,12 +5888,31 @@
       </c>
       <c r="O2" s="8"/>
       <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
+      <c r="T2" s="10">
+        <v>2304010</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>515</v>
+      </c>
       <c r="V2" s="8"/>
       <c r="W2" s="8"/>
-    </row>
-    <row r="3" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="X2" s="2">
+        <v>310101</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>2303010</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="2">
+        <v>2303020</v>
+      </c>
       <c r="B3" s="2">
         <v>310102</v>
       </c>
@@ -5408,12 +5945,31 @@
       </c>
       <c r="O3" s="8"/>
       <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
+      <c r="T3" s="10">
+        <v>2304020</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>516</v>
+      </c>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
-    </row>
-    <row r="4" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="X3" s="2">
+        <v>310102</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>2303020</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="2">
+        <v>2303030</v>
+      </c>
       <c r="B4" s="2">
         <v>310103</v>
       </c>
@@ -5446,12 +6002,31 @@
       </c>
       <c r="O4" s="8"/>
       <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
+      <c r="T4" s="10">
+        <v>2304030</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>517</v>
+      </c>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
-    </row>
-    <row r="5" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="X4" s="2">
+        <v>310103</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>2303030</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="2">
+        <v>2303040</v>
+      </c>
       <c r="B5" s="2">
         <v>310104</v>
       </c>
@@ -5484,12 +6059,31 @@
       </c>
       <c r="O5" s="8"/>
       <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
+      <c r="T5" s="10">
+        <v>2304040</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>518</v>
+      </c>
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
-    </row>
-    <row r="6" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="X5" s="2">
+        <v>310104</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>2303040</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="2">
+        <v>2303050</v>
+      </c>
       <c r="B6" s="2">
         <v>310105</v>
       </c>
@@ -5522,12 +6116,31 @@
       </c>
       <c r="O6" s="8"/>
       <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
+      <c r="T6" s="10">
+        <v>2304050</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>519</v>
+      </c>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
-    </row>
-    <row r="7" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="X6" s="2">
+        <v>310105</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>2303050</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="2">
+        <v>2303060</v>
+      </c>
       <c r="B7" s="2">
         <v>310106</v>
       </c>
@@ -5560,12 +6173,31 @@
       </c>
       <c r="O7" s="8"/>
       <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
+      <c r="T7" s="10">
+        <v>2304060</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>520</v>
+      </c>
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
-    </row>
-    <row r="8" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="X7" s="2">
+        <v>310106</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>2303060</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="2">
+        <v>2303070</v>
+      </c>
       <c r="B8" s="2">
         <v>310107</v>
       </c>
@@ -5598,12 +6230,31 @@
       </c>
       <c r="O8" s="8"/>
       <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
+      <c r="T8" s="10">
+        <v>2304070</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>521</v>
+      </c>
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
-    </row>
-    <row r="9" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="X8" s="2">
+        <v>310107</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>2303070</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="2">
+        <v>2303080</v>
+      </c>
       <c r="B9" s="2">
         <v>320101</v>
       </c>
@@ -5636,12 +6287,31 @@
       </c>
       <c r="O9" s="8"/>
       <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
+      <c r="T9" s="10">
+        <v>2304080</v>
+      </c>
+      <c r="U9" s="10" t="s">
+        <v>522</v>
+      </c>
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
-    </row>
-    <row r="10" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="X9" s="2">
+        <v>320101</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>2303080</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="2">
+        <v>2303090</v>
+      </c>
       <c r="B10" s="2">
         <v>320102</v>
       </c>
@@ -5674,12 +6344,27 @@
       </c>
       <c r="O10" s="8"/>
       <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
-    </row>
-    <row r="11" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="X10" s="2">
+        <v>320102</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>2303090</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="2">
+        <v>2303100</v>
+      </c>
       <c r="B11" s="2">
         <v>320103</v>
       </c>
@@ -5703,12 +6388,27 @@
       </c>
       <c r="O11" s="8"/>
       <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
-    </row>
-    <row r="12" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="X11" s="2">
+        <v>320103</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>2303100</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="2">
+        <v>2303110</v>
+      </c>
       <c r="B12" s="2">
         <v>320104</v>
       </c>
@@ -5738,12 +6438,27 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="3"/>
       <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
-    </row>
-    <row r="13" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="X12" s="2">
+        <v>320104</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>2303110</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="2">
+        <v>2303120</v>
+      </c>
       <c r="B13" s="2">
         <v>320105</v>
       </c>
@@ -5779,12 +6494,27 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="3"/>
       <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
-    </row>
-    <row r="14" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="X13" s="2">
+        <v>320105</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>2303120</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="2">
+        <v>2303130</v>
+      </c>
       <c r="B14" s="2">
         <v>320106</v>
       </c>
@@ -5820,12 +6550,27 @@
       </c>
       <c r="O14" s="8"/>
       <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
-    </row>
-    <row r="15" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="X14" s="2">
+        <v>320106</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>2303130</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="2">
+        <v>2303140</v>
+      </c>
       <c r="B15" s="2">
         <v>320107</v>
       </c>
@@ -5861,12 +6606,27 @@
       </c>
       <c r="O15" s="8"/>
       <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
-    </row>
-    <row r="16" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="X15" s="2">
+        <v>320107</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>2303140</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="2">
+        <v>2303150</v>
+      </c>
       <c r="B16" s="2">
         <v>330101</v>
       </c>
@@ -5899,12 +6659,27 @@
       </c>
       <c r="O16" s="8"/>
       <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
-    </row>
-    <row r="17" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="X16" s="2">
+        <v>330101</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>2303150</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="2">
+        <v>2303160</v>
+      </c>
       <c r="B17" s="2">
         <v>330102</v>
       </c>
@@ -5937,12 +6712,27 @@
       </c>
       <c r="O17" s="8"/>
       <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
-    </row>
-    <row r="18" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="X17" s="2">
+        <v>330102</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>2303160</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="2">
+        <v>2303170</v>
+      </c>
       <c r="B18" s="2">
         <v>330103</v>
       </c>
@@ -5975,12 +6765,27 @@
       </c>
       <c r="O18" s="8"/>
       <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
-    </row>
-    <row r="19" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="X18" s="2">
+        <v>330103</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>2303170</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="2">
+        <v>2303180</v>
+      </c>
       <c r="B19" s="2">
         <v>330104</v>
       </c>
@@ -6016,12 +6821,27 @@
       <c r="Q19" s="9"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
       <c r="V19" s="8"/>
       <c r="W19" s="8"/>
-    </row>
-    <row r="20" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="X19" s="2">
+        <v>330104</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>2303180</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="10">
+        <v>2303190</v>
+      </c>
       <c r="B20" s="2">
         <v>330105</v>
       </c>
@@ -6052,8 +6872,25 @@
       <c r="M20" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="21" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="X20" s="2">
+        <v>330105</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA20" s="10">
+        <v>2303190</v>
+      </c>
+      <c r="AB20" s="10" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="10">
+        <v>2303200</v>
+      </c>
       <c r="B21" s="2">
         <v>330106</v>
       </c>
@@ -6078,8 +6915,25 @@
       <c r="M21" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="22" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="X21" s="2">
+        <v>330106</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="AA21" s="10">
+        <v>2303200</v>
+      </c>
+      <c r="AB21" s="10" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="10">
+        <v>2303210</v>
+      </c>
       <c r="B22" s="2">
         <v>330107</v>
       </c>
@@ -6110,8 +6964,25 @@
       <c r="M22" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="23" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="X22" s="2">
+        <v>330107</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA22" s="10">
+        <v>2303210</v>
+      </c>
+      <c r="AB22" s="10" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="10">
+        <v>2303220</v>
+      </c>
       <c r="B23" s="2">
         <v>340101</v>
       </c>
@@ -6142,8 +7013,25 @@
       <c r="M23" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="24" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="X23" s="2">
+        <v>340101</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA23" s="10">
+        <v>2303220</v>
+      </c>
+      <c r="AB23" s="10" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="10">
+        <v>2303230</v>
+      </c>
       <c r="B24" s="2">
         <v>340102</v>
       </c>
@@ -6177,8 +7065,25 @@
       <c r="O24" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="25" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="X24" s="2">
+        <v>340102</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA24" s="10">
+        <v>2303230</v>
+      </c>
+      <c r="AB24" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="10">
+        <v>2303240</v>
+      </c>
       <c r="B25" s="2">
         <v>340103</v>
       </c>
@@ -6209,8 +7114,25 @@
       <c r="M25" s="13" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="26" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="X25" s="2">
+        <v>340103</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA25" s="10">
+        <v>2303240</v>
+      </c>
+      <c r="AB25" s="10" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="10">
+        <v>2303250</v>
+      </c>
       <c r="B26" s="2">
         <v>340104</v>
       </c>
@@ -6241,8 +7163,25 @@
       <c r="M26" s="13" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="27" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="X26" s="2">
+        <v>340104</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA26" s="10">
+        <v>2303250</v>
+      </c>
+      <c r="AB26" s="10" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="10">
+        <v>2303260</v>
+      </c>
       <c r="B27" s="2">
         <v>340105</v>
       </c>
@@ -6273,8 +7212,25 @@
       <c r="M27" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="28" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="X27" s="2">
+        <v>340105</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA27" s="10">
+        <v>2303260</v>
+      </c>
+      <c r="AB27" s="10" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="10">
+        <v>2303270</v>
+      </c>
       <c r="B28" s="2">
         <v>340106</v>
       </c>
@@ -6305,8 +7261,25 @@
       <c r="M28" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="29" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="X28" s="2">
+        <v>340106</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA28" s="10">
+        <v>2303270</v>
+      </c>
+      <c r="AB28" s="10" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="10">
+        <v>2303280</v>
+      </c>
       <c r="B29" s="2">
         <v>340107</v>
       </c>
@@ -6337,8 +7310,25 @@
       <c r="M29" s="13" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="30" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="X29" s="2">
+        <v>340107</v>
+      </c>
+      <c r="Y29" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA29" s="10">
+        <v>2303280</v>
+      </c>
+      <c r="AB29" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="10">
+        <v>2303290</v>
+      </c>
       <c r="B30" s="2">
         <v>350101</v>
       </c>
@@ -6372,8 +7362,25 @@
       <c r="M30" s="13" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="31" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="X30" s="2">
+        <v>350101</v>
+      </c>
+      <c r="Y30" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA30" s="10">
+        <v>2303290</v>
+      </c>
+      <c r="AB30" s="10" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="10">
+        <v>2303300</v>
+      </c>
       <c r="B31" s="2">
         <v>350102</v>
       </c>
@@ -6395,8 +7402,25 @@
       <c r="H31" s="12" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="32" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="X31" s="2">
+        <v>350102</v>
+      </c>
+      <c r="Y31" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA31" s="10">
+        <v>2303300</v>
+      </c>
+      <c r="AB31" s="10" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="10">
+        <v>2303310</v>
+      </c>
       <c r="B32" s="2">
         <v>350103</v>
       </c>
@@ -6421,8 +7445,25 @@
       <c r="L32" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="X32" s="2">
+        <v>350103</v>
+      </c>
+      <c r="Y32" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA32" s="10">
+        <v>2303310</v>
+      </c>
+      <c r="AB32" s="10" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="10">
+        <v>2303320</v>
+      </c>
       <c r="B33" s="2">
         <v>350104</v>
       </c>
@@ -6444,8 +7485,25 @@
       <c r="H33" s="12" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="X33" s="2">
+        <v>350104</v>
+      </c>
+      <c r="Y33" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA33" s="10">
+        <v>2303320</v>
+      </c>
+      <c r="AB33" s="10" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="10">
+        <v>2303330</v>
+      </c>
       <c r="B34" s="2">
         <v>350105</v>
       </c>
@@ -6467,8 +7525,25 @@
       <c r="H34" s="12" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="X34" s="2">
+        <v>350105</v>
+      </c>
+      <c r="Y34" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA34" s="10">
+        <v>2303330</v>
+      </c>
+      <c r="AB34" s="10" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="10">
+        <v>2303340</v>
+      </c>
       <c r="B35" s="2">
         <v>350106</v>
       </c>
@@ -6490,11 +7565,27 @@
       <c r="H35" s="12" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="X35" s="2">
+        <v>350106</v>
+      </c>
+      <c r="Y35" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA35" s="10">
+        <v>2303340</v>
+      </c>
+      <c r="AB35" s="10" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="F36" s="11"/>
-    </row>
-    <row r="37" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+    </row>
+    <row r="37" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="B37" s="2" t="s">
         <v>312</v>
       </c>
@@ -6502,21 +7593,21 @@
       <c r="D37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
     </row>
-    <row r="41" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10">
@@ -6535,7 +7626,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10">
@@ -6554,7 +7645,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10">
@@ -6573,7 +7664,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10">
@@ -6592,7 +7683,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10">
@@ -6611,7 +7702,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10">
@@ -6630,7 +7721,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10">
@@ -6649,7 +7740,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="1:28" ht="20.100000000000001" customHeight="1">
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10">

--- a/GameDesign/宠物设计.xlsx
+++ b/GameDesign/宠物设计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5A6C15-F06D-49D3-88C9-CCF99880095F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6461D85D-FD3A-4C21-B052-4FADF4DC88A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="宠物被动技能" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="531">
   <si>
     <t>勇猛</t>
   </si>
@@ -1837,6 +1837,30 @@
   </si>
   <si>
     <t>燃烧之种</t>
+  </si>
+  <si>
+    <t>邪恶鳄鱼</t>
+  </si>
+  <si>
+    <t>火焰松鼠</t>
+  </si>
+  <si>
+    <t>冰雪人</t>
+  </si>
+  <si>
+    <t>火焰之树</t>
+  </si>
+  <si>
+    <t>天空守卫</t>
+  </si>
+  <si>
+    <t>白羽蝴蝶</t>
+  </si>
+  <si>
+    <t>熔岩之魔</t>
+  </si>
+  <si>
+    <t>天狼蜘蛛</t>
   </si>
 </sst>
 </file>
@@ -2232,7 +2256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -3309,10 +3333,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64ED461B-9A4E-44B2-982C-34BEFDC32D79}">
-  <dimension ref="B2:AG84"/>
+  <dimension ref="B1:AG84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3321,1971 +3345,2637 @@
     <col min="33" max="33" width="52.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:33">
-      <c r="D2" s="2" t="s">
+    <row r="1" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+    </row>
+    <row r="2" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="3" spans="2:33">
-      <c r="B3" s="2">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+    </row>
+    <row r="3" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B3" s="10">
         <v>310101</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="10">
         <v>2301001</v>
       </c>
-      <c r="F3" s="1">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10">
         <v>2301011</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="G3" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H3" s="10">
         <v>0.5</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J3" s="2">
+      <c r="I3" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="J3" s="10">
         <v>2301005</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L3" s="2">
+      <c r="K3" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L3" s="10">
         <v>0.15</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="N3" s="2">
+      <c r="M3" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="N3" s="10">
         <v>2303010</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="P3" s="2">
+      <c r="O3" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="P3" s="10">
         <v>0.15</v>
       </c>
-      <c r="V3" t="str">
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="11" t="str">
         <f>F3&amp;G3&amp;H3&amp;I3&amp;J3&amp;K3&amp;L3&amp;M3&amp;N3&amp;O3&amp;P3&amp;Q3&amp;R3&amp;S3&amp;T3</f>
         <v>2301011,0.5;2301005,0.15;2303010;0.15</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="11">
         <v>2301001</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AF3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AG3" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="2:33">
-      <c r="B4" s="2">
+    <row r="4" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="10">
         <v>310102</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="10">
         <v>2301004</v>
       </c>
-      <c r="J4" s="2">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10">
         <v>2301002</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L4" s="2">
+      <c r="K4" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L4" s="10">
         <v>0.3</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="N4" s="2">
+      <c r="M4" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="N4" s="10">
         <v>2303020</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="P4" s="2">
+      <c r="O4" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="P4" s="10">
         <v>0.15</v>
       </c>
-      <c r="V4" t="str">
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="11" t="str">
         <f t="shared" ref="V4:V36" si="0">F4&amp;G4&amp;H4&amp;I4&amp;J4&amp;K4&amp;L4&amp;M4&amp;N4&amp;O4&amp;P4&amp;Q4&amp;R4&amp;S4&amp;T4</f>
         <v>2301002,0.3;2303020;0.15</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" s="11">
         <v>2301002</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AF4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AG4" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="2:33">
-      <c r="B5" s="2">
+    <row r="5" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="10">
         <v>310103</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="10">
         <v>2301005</v>
       </c>
-      <c r="J5" s="2">
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10">
         <v>2301007</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L5" s="2">
+      <c r="K5" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L5" s="10">
         <v>0.3</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="N5" s="2">
+      <c r="M5" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="N5" s="10">
         <v>2303030</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="P5" s="2">
+      <c r="O5" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="P5" s="10">
         <v>0.15</v>
       </c>
-      <c r="V5" t="str">
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="11" t="str">
         <f t="shared" si="0"/>
         <v>2301007,0.3;2303030;0.15</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="11">
         <v>2301003</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AF5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AG5" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="2:33">
-      <c r="B6" s="2">
+    <row r="6" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="10">
         <v>310104</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="10">
         <v>2301006</v>
       </c>
-      <c r="F6" s="1">
+      <c r="E6" s="10"/>
+      <c r="F6" s="10">
         <v>2301013</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="G6" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H6" s="10">
         <v>0.5</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J6" s="2">
+      <c r="I6" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="J6" s="10">
         <v>2301007</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L6" s="2">
+      <c r="K6" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L6" s="10">
         <v>0.15</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="N6" s="2">
+      <c r="M6" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="N6" s="10">
         <v>2303040</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="P6" s="2">
+      <c r="O6" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="P6" s="10">
         <v>0.15</v>
       </c>
-      <c r="V6" t="str">
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>2301013,0.5;2301007,0.15;2303040;0.15</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="11">
         <v>2301004</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AF6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AG6" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="2:33">
-      <c r="B7" s="2">
+    <row r="7" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="10">
         <v>310105</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="10">
         <v>2301010</v>
       </c>
-      <c r="J7" s="2">
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10">
         <v>2301012</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L7" s="2">
+      <c r="K7" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L7" s="10">
         <v>0.3</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="N7" s="2">
+      <c r="M7" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="N7" s="10">
         <v>2303050</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="P7" s="2">
+      <c r="O7" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="P7" s="10">
         <v>0.15</v>
       </c>
-      <c r="V7" t="str">
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="11" t="str">
         <f t="shared" si="0"/>
         <v>2301012,0.3;2303050;0.15</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" s="11">
         <v>2301005</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AF7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AG7" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="2:33">
-      <c r="B8" s="2">
+    <row r="8" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="10">
         <v>310106</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="10">
         <v>2301001</v>
       </c>
-      <c r="J8" s="2">
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10">
         <v>2301004</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L8" s="2">
+      <c r="K8" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L8" s="10">
         <v>0.3</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="N8" s="2">
+      <c r="M8" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="N8" s="10">
         <v>2303060</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="P8" s="2">
+      <c r="O8" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="P8" s="10">
         <v>0.15</v>
       </c>
-      <c r="V8" t="str">
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="11" t="str">
         <f t="shared" si="0"/>
         <v>2301004,0.3;2303060;0.15</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" s="11">
         <v>2301006</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AF8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AG8" s="11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="2:33">
-      <c r="B9" s="2">
+    <row r="9" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="10">
         <v>310107</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="10">
         <v>2301018</v>
       </c>
-      <c r="F9" s="7">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10">
         <v>2301016</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="G9" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H9" s="10">
         <v>0.5</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J9" s="2">
+      <c r="I9" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="J9" s="10">
         <v>2301019</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L9" s="2">
+      <c r="K9" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L9" s="10">
         <v>0.15</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="N9" s="2">
+      <c r="M9" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="N9" s="10">
         <v>2303070</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="P9" s="2">
+      <c r="O9" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="P9" s="10">
         <v>0.15</v>
       </c>
-      <c r="V9" t="str">
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="11" t="str">
         <f t="shared" si="0"/>
         <v>2301016,0.5;2301019,0.15;2303070;0.15</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" s="11">
         <v>2301007</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AF9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AG9" s="11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="2:33">
-      <c r="B10" s="2">
+    <row r="10" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="10">
         <v>320101</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="10">
         <v>2301008</v>
       </c>
-      <c r="J10" s="2">
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10">
         <v>2301016</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L10" s="2">
+      <c r="K10" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L10" s="10">
         <v>0.3</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="N10" s="2">
+      <c r="M10" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="N10" s="10">
         <v>2303080</v>
       </c>
-      <c r="O10" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="P10" s="2">
+      <c r="O10" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="P10" s="10">
         <v>0.15</v>
       </c>
-      <c r="V10" t="str">
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="11" t="str">
         <f t="shared" si="0"/>
         <v>2301016,0.3;2303080;0.15</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" s="11">
         <v>2301008</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AF10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AG10" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="2:33">
-      <c r="B11" s="2">
+    <row r="11" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="10">
         <v>320102</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="10">
         <v>2301002</v>
       </c>
-      <c r="F11" s="1">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10">
         <v>2301013</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="G11" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H11" s="10">
         <v>0.5</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J11" s="2">
+      <c r="I11" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="J11" s="10">
         <v>2301018</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L11" s="2">
+      <c r="K11" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L11" s="10">
         <v>0.15</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="N11" s="2">
+      <c r="M11" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="N11" s="10">
         <v>2303090</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="P11" s="2">
+      <c r="O11" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="P11" s="10">
         <v>0.15</v>
       </c>
-      <c r="V11" t="str">
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="11" t="str">
         <f t="shared" si="0"/>
         <v>2301013,0.5;2301018,0.15;2303090;0.15</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" s="11">
         <v>2301009</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AF11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AG11" s="11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="2:33">
-      <c r="B12" s="2">
+    <row r="12" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="10">
         <v>320103</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="10">
         <v>2301009</v>
       </c>
-      <c r="F12" s="1">
+      <c r="E12" s="10"/>
+      <c r="F12" s="10">
         <v>2301014</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="G12" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H12" s="10">
         <v>0.5</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J12" s="2">
+      <c r="I12" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="J12" s="10">
         <v>2301010</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L12" s="2">
+      <c r="K12" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L12" s="10">
         <v>0.15</v>
       </c>
-      <c r="M12" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="N12" s="2">
+      <c r="M12" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="N12" s="10">
         <v>2303100</v>
       </c>
-      <c r="O12" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="P12" s="2">
+      <c r="O12" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="P12" s="10">
         <v>0.15</v>
       </c>
-      <c r="V12" t="str">
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="11" t="str">
         <f t="shared" si="0"/>
         <v>2301014,0.5;2301010,0.15;2303100;0.15</v>
       </c>
-      <c r="AE12">
+      <c r="AE12" s="11">
         <v>2301010</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AF12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AG12" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="2:33">
-      <c r="B13" s="2">
+    <row r="13" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="10">
         <v>320104</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="10">
         <v>2301011</v>
       </c>
-      <c r="J13" s="2">
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10">
         <v>2301002</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L13" s="2">
+      <c r="K13" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L13" s="10">
         <v>0.3</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="N13" s="2">
+      <c r="M13" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="N13" s="10">
         <v>2303110</v>
       </c>
-      <c r="O13" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="P13" s="2">
+      <c r="O13" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="P13" s="10">
         <v>0.15</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13" s="10">
         <v>2303040</v>
       </c>
-      <c r="R13" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="S13" s="2">
+      <c r="R13" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="S13" s="10">
         <v>0.15</v>
       </c>
-      <c r="V13" t="str">
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="11" t="str">
         <f t="shared" si="0"/>
         <v>2301002,0.3;2303110;0.152303040;0.15</v>
       </c>
-      <c r="AE13">
+      <c r="AE13" s="11">
         <v>2301011</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AF13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AG13" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="2:33">
-      <c r="B14" s="2">
+    <row r="14" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="10">
         <v>320105</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="10">
         <v>2301020</v>
       </c>
-      <c r="F14" s="1">
+      <c r="E14" s="10"/>
+      <c r="F14" s="10">
         <v>2301005</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="G14" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H14" s="10">
         <v>0.5</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J14" s="2">
+      <c r="I14" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="J14" s="10">
         <v>2301001</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L14" s="2">
+      <c r="K14" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L14" s="10">
         <v>0.3</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="N14" s="2">
+      <c r="M14" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="N14" s="10">
         <v>2303120</v>
       </c>
-      <c r="O14" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="P14" s="2">
+      <c r="O14" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="P14" s="10">
         <v>0.15</v>
       </c>
-      <c r="V14" t="str">
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="11" t="str">
         <f t="shared" si="0"/>
         <v>2301005,0.5;2301001,0.3;2303120;0.15</v>
       </c>
-      <c r="AE14">
+      <c r="AE14" s="11">
         <v>2301012</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AF14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AG14" s="11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="2:33">
-      <c r="B15" s="2">
+    <row r="15" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="10">
         <v>320106</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="10">
         <v>2301005</v>
       </c>
-      <c r="F15" s="1">
+      <c r="E15" s="10"/>
+      <c r="F15" s="10">
         <v>2301011</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="G15" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H15" s="10">
         <v>0.5</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J15" s="2">
+      <c r="I15" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="J15" s="10">
         <v>2301009</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L15" s="2">
+      <c r="K15" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L15" s="10">
         <v>0.3</v>
       </c>
-      <c r="M15" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="N15" s="2">
+      <c r="M15" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="N15" s="10">
         <v>2303130</v>
       </c>
-      <c r="O15" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="P15" s="2">
+      <c r="O15" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="P15" s="10">
         <v>0.15</v>
       </c>
-      <c r="V15" t="str">
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="11" t="str">
         <f t="shared" si="0"/>
         <v>2301011,0.5;2301009,0.3;2303130;0.15</v>
       </c>
-      <c r="AE15">
+      <c r="AE15" s="11">
         <v>2301013</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AF15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AG15" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="2:33">
-      <c r="B16" s="2">
+    <row r="16" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="10">
         <v>320107</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="10">
         <v>2301015</v>
       </c>
-      <c r="F16" s="1">
+      <c r="E16" s="10"/>
+      <c r="F16" s="10">
         <v>2301010</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="G16" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H16" s="10">
         <v>0.5</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="N16" s="2">
+      <c r="I16" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10">
         <v>2303140</v>
       </c>
-      <c r="O16" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="P16" s="2">
+      <c r="O16" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="P16" s="10">
         <v>0.15</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="10">
         <v>2303090</v>
       </c>
-      <c r="R16" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="S16" s="2">
+      <c r="R16" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="S16" s="10">
         <v>0.15</v>
       </c>
-      <c r="V16" t="str">
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="11" t="str">
         <f t="shared" si="0"/>
         <v>2301010,0.5;2303140;0.152303090;0.15</v>
       </c>
-      <c r="AE16">
+      <c r="AE16" s="11">
         <v>2301014</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AF16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AG16" s="11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="2:33">
-      <c r="B17" s="2">
+    <row r="17" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="10">
         <v>330101</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="10">
         <v>2301012</v>
       </c>
-      <c r="F17" s="1">
+      <c r="E17" s="10"/>
+      <c r="F17" s="10">
         <v>2301011</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="G17" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H17" s="10">
         <v>0.5</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J17" s="2">
+      <c r="I17" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="J17" s="10">
         <v>2301013</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L17" s="2">
+      <c r="K17" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L17" s="10">
         <v>0.3</v>
       </c>
-      <c r="M17" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="N17" s="2">
+      <c r="M17" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="N17" s="10">
         <v>2303150</v>
       </c>
-      <c r="O17" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="P17" s="2">
+      <c r="O17" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="P17" s="10">
         <v>0.15</v>
       </c>
-      <c r="V17" t="str">
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="11" t="str">
         <f t="shared" si="0"/>
         <v>2301011,0.5;2301013,0.3;2303150;0.15</v>
       </c>
-      <c r="AE17">
+      <c r="AE17" s="11">
         <v>2301015</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AF17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AG17" s="11" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="2:33">
-      <c r="B18" s="2">
+    <row r="18" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B18" s="10">
         <v>330102</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="10">
         <v>2301006</v>
       </c>
-      <c r="F18" s="1">
+      <c r="E18" s="10"/>
+      <c r="F18" s="10">
         <v>2301012</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H18" s="2">
+      <c r="G18" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H18" s="10">
         <v>0.5</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J18" s="2">
+      <c r="I18" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="J18" s="10">
         <v>2302016</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L18" s="2">
+      <c r="K18" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L18" s="10">
         <v>0.3</v>
       </c>
-      <c r="M18" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="N18" s="2">
+      <c r="M18" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="N18" s="10">
         <v>2303160</v>
       </c>
-      <c r="O18" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="P18" s="2">
+      <c r="O18" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="P18" s="10">
         <v>0.15</v>
       </c>
-      <c r="V18" t="str">
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="11" t="str">
         <f t="shared" si="0"/>
         <v>2301012,0.5;2302016,0.3;2303160;0.15</v>
       </c>
-      <c r="AE18">
+      <c r="AE18" s="11">
         <v>2301016</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AF18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AG18" s="11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="2:33">
-      <c r="B19" s="2">
+    <row r="19" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="10">
         <v>330103</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="10">
         <v>2301001</v>
       </c>
-      <c r="F19" s="1">
+      <c r="E19" s="10"/>
+      <c r="F19" s="10">
         <v>2301013</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="G19" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H19" s="10">
         <v>0.5</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="N19" s="2">
+      <c r="I19" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10">
         <v>2303170</v>
       </c>
-      <c r="O19" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="P19" s="2">
+      <c r="O19" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="P19" s="10">
         <v>0.15</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="Q19" s="10">
         <v>2303090</v>
       </c>
-      <c r="R19" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="S19" s="2">
+      <c r="R19" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="S19" s="10">
         <v>0.15</v>
       </c>
-      <c r="V19" t="str">
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="11" t="str">
         <f t="shared" si="0"/>
         <v>2301013,0.5;2303170;0.152303090;0.15</v>
       </c>
-      <c r="AE19">
+      <c r="AE19" s="11">
         <v>2301017</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AF19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AG19" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="2:33">
-      <c r="B20" s="2">
+    <row r="20" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="10">
         <v>330104</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="10">
         <v>2301005</v>
       </c>
-      <c r="F20" s="1">
+      <c r="E20" s="10"/>
+      <c r="F20" s="10">
         <v>2301008</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H20" s="2">
+      <c r="G20" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H20" s="10">
         <v>0.5</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J20" s="2">
+      <c r="I20" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="J20" s="10">
         <v>2302013</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L20" s="2">
+      <c r="K20" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L20" s="10">
         <v>0.3</v>
       </c>
-      <c r="M20" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="N20" s="2">
+      <c r="M20" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="N20" s="10">
         <v>2303180</v>
       </c>
-      <c r="O20" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="P20" s="2">
+      <c r="O20" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="P20" s="10">
         <v>0.15</v>
       </c>
-      <c r="V20" t="str">
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="11" t="str">
         <f t="shared" si="0"/>
         <v>2301008,0.5;2302013,0.3;2303180;0.15</v>
       </c>
-      <c r="AE20">
+      <c r="AE20" s="11">
         <v>2301018</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AF20" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AG20" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="2:33">
-      <c r="B21" s="2">
+    <row r="21" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="10">
         <v>330105</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="10">
         <v>2301006</v>
       </c>
-      <c r="F21" s="1">
+      <c r="E21" s="10"/>
+      <c r="F21" s="10">
         <v>2301015</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H21" s="2">
+      <c r="G21" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H21" s="10">
         <v>0.5</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J21" s="2">
+      <c r="I21" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="J21" s="10">
         <v>2302012</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L21" s="2">
+      <c r="K21" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L21" s="10">
         <v>0.3</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="10" t="s">
         <v>229</v>
       </c>
       <c r="N21" s="10">
         <v>2303190</v>
       </c>
-      <c r="O21" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="P21" s="2">
+      <c r="O21" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="P21" s="10">
         <v>0.15</v>
       </c>
-      <c r="V21" t="str">
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="11" t="str">
         <f t="shared" si="0"/>
         <v>2301015,0.5;2302012,0.3;2303190;0.15</v>
       </c>
-      <c r="AE21">
+      <c r="AE21" s="11">
         <v>2301019</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AF21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AG21" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="2:33">
-      <c r="B22" s="2">
+    <row r="22" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B22" s="10">
         <v>330106</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="10">
         <v>2301007</v>
       </c>
-      <c r="F22" s="1">
+      <c r="E22" s="10"/>
+      <c r="F22" s="10">
         <v>2301016</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H22" s="2">
+      <c r="G22" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H22" s="10">
         <v>0.5</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J22" s="2">
+      <c r="I22" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="J22" s="10">
         <v>2302007</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L22" s="2">
+      <c r="K22" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L22" s="10">
         <v>0.3</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="10" t="s">
         <v>229</v>
       </c>
       <c r="N22" s="10">
         <v>2303200</v>
       </c>
-      <c r="O22" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="P22" s="2">
+      <c r="O22" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="P22" s="10">
         <v>0.15</v>
       </c>
-      <c r="V22" t="str">
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="11" t="str">
         <f t="shared" si="0"/>
         <v>2301016,0.5;2302007,0.3;2303200;0.15</v>
       </c>
-      <c r="AE22">
+      <c r="AE22" s="11">
         <v>2301020</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AF22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AG22" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="2:33">
-      <c r="B23" s="2">
+    <row r="23" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B23" s="10">
         <v>330107</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="10">
         <v>2301008</v>
       </c>
-      <c r="F23" s="1">
+      <c r="E23" s="10"/>
+      <c r="F23" s="10">
         <v>2301017</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H23" s="2">
+      <c r="G23" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H23" s="10">
         <v>0.5</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>229</v>
-      </c>
+      <c r="I23" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
       <c r="N23" s="10">
         <v>2303210</v>
       </c>
-      <c r="O23" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="P23" s="2">
+      <c r="O23" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="P23" s="10">
         <v>0.15</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q23" s="10">
         <v>2303080</v>
       </c>
-      <c r="R23" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="S23" s="2">
+      <c r="R23" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="S23" s="10">
         <v>0.15</v>
       </c>
-      <c r="V23" t="str">
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="11" t="str">
         <f t="shared" si="0"/>
         <v>2301017,0.5;2303210;0.152303080;0.15</v>
       </c>
-      <c r="AE23">
+      <c r="AE23" s="11">
         <v>2302001</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AF23" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AG23" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="2:33">
-      <c r="B24" s="2">
+    <row r="24" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B24" s="10">
         <v>340101</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="10">
         <v>2301009</v>
       </c>
-      <c r="F24" s="1">
+      <c r="E24" s="10"/>
+      <c r="F24" s="10">
         <v>2301018</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H24" s="2">
+      <c r="G24" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H24" s="10">
         <v>0.5</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J24" s="2">
+      <c r="I24" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="J24" s="10">
         <v>2302005</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L24" s="2">
+      <c r="K24" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L24" s="10">
         <v>0.3</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="10" t="s">
         <v>229</v>
       </c>
       <c r="N24" s="10">
         <v>2303220</v>
       </c>
-      <c r="O24" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="P24" s="2">
+      <c r="O24" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="P24" s="10">
         <v>0.15</v>
       </c>
-      <c r="V24" t="str">
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="11" t="str">
         <f t="shared" si="0"/>
         <v>2301018,0.5;2302005,0.3;2303220;0.15</v>
       </c>
-      <c r="AE24">
+      <c r="AE24" s="11">
         <v>2302002</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AF24" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AG24" s="11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="2:33">
-      <c r="B25" s="2">
+    <row r="25" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B25" s="10">
         <v>340102</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="10">
         <v>2301010</v>
       </c>
-      <c r="F25" s="1">
+      <c r="E25" s="10"/>
+      <c r="F25" s="10">
         <v>2301019</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H25" s="2">
+      <c r="G25" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H25" s="10">
         <v>0.5</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>229</v>
-      </c>
+      <c r="I25" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
       <c r="N25" s="10">
         <v>2303230</v>
       </c>
-      <c r="O25" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="P25" s="2">
+      <c r="O25" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="P25" s="10">
         <v>0.15</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="Q25" s="10">
         <v>2303120</v>
       </c>
-      <c r="R25" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="S25" s="2">
+      <c r="R25" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="S25" s="10">
         <v>0.15</v>
       </c>
-      <c r="V25" t="str">
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="11" t="str">
         <f t="shared" si="0"/>
         <v>2301019,0.5;2303230;0.152303120;0.15</v>
       </c>
-      <c r="AE25">
+      <c r="AE25" s="11">
         <v>2302003</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AF25" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AG25" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="2:33">
-      <c r="B26" s="2">
+    <row r="26" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B26" s="10">
         <v>340103</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="10">
         <v>2301001</v>
       </c>
-      <c r="F26" s="1">
+      <c r="E26" s="10"/>
+      <c r="F26" s="10">
         <v>2301005</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H26" s="2">
+      <c r="G26" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H26" s="10">
         <v>0.5</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J26" s="2">
+      <c r="I26" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="J26" s="10">
         <v>2301020</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L26" s="2">
+      <c r="K26" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L26" s="10">
         <v>0.3</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="10" t="s">
         <v>229</v>
       </c>
       <c r="N26" s="10">
         <v>2303240</v>
       </c>
-      <c r="O26" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="P26" s="2">
+      <c r="O26" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="P26" s="10">
         <v>0.15</v>
       </c>
-      <c r="V26" t="str">
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="11" t="str">
         <f t="shared" si="0"/>
         <v>2301005,0.5;2301020,0.3;2303240;0.15</v>
       </c>
-      <c r="AE26">
+      <c r="AE26" s="11">
         <v>2302004</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AF26" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AG26" s="11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="2:33">
-      <c r="B27" s="2">
+    <row r="27" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B27" s="10">
         <v>340104</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="10">
         <v>2301004</v>
       </c>
-      <c r="F27" s="1">
+      <c r="E27" s="10"/>
+      <c r="F27" s="10">
         <v>2301001</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H27" s="2">
+      <c r="G27" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H27" s="10">
         <v>0.5</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J27" s="2">
+      <c r="I27" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="J27" s="10">
         <v>2302010</v>
       </c>
-      <c r="K27" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L27" s="2">
+      <c r="K27" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L27" s="10">
         <v>0.3</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="10" t="s">
         <v>229</v>
       </c>
       <c r="N27" s="10">
         <v>2303250</v>
       </c>
-      <c r="O27" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="P27" s="2">
+      <c r="O27" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="P27" s="10">
         <v>0.15</v>
       </c>
-      <c r="V27" t="str">
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="11" t="str">
         <f t="shared" si="0"/>
         <v>2301001,0.5;2302010,0.3;2303250;0.15</v>
       </c>
-      <c r="AE27">
+      <c r="AE27" s="11">
         <v>2302005</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AF27" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AG27" s="11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="2:33">
-      <c r="B28" s="2">
+    <row r="28" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B28" s="10">
         <v>340105</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="10">
         <v>2301011</v>
       </c>
-      <c r="F28" s="1">
+      <c r="E28" s="10"/>
+      <c r="F28" s="10">
         <v>2301020</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H28" s="2">
+      <c r="G28" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H28" s="10">
         <v>0.5</v>
       </c>
-      <c r="I28" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J28" s="2">
+      <c r="I28" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="J28" s="10">
         <v>2302008</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L28" s="2">
+      <c r="K28" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L28" s="10">
         <v>0.3</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="10" t="s">
         <v>229</v>
       </c>
       <c r="N28" s="10">
         <v>2303260</v>
       </c>
-      <c r="O28" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="P28" s="2">
+      <c r="O28" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="P28" s="10">
         <v>0.15</v>
       </c>
-      <c r="V28" t="str">
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="11" t="str">
         <f t="shared" si="0"/>
         <v>2301020,0.5;2302008,0.3;2303260;0.15</v>
       </c>
-      <c r="AE28">
+      <c r="AE28" s="11">
         <v>2302006</v>
       </c>
-      <c r="AF28" t="s">
+      <c r="AF28" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AG28" t="s">
+      <c r="AG28" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="2:33">
-      <c r="B29" s="2">
+    <row r="29" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B29" s="10">
         <v>340106</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="10">
         <v>2301003</v>
       </c>
-      <c r="F29" s="1">
+      <c r="E29" s="10"/>
+      <c r="F29" s="10">
         <v>2301002</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H29" s="2">
+      <c r="G29" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H29" s="10">
         <v>0.5</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J29" s="2">
+      <c r="I29" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="J29" s="10">
         <v>2301011</v>
       </c>
-      <c r="K29" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L29" s="2">
+      <c r="K29" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L29" s="10">
         <v>0.3</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="10" t="s">
         <v>229</v>
       </c>
       <c r="N29" s="10">
         <v>2303270</v>
       </c>
-      <c r="O29" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="P29" s="2">
+      <c r="O29" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="P29" s="10">
         <v>0.15</v>
       </c>
-      <c r="V29" t="str">
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="11" t="str">
         <f t="shared" si="0"/>
         <v>2301002,0.5;2301011,0.3;2303270;0.15</v>
       </c>
-      <c r="AE29">
+      <c r="AE29" s="11">
         <v>2302007</v>
       </c>
-      <c r="AF29" t="s">
+      <c r="AF29" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AG29" t="s">
+      <c r="AG29" s="11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="2:33">
-      <c r="B30" s="2">
+    <row r="30" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B30" s="10">
         <v>340107</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="10">
         <v>2301010</v>
       </c>
-      <c r="F30" s="1">
+      <c r="E30" s="10"/>
+      <c r="F30" s="10">
         <v>2301004</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H30" s="2">
+      <c r="G30" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H30" s="10">
         <v>0.5</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J30" s="2">
+      <c r="I30" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="J30" s="10">
         <v>2302007</v>
       </c>
-      <c r="K30" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L30" s="2">
+      <c r="K30" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L30" s="10">
         <v>0.3</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="10" t="s">
         <v>229</v>
       </c>
       <c r="N30" s="10">
         <v>2303280</v>
       </c>
-      <c r="O30" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="P30" s="2">
+      <c r="O30" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="P30" s="10">
         <v>0.15</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="Q30" s="10">
         <v>2303070</v>
       </c>
-      <c r="R30" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="S30" s="2">
+      <c r="R30" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="S30" s="10">
         <v>0.15</v>
       </c>
-      <c r="V30" t="str">
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="11" t="str">
         <f t="shared" si="0"/>
         <v>2301004,0.5;2302007,0.3;2303280;0.152303070;0.15</v>
       </c>
-      <c r="AE30">
+      <c r="AE30" s="11">
         <v>2302008</v>
       </c>
-      <c r="AF30" t="s">
+      <c r="AF30" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AG30" t="s">
+      <c r="AG30" s="11" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="2:33">
-      <c r="B31" s="2">
+    <row r="31" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B31" s="10">
         <v>350101</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="10">
         <v>2301013</v>
       </c>
-      <c r="F31" s="1">
+      <c r="E31" s="10"/>
+      <c r="F31" s="10">
         <v>2301005</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H31" s="2">
+      <c r="G31" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H31" s="10">
         <v>0.5</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J31" s="2">
+      <c r="I31" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="J31" s="10">
         <v>2302003</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L31" s="2">
+      <c r="K31" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L31" s="10">
         <v>0.3</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="10" t="s">
         <v>229</v>
       </c>
       <c r="N31" s="10">
         <v>2303290</v>
       </c>
-      <c r="O31" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="P31" s="2">
+      <c r="O31" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="P31" s="10">
         <v>0.15</v>
       </c>
-      <c r="V31" t="str">
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="11" t="str">
         <f t="shared" si="0"/>
         <v>2301005,0.5;2302003,0.3;2303290;0.15</v>
       </c>
-      <c r="AE31">
+      <c r="AE31" s="11">
         <v>2302009</v>
       </c>
-      <c r="AF31" t="s">
+      <c r="AF31" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AG31" t="s">
+      <c r="AG31" s="11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="2:33">
-      <c r="B32" s="2">
+    <row r="32" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B32" s="10">
         <v>350102</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="10">
         <v>2301014</v>
       </c>
-      <c r="F32" s="1">
+      <c r="E32" s="10"/>
+      <c r="F32" s="10">
         <v>2301010</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H32" s="2">
+      <c r="G32" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H32" s="10">
         <v>0.5</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J32" s="2">
+      <c r="I32" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="J32" s="10">
         <v>2302006</v>
       </c>
-      <c r="K32" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L32" s="2">
+      <c r="K32" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L32" s="10">
         <v>0.3</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="10" t="s">
         <v>229</v>
       </c>
       <c r="N32" s="10">
         <v>2303300</v>
       </c>
-      <c r="O32" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="P32" s="2">
+      <c r="O32" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="P32" s="10">
         <v>0.15</v>
       </c>
-      <c r="Q32" s="2">
+      <c r="Q32" s="10">
         <v>2303020</v>
       </c>
-      <c r="R32" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="S32" s="2">
+      <c r="R32" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="S32" s="10">
         <v>0.15</v>
       </c>
-      <c r="V32" t="str">
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="11" t="str">
         <f t="shared" si="0"/>
         <v>2301010,0.5;2302006,0.3;2303300;0.152303020;0.15</v>
       </c>
-      <c r="AE32">
+      <c r="AE32" s="11">
         <v>2302010</v>
       </c>
-      <c r="AF32" t="s">
+      <c r="AF32" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AG32" t="s">
+      <c r="AG32" s="11" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="2:33">
-      <c r="B33" s="2">
+    <row r="33" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B33" s="10">
         <v>350103</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="10">
         <v>2301013</v>
       </c>
-      <c r="F33" s="1">
+      <c r="E33" s="10"/>
+      <c r="F33" s="10">
         <v>2301007</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H33" s="2">
+      <c r="G33" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H33" s="10">
         <v>0.5</v>
       </c>
-      <c r="I33" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J33" s="2">
+      <c r="I33" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="J33" s="10">
         <v>2302004</v>
       </c>
-      <c r="K33" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L33" s="2">
+      <c r="K33" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L33" s="10">
         <v>0.3</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="10" t="s">
         <v>229</v>
       </c>
       <c r="N33" s="10">
         <v>2303310</v>
       </c>
-      <c r="O33" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="P33" s="2">
+      <c r="O33" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="P33" s="10">
         <v>0.15</v>
       </c>
-      <c r="V33" t="str">
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="11" t="str">
         <f t="shared" si="0"/>
         <v>2301007,0.5;2302004,0.3;2303310;0.15</v>
       </c>
-      <c r="AE33">
+      <c r="AE33" s="11">
         <v>2302011</v>
       </c>
-      <c r="AF33" t="s">
+      <c r="AF33" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AG33" t="s">
+      <c r="AG33" s="11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="2:33">
-      <c r="B34" s="2">
+    <row r="34" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B34" s="10">
         <v>350104</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="10">
         <v>2301008</v>
       </c>
-      <c r="F34" s="1">
+      <c r="E34" s="10"/>
+      <c r="F34" s="10">
         <v>2301010</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H34" s="2">
+      <c r="G34" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H34" s="10">
         <v>0.5</v>
       </c>
-      <c r="I34" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J34" s="2">
+      <c r="I34" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="J34" s="10">
         <v>2302005</v>
       </c>
-      <c r="K34" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L34" s="2">
+      <c r="K34" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L34" s="10">
         <v>0.3</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="10" t="s">
         <v>229</v>
       </c>
       <c r="N34" s="10">
         <v>2303320</v>
       </c>
-      <c r="O34" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="P34" s="2">
+      <c r="O34" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="P34" s="10">
         <v>0.15</v>
       </c>
-      <c r="V34" t="str">
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="11" t="str">
         <f t="shared" si="0"/>
         <v>2301010,0.5;2302005,0.3;2303320;0.15</v>
       </c>
-      <c r="AE34">
+      <c r="AE34" s="11">
         <v>2302012</v>
       </c>
-      <c r="AF34" t="s">
+      <c r="AF34" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AG34" t="s">
+      <c r="AG34" s="11" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="2:33">
-      <c r="B35" s="2">
+    <row r="35" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B35" s="10">
         <v>350105</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="10">
         <v>2301010</v>
       </c>
-      <c r="F35" s="1">
+      <c r="E35" s="10"/>
+      <c r="F35" s="10">
         <v>2301009</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H35" s="2">
+      <c r="G35" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H35" s="10">
         <v>0.5</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J35" s="2">
+      <c r="I35" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="J35" s="10">
         <v>2302001</v>
       </c>
-      <c r="K35" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L35" s="2">
+      <c r="K35" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L35" s="10">
         <v>0.3</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="10" t="s">
         <v>229</v>
       </c>
       <c r="N35" s="10">
         <v>2303330</v>
       </c>
-      <c r="O35" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="P35" s="2">
+      <c r="O35" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="P35" s="10">
         <v>0.15</v>
       </c>
-      <c r="V35" t="str">
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="11" t="str">
         <f t="shared" si="0"/>
         <v>2301009,0.5;2302001,0.3;2303330;0.15</v>
       </c>
-      <c r="AE35">
+      <c r="AE35" s="11">
         <v>2302013</v>
       </c>
-      <c r="AF35" t="s">
+      <c r="AF35" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG35" t="s">
+      <c r="AG35" s="11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="2:33">
-      <c r="B36" s="2">
+    <row r="36" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B36" s="10">
         <v>350106</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="10">
         <v>2301011</v>
       </c>
-      <c r="F36" s="1">
+      <c r="E36" s="10"/>
+      <c r="F36" s="10">
         <v>2301010</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H36" s="2">
+      <c r="G36" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H36" s="10">
         <v>0.5</v>
       </c>
-      <c r="I36" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J36" s="2">
+      <c r="I36" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="J36" s="10">
         <v>2302002</v>
       </c>
-      <c r="K36" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="L36" s="2">
+      <c r="K36" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L36" s="10">
         <v>0.3</v>
       </c>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="10" t="s">
         <v>229</v>
       </c>
       <c r="N36" s="10">
         <v>2303340</v>
       </c>
-      <c r="O36" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="P36" s="2">
+      <c r="O36" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="P36" s="10">
         <v>0.15</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="Q36" s="10">
         <v>2303240</v>
       </c>
-      <c r="R36" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="S36" s="2">
+      <c r="R36" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="S36" s="10">
         <v>0.15</v>
       </c>
-      <c r="V36" t="str">
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="11" t="str">
         <f t="shared" si="0"/>
         <v>2301010,0.5;2302002,0.3;2303340;0.152303240;0.15</v>
       </c>
-      <c r="AE36">
+      <c r="AE36" s="11">
         <v>2302014</v>
       </c>
-      <c r="AF36" t="s">
+      <c r="AF36" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AG36" t="s">
+      <c r="AG36" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="2:33">
-      <c r="AE37">
+    <row r="37" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="AE37" s="11">
         <v>2302015</v>
       </c>
-      <c r="AF37" t="s">
+      <c r="AF37" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AG37" t="s">
+      <c r="AG37" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="2:33">
-      <c r="AE38">
+    <row r="38" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B38" s="10"/>
+      <c r="C38" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="D38" s="10">
+        <v>2301002</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10">
+        <v>2301014</v>
+      </c>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10">
+        <v>2302001</v>
+      </c>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10">
+        <v>2302019</v>
+      </c>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10">
+        <v>2304020</v>
+      </c>
+      <c r="R38" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="AE38" s="11">
         <v>2302016</v>
       </c>
-      <c r="AF38" t="s">
+      <c r="AF38" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AG38" t="s">
+      <c r="AG38" s="11" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="2:33">
-      <c r="AE39">
+    <row r="39" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B39" s="10"/>
+      <c r="C39" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="D39" s="10">
+        <v>2301008</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10">
+        <v>2301015</v>
+      </c>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10">
+        <v>2302002</v>
+      </c>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10">
+        <v>2303170</v>
+      </c>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10">
+        <v>2304060</v>
+      </c>
+      <c r="R39" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="AE39" s="11">
         <v>2302017</v>
       </c>
-      <c r="AF39" t="s">
+      <c r="AF39" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AG39" t="s">
+      <c r="AG39" s="11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="2:33">
-      <c r="AE40">
+    <row r="40" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B40" s="10"/>
+      <c r="C40" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="D40" s="10">
+        <v>2301006</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10">
+        <v>2301016</v>
+      </c>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10">
+        <v>2302003</v>
+      </c>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10">
+        <v>2303270</v>
+      </c>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10">
+        <v>2304070</v>
+      </c>
+      <c r="R40" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="AE40" s="11">
         <v>2302018</v>
       </c>
-      <c r="AF40" t="s">
+      <c r="AF40" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AG40" t="s">
+      <c r="AG40" s="11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="2:33">
-      <c r="AE41">
+    <row r="41" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B41" s="10"/>
+      <c r="C41" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="D41" s="10">
+        <v>2301006</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10">
+        <v>2301017</v>
+      </c>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10">
+        <v>2302005</v>
+      </c>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10">
+        <v>2302020</v>
+      </c>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10">
+        <v>2304010</v>
+      </c>
+      <c r="R41" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="AE41" s="11">
         <v>2302019</v>
       </c>
-      <c r="AF41" t="s">
+      <c r="AF41" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AG41" t="s">
+      <c r="AG41" s="11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="2:33">
-      <c r="AE42">
+    <row r="42" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B42" s="10"/>
+      <c r="C42" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="D42" s="10">
+        <v>2301010</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10">
+        <v>2301018</v>
+      </c>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10">
+        <v>2302014</v>
+      </c>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10">
+        <v>2302018</v>
+      </c>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10">
+        <v>2304040</v>
+      </c>
+      <c r="R42" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="AE42" s="11">
         <v>2302020</v>
       </c>
-      <c r="AF42" t="s">
+      <c r="AF42" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AG42" t="s">
+      <c r="AG42" s="11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="14:17">
+    <row r="43" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B43" s="10"/>
+      <c r="C43" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="D43" s="10">
+        <v>2301011</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10">
+        <v>2301019</v>
+      </c>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10">
+        <v>2302007</v>
+      </c>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10">
+        <v>2303210</v>
+      </c>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10">
+        <v>2304030</v>
+      </c>
+      <c r="R43" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+    </row>
+    <row r="44" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B44" s="10"/>
+      <c r="C44" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="D44" s="10">
+        <v>2301002</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10">
+        <v>2301020</v>
+      </c>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10">
+        <v>2302006</v>
+      </c>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10">
+        <v>2302003</v>
+      </c>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10">
+        <v>2304080</v>
+      </c>
+      <c r="R44" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+    </row>
+    <row r="45" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B45" s="10"/>
+      <c r="C45" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="D45" s="10">
+        <v>2301012</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10">
+        <v>2301005</v>
+      </c>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10">
+        <v>2302018</v>
+      </c>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10">
+        <v>2302006</v>
+      </c>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10">
+        <v>2304050</v>
+      </c>
+      <c r="R45" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+    </row>
+    <row r="46" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+    </row>
+    <row r="47" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+    </row>
+    <row r="48" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+    </row>
+    <row r="49" spans="2:21" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+    </row>
+    <row r="50" spans="2:21" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+    </row>
+    <row r="51" spans="2:21">
       <c r="N51" s="2">
         <v>2301010</v>
       </c>
@@ -5299,7 +5989,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="52" spans="14:17">
+    <row r="52" spans="2:21">
       <c r="N52" s="2">
         <v>2301019</v>
       </c>
@@ -5313,7 +6003,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="53" spans="14:17">
+    <row r="53" spans="2:21">
       <c r="N53" s="2">
         <v>2301019</v>
       </c>
@@ -5327,7 +6017,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="54" spans="14:17">
+    <row r="54" spans="2:21">
       <c r="N54" s="2">
         <v>2301008</v>
       </c>
@@ -5341,7 +6031,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="55" spans="14:17">
+    <row r="55" spans="2:21">
       <c r="N55" s="2">
         <v>2301020</v>
       </c>
@@ -5355,7 +6045,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="56" spans="14:17">
+    <row r="56" spans="2:21">
       <c r="N56" s="2">
         <v>2301016</v>
       </c>
@@ -5369,7 +6059,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="57" spans="14:17">
+    <row r="57" spans="2:21">
       <c r="N57" s="2">
         <v>2301020</v>
       </c>
@@ -5383,7 +6073,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="58" spans="14:17">
+    <row r="58" spans="2:21">
       <c r="N58" s="2">
         <v>2301017</v>
       </c>
@@ -5397,7 +6087,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="59" spans="14:17">
+    <row r="59" spans="2:21">
       <c r="N59" s="2">
         <v>2301007</v>
       </c>
@@ -5411,7 +6101,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="60" spans="14:17">
+    <row r="60" spans="2:21">
       <c r="N60" s="2">
         <v>2301016</v>
       </c>
@@ -5425,7 +6115,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="61" spans="14:17">
+    <row r="61" spans="2:21">
       <c r="N61" s="2">
         <v>2301020</v>
       </c>
@@ -5439,7 +6129,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="62" spans="14:17">
+    <row r="62" spans="2:21">
       <c r="N62" s="2">
         <v>2301013</v>
       </c>
@@ -5453,7 +6143,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="63" spans="14:17">
+    <row r="63" spans="2:21">
       <c r="N63" s="2">
         <v>2301014</v>
       </c>
@@ -5467,7 +6157,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="64" spans="14:17">
+    <row r="64" spans="2:21">
       <c r="N64" s="2">
         <v>2301005</v>
       </c>

--- a/GameDesign/宠物设计.xlsx
+++ b/GameDesign/宠物设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6461D85D-FD3A-4C21-B052-4FADF4DC88A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9136BF6F-BF5C-457C-A703-AA261129C678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="531">
   <si>
     <t>勇猛</t>
   </si>
@@ -3333,19 +3333,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64ED461B-9A4E-44B2-982C-34BEFDC32D79}">
-  <dimension ref="B1:AG84"/>
+  <dimension ref="B1:AH84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="21" width="9" style="2"/>
-    <col min="33" max="33" width="52.875" customWidth="1"/>
+    <col min="2" max="22" width="9" style="2"/>
+    <col min="34" max="34" width="52.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -3366,8 +3366,9 @@
       <c r="S1" s="10"/>
       <c r="T1" s="10"/>
       <c r="U1" s="10"/>
-    </row>
-    <row r="2" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="V1" s="10"/>
+    </row>
+    <row r="2" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10" t="s">
@@ -3392,8 +3393,9 @@
       <c r="S2" s="10"/>
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
-    </row>
-    <row r="3" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="V2" s="10"/>
+    </row>
+    <row r="3" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="10">
         <v>310101</v>
       </c>
@@ -3432,7 +3434,7 @@
         <v>2303010</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P3" s="10">
         <v>0.15</v>
@@ -3442,21 +3444,22 @@
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
-      <c r="V3" s="11" t="str">
-        <f>F3&amp;G3&amp;H3&amp;I3&amp;J3&amp;K3&amp;L3&amp;M3&amp;N3&amp;O3&amp;P3&amp;Q3&amp;R3&amp;S3&amp;T3</f>
-        <v>2301011,0.5;2301005,0.15;2303010;0.15</v>
-      </c>
-      <c r="AE3" s="11">
+      <c r="V3" s="10"/>
+      <c r="W3" s="11" t="str">
+        <f>F3&amp;G3&amp;H3&amp;I3&amp;J3&amp;K3&amp;L3&amp;M3&amp;N3&amp;O3&amp;P3&amp;Q3&amp;R3&amp;S3&amp;T3&amp;U3</f>
+        <v>2301011,0.5;2301005,0.15;2303010,0.15</v>
+      </c>
+      <c r="AF3" s="11">
         <v>2301001</v>
       </c>
-      <c r="AF3" s="11" t="s">
+      <c r="AG3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="AG3" s="11" t="s">
+      <c r="AH3" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="10">
         <v>310102</v>
       </c>
@@ -3487,7 +3490,7 @@
         <v>2303020</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P4" s="10">
         <v>0.15</v>
@@ -3497,21 +3500,22 @@
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
-      <c r="V4" s="11" t="str">
-        <f t="shared" ref="V4:V36" si="0">F4&amp;G4&amp;H4&amp;I4&amp;J4&amp;K4&amp;L4&amp;M4&amp;N4&amp;O4&amp;P4&amp;Q4&amp;R4&amp;S4&amp;T4</f>
-        <v>2301002,0.3;2303020;0.15</v>
-      </c>
-      <c r="AE4" s="11">
+      <c r="V4" s="10"/>
+      <c r="W4" s="11" t="str">
+        <f t="shared" ref="W4:W45" si="0">F4&amp;G4&amp;H4&amp;I4&amp;J4&amp;K4&amp;L4&amp;M4&amp;N4&amp;O4&amp;P4&amp;R4&amp;S4&amp;T4&amp;U4</f>
+        <v>2301002,0.3;2303020,0.15</v>
+      </c>
+      <c r="AF4" s="11">
         <v>2301002</v>
       </c>
-      <c r="AF4" s="11" t="s">
+      <c r="AG4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AG4" s="11" t="s">
+      <c r="AH4" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="10">
         <v>310103</v>
       </c>
@@ -3542,7 +3546,7 @@
         <v>2303030</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P5" s="10">
         <v>0.15</v>
@@ -3552,21 +3556,22 @@
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
-      <c r="V5" s="11" t="str">
+      <c r="V5" s="10"/>
+      <c r="W5" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2301007,0.3;2303030;0.15</v>
-      </c>
-      <c r="AE5" s="11">
+        <v>2301007,0.3;2303030,0.15</v>
+      </c>
+      <c r="AF5" s="11">
         <v>2301003</v>
       </c>
-      <c r="AF5" s="11" t="s">
+      <c r="AG5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AG5" s="11" t="s">
+      <c r="AH5" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="10">
         <v>310104</v>
       </c>
@@ -3605,7 +3610,7 @@
         <v>2303040</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P6" s="10">
         <v>0.15</v>
@@ -3615,21 +3620,22 @@
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
-      <c r="V6" s="11" t="str">
+      <c r="V6" s="10"/>
+      <c r="W6" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2301013,0.5;2301007,0.15;2303040;0.15</v>
-      </c>
-      <c r="AE6" s="11">
+        <v>2301013,0.5;2301007,0.15;2303040,0.15</v>
+      </c>
+      <c r="AF6" s="11">
         <v>2301004</v>
       </c>
-      <c r="AF6" s="11" t="s">
+      <c r="AG6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="AG6" s="11" t="s">
+      <c r="AH6" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="10">
         <v>310105</v>
       </c>
@@ -3660,7 +3666,7 @@
         <v>2303050</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P7" s="10">
         <v>0.15</v>
@@ -3670,21 +3676,22 @@
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
-      <c r="V7" s="11" t="str">
+      <c r="V7" s="10"/>
+      <c r="W7" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2301012,0.3;2303050;0.15</v>
-      </c>
-      <c r="AE7" s="11">
+        <v>2301012,0.3;2303050,0.15</v>
+      </c>
+      <c r="AF7" s="11">
         <v>2301005</v>
       </c>
-      <c r="AF7" s="11" t="s">
+      <c r="AG7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="AG7" s="11" t="s">
+      <c r="AH7" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="10">
         <v>310106</v>
       </c>
@@ -3715,7 +3722,7 @@
         <v>2303060</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P8" s="10">
         <v>0.15</v>
@@ -3725,21 +3732,22 @@
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
-      <c r="V8" s="11" t="str">
+      <c r="V8" s="10"/>
+      <c r="W8" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2301004,0.3;2303060;0.15</v>
-      </c>
-      <c r="AE8" s="11">
+        <v>2301004,0.3;2303060,0.15</v>
+      </c>
+      <c r="AF8" s="11">
         <v>2301006</v>
       </c>
-      <c r="AF8" s="11" t="s">
+      <c r="AG8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AG8" s="11" t="s">
+      <c r="AH8" s="11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="10">
         <v>310107</v>
       </c>
@@ -3778,7 +3786,7 @@
         <v>2303070</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P9" s="10">
         <v>0.15</v>
@@ -3788,21 +3796,22 @@
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
-      <c r="V9" s="11" t="str">
+      <c r="V9" s="10"/>
+      <c r="W9" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2301016,0.5;2301019,0.15;2303070;0.15</v>
-      </c>
-      <c r="AE9" s="11">
+        <v>2301016,0.5;2301019,0.15;2303070,0.15</v>
+      </c>
+      <c r="AF9" s="11">
         <v>2301007</v>
       </c>
-      <c r="AF9" s="11" t="s">
+      <c r="AG9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="AG9" s="11" t="s">
+      <c r="AH9" s="11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="10">
         <v>320101</v>
       </c>
@@ -3833,7 +3842,7 @@
         <v>2303080</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P10" s="10">
         <v>0.15</v>
@@ -3843,21 +3852,22 @@
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
-      <c r="V10" s="11" t="str">
+      <c r="V10" s="10"/>
+      <c r="W10" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2301016,0.3;2303080;0.15</v>
-      </c>
-      <c r="AE10" s="11">
+        <v>2301016,0.3;2303080,0.15</v>
+      </c>
+      <c r="AF10" s="11">
         <v>2301008</v>
       </c>
-      <c r="AF10" s="11" t="s">
+      <c r="AG10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AG10" s="11" t="s">
+      <c r="AH10" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="10">
         <v>320102</v>
       </c>
@@ -3896,7 +3906,7 @@
         <v>2303090</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P11" s="10">
         <v>0.15</v>
@@ -3906,21 +3916,22 @@
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
-      <c r="V11" s="11" t="str">
+      <c r="V11" s="10"/>
+      <c r="W11" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2301013,0.5;2301018,0.15;2303090;0.15</v>
-      </c>
-      <c r="AE11" s="11">
+        <v>2301013,0.5;2301018,0.15;2303090,0.15</v>
+      </c>
+      <c r="AF11" s="11">
         <v>2301009</v>
       </c>
-      <c r="AF11" s="11" t="s">
+      <c r="AG11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="AG11" s="11" t="s">
+      <c r="AH11" s="11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="10">
         <v>320103</v>
       </c>
@@ -3959,7 +3970,7 @@
         <v>2303100</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P12" s="10">
         <v>0.15</v>
@@ -3969,21 +3980,22 @@
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
-      <c r="V12" s="11" t="str">
+      <c r="V12" s="10"/>
+      <c r="W12" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2301014,0.5;2301010,0.15;2303100;0.15</v>
-      </c>
-      <c r="AE12" s="11">
+        <v>2301014,0.5;2301010,0.15;2303100,0.15</v>
+      </c>
+      <c r="AF12" s="11">
         <v>2301010</v>
       </c>
-      <c r="AF12" s="11" t="s">
+      <c r="AG12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AG12" s="11" t="s">
+      <c r="AH12" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="10">
         <v>320104</v>
       </c>
@@ -4014,37 +4026,40 @@
         <v>2303110</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P13" s="10">
         <v>0.15</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="Q13" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="R13" s="10">
         <v>2303040</v>
       </c>
-      <c r="R13" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="S13" s="10">
+      <c r="S13" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="T13" s="10">
         <v>0.15</v>
       </c>
-      <c r="T13" s="10"/>
       <c r="U13" s="10"/>
-      <c r="V13" s="11" t="str">
+      <c r="V13" s="10"/>
+      <c r="W13" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2301002,0.3;2303110;0.152303040;0.15</v>
-      </c>
-      <c r="AE13" s="11">
+        <v>2301002,0.3;2303110,0.152303040,0.15</v>
+      </c>
+      <c r="AF13" s="11">
         <v>2301011</v>
       </c>
-      <c r="AF13" s="11" t="s">
+      <c r="AG13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="AG13" s="11" t="s">
+      <c r="AH13" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="10">
         <v>320105</v>
       </c>
@@ -4083,7 +4098,7 @@
         <v>2303120</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P14" s="10">
         <v>0.15</v>
@@ -4093,21 +4108,22 @@
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
-      <c r="V14" s="11" t="str">
+      <c r="V14" s="10"/>
+      <c r="W14" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2301005,0.5;2301001,0.3;2303120;0.15</v>
-      </c>
-      <c r="AE14" s="11">
+        <v>2301005,0.5;2301001,0.3;2303120,0.15</v>
+      </c>
+      <c r="AF14" s="11">
         <v>2301012</v>
       </c>
-      <c r="AF14" s="11" t="s">
+      <c r="AG14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AG14" s="11" t="s">
+      <c r="AH14" s="11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="10">
         <v>320106</v>
       </c>
@@ -4146,7 +4162,7 @@
         <v>2303130</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P15" s="10">
         <v>0.15</v>
@@ -4156,21 +4172,22 @@
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
-      <c r="V15" s="11" t="str">
+      <c r="V15" s="10"/>
+      <c r="W15" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2301011,0.5;2301009,0.3;2303130;0.15</v>
-      </c>
-      <c r="AE15" s="11">
+        <v>2301011,0.5;2301009,0.3;2303130,0.15</v>
+      </c>
+      <c r="AF15" s="11">
         <v>2301013</v>
       </c>
-      <c r="AF15" s="11" t="s">
+      <c r="AG15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AG15" s="11" t="s">
+      <c r="AH15" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="10">
         <v>320107</v>
       </c>
@@ -4201,37 +4218,40 @@
         <v>2303140</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P16" s="10">
         <v>0.15</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="Q16" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="R16" s="10">
         <v>2303090</v>
       </c>
-      <c r="R16" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="S16" s="10">
+      <c r="S16" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="T16" s="10">
         <v>0.15</v>
       </c>
-      <c r="T16" s="10"/>
       <c r="U16" s="10"/>
-      <c r="V16" s="11" t="str">
+      <c r="V16" s="10"/>
+      <c r="W16" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2301010,0.5;2303140;0.152303090;0.15</v>
-      </c>
-      <c r="AE16" s="11">
+        <v>2301010,0.5;2303140,0.152303090,0.15</v>
+      </c>
+      <c r="AF16" s="11">
         <v>2301014</v>
       </c>
-      <c r="AF16" s="11" t="s">
+      <c r="AG16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AG16" s="11" t="s">
+      <c r="AH16" s="11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="10">
         <v>330101</v>
       </c>
@@ -4270,7 +4290,7 @@
         <v>2303150</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P17" s="10">
         <v>0.15</v>
@@ -4280,21 +4300,22 @@
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
-      <c r="V17" s="11" t="str">
+      <c r="V17" s="10"/>
+      <c r="W17" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2301011,0.5;2301013,0.3;2303150;0.15</v>
-      </c>
-      <c r="AE17" s="11">
+        <v>2301011,0.5;2301013,0.3;2303150,0.15</v>
+      </c>
+      <c r="AF17" s="11">
         <v>2301015</v>
       </c>
-      <c r="AF17" s="11" t="s">
+      <c r="AG17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AG17" s="11" t="s">
+      <c r="AH17" s="11" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="10">
         <v>330102</v>
       </c>
@@ -4333,7 +4354,7 @@
         <v>2303160</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P18" s="10">
         <v>0.15</v>
@@ -4343,21 +4364,22 @@
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
-      <c r="V18" s="11" t="str">
+      <c r="V18" s="10"/>
+      <c r="W18" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2301012,0.5;2302016,0.3;2303160;0.15</v>
-      </c>
-      <c r="AE18" s="11">
+        <v>2301012,0.5;2302016,0.3;2303160,0.15</v>
+      </c>
+      <c r="AF18" s="11">
         <v>2301016</v>
       </c>
-      <c r="AF18" s="11" t="s">
+      <c r="AG18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AG18" s="11" t="s">
+      <c r="AH18" s="11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="10">
         <v>330103</v>
       </c>
@@ -4388,37 +4410,40 @@
         <v>2303170</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P19" s="10">
         <v>0.15</v>
       </c>
-      <c r="Q19" s="10">
+      <c r="Q19" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="R19" s="10">
         <v>2303090</v>
       </c>
-      <c r="R19" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="S19" s="10">
+      <c r="S19" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="T19" s="10">
         <v>0.15</v>
       </c>
-      <c r="T19" s="10"/>
       <c r="U19" s="10"/>
-      <c r="V19" s="11" t="str">
+      <c r="V19" s="10"/>
+      <c r="W19" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2301013,0.5;2303170;0.152303090;0.15</v>
-      </c>
-      <c r="AE19" s="11">
+        <v>2301013,0.5;2303170,0.152303090,0.15</v>
+      </c>
+      <c r="AF19" s="11">
         <v>2301017</v>
       </c>
-      <c r="AF19" s="11" t="s">
+      <c r="AG19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AG19" s="11" t="s">
+      <c r="AH19" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="10">
         <v>330104</v>
       </c>
@@ -4457,7 +4482,7 @@
         <v>2303180</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P20" s="10">
         <v>0.15</v>
@@ -4467,21 +4492,22 @@
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
-      <c r="V20" s="11" t="str">
+      <c r="V20" s="10"/>
+      <c r="W20" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2301008,0.5;2302013,0.3;2303180;0.15</v>
-      </c>
-      <c r="AE20" s="11">
+        <v>2301008,0.5;2302013,0.3;2303180,0.15</v>
+      </c>
+      <c r="AF20" s="11">
         <v>2301018</v>
       </c>
-      <c r="AF20" s="11" t="s">
+      <c r="AG20" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AG20" s="11" t="s">
+      <c r="AH20" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="10">
         <v>330105</v>
       </c>
@@ -4520,7 +4546,7 @@
         <v>2303190</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P21" s="10">
         <v>0.15</v>
@@ -4530,21 +4556,22 @@
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
-      <c r="V21" s="11" t="str">
+      <c r="V21" s="10"/>
+      <c r="W21" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2301015,0.5;2302012,0.3;2303190;0.15</v>
-      </c>
-      <c r="AE21" s="11">
+        <v>2301015,0.5;2302012,0.3;2303190,0.15</v>
+      </c>
+      <c r="AF21" s="11">
         <v>2301019</v>
       </c>
-      <c r="AF21" s="11" t="s">
+      <c r="AG21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AG21" s="11" t="s">
+      <c r="AH21" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="10">
         <v>330106</v>
       </c>
@@ -4583,7 +4610,7 @@
         <v>2303200</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P22" s="10">
         <v>0.15</v>
@@ -4593,21 +4620,22 @@
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
-      <c r="V22" s="11" t="str">
+      <c r="V22" s="10"/>
+      <c r="W22" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2301016,0.5;2302007,0.3;2303200;0.15</v>
-      </c>
-      <c r="AE22" s="11">
+        <v>2301016,0.5;2302007,0.3;2303200,0.15</v>
+      </c>
+      <c r="AF22" s="11">
         <v>2301020</v>
       </c>
-      <c r="AF22" s="11" t="s">
+      <c r="AG22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="AG22" s="11" t="s">
+      <c r="AH22" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="10">
         <v>330107</v>
       </c>
@@ -4638,37 +4666,40 @@
         <v>2303210</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P23" s="10">
         <v>0.15</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="Q23" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="R23" s="10">
         <v>2303080</v>
       </c>
-      <c r="R23" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="S23" s="10">
+      <c r="S23" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="T23" s="10">
         <v>0.15</v>
       </c>
-      <c r="T23" s="10"/>
       <c r="U23" s="10"/>
-      <c r="V23" s="11" t="str">
+      <c r="V23" s="10"/>
+      <c r="W23" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2301017,0.5;2303210;0.152303080;0.15</v>
-      </c>
-      <c r="AE23" s="11">
+        <v>2301017,0.5;2303210,0.152303080,0.15</v>
+      </c>
+      <c r="AF23" s="11">
         <v>2302001</v>
       </c>
-      <c r="AF23" s="11" t="s">
+      <c r="AG23" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AG23" s="11" t="s">
+      <c r="AH23" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="10">
         <v>340101</v>
       </c>
@@ -4707,7 +4738,7 @@
         <v>2303220</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P24" s="10">
         <v>0.15</v>
@@ -4717,21 +4748,22 @@
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>
       <c r="U24" s="10"/>
-      <c r="V24" s="11" t="str">
+      <c r="V24" s="10"/>
+      <c r="W24" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2301018,0.5;2302005,0.3;2303220;0.15</v>
-      </c>
-      <c r="AE24" s="11">
+        <v>2301018,0.5;2302005,0.3;2303220,0.15</v>
+      </c>
+      <c r="AF24" s="11">
         <v>2302002</v>
       </c>
-      <c r="AF24" s="11" t="s">
+      <c r="AG24" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AG24" s="11" t="s">
+      <c r="AH24" s="11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="10">
         <v>340102</v>
       </c>
@@ -4762,37 +4794,40 @@
         <v>2303230</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P25" s="10">
         <v>0.15</v>
       </c>
-      <c r="Q25" s="10">
+      <c r="Q25" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="R25" s="10">
         <v>2303120</v>
       </c>
-      <c r="R25" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="S25" s="10">
+      <c r="S25" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="T25" s="10">
         <v>0.15</v>
       </c>
-      <c r="T25" s="10"/>
       <c r="U25" s="10"/>
-      <c r="V25" s="11" t="str">
+      <c r="V25" s="10"/>
+      <c r="W25" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2301019,0.5;2303230;0.152303120;0.15</v>
-      </c>
-      <c r="AE25" s="11">
+        <v>2301019,0.5;2303230,0.152303120,0.15</v>
+      </c>
+      <c r="AF25" s="11">
         <v>2302003</v>
       </c>
-      <c r="AF25" s="11" t="s">
+      <c r="AG25" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AG25" s="11" t="s">
+      <c r="AH25" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="10">
         <v>340103</v>
       </c>
@@ -4831,7 +4866,7 @@
         <v>2303240</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P26" s="10">
         <v>0.15</v>
@@ -4841,21 +4876,22 @@
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
       <c r="U26" s="10"/>
-      <c r="V26" s="11" t="str">
+      <c r="V26" s="10"/>
+      <c r="W26" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2301005,0.5;2301020,0.3;2303240;0.15</v>
-      </c>
-      <c r="AE26" s="11">
+        <v>2301005,0.5;2301020,0.3;2303240,0.15</v>
+      </c>
+      <c r="AF26" s="11">
         <v>2302004</v>
       </c>
-      <c r="AF26" s="11" t="s">
+      <c r="AG26" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AG26" s="11" t="s">
+      <c r="AH26" s="11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="10">
         <v>340104</v>
       </c>
@@ -4894,7 +4930,7 @@
         <v>2303250</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P27" s="10">
         <v>0.15</v>
@@ -4904,21 +4940,22 @@
       <c r="S27" s="10"/>
       <c r="T27" s="10"/>
       <c r="U27" s="10"/>
-      <c r="V27" s="11" t="str">
+      <c r="V27" s="10"/>
+      <c r="W27" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2301001,0.5;2302010,0.3;2303250;0.15</v>
-      </c>
-      <c r="AE27" s="11">
+        <v>2301001,0.5;2302010,0.3;2303250,0.15</v>
+      </c>
+      <c r="AF27" s="11">
         <v>2302005</v>
       </c>
-      <c r="AF27" s="11" t="s">
+      <c r="AG27" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AG27" s="11" t="s">
+      <c r="AH27" s="11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B28" s="10">
         <v>340105</v>
       </c>
@@ -4957,7 +4994,7 @@
         <v>2303260</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P28" s="10">
         <v>0.15</v>
@@ -4967,21 +5004,22 @@
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
-      <c r="V28" s="11" t="str">
+      <c r="V28" s="10"/>
+      <c r="W28" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2301020,0.5;2302008,0.3;2303260;0.15</v>
-      </c>
-      <c r="AE28" s="11">
+        <v>2301020,0.5;2302008,0.3;2303260,0.15</v>
+      </c>
+      <c r="AF28" s="11">
         <v>2302006</v>
       </c>
-      <c r="AF28" s="11" t="s">
+      <c r="AG28" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AG28" s="11" t="s">
+      <c r="AH28" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B29" s="10">
         <v>340106</v>
       </c>
@@ -5020,7 +5058,7 @@
         <v>2303270</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P29" s="10">
         <v>0.15</v>
@@ -5030,21 +5068,22 @@
       <c r="S29" s="10"/>
       <c r="T29" s="10"/>
       <c r="U29" s="10"/>
-      <c r="V29" s="11" t="str">
+      <c r="V29" s="10"/>
+      <c r="W29" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2301002,0.5;2301011,0.3;2303270;0.15</v>
-      </c>
-      <c r="AE29" s="11">
+        <v>2301002,0.5;2301011,0.3;2303270,0.15</v>
+      </c>
+      <c r="AF29" s="11">
         <v>2302007</v>
       </c>
-      <c r="AF29" s="11" t="s">
+      <c r="AG29" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AG29" s="11" t="s">
+      <c r="AH29" s="11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B30" s="10">
         <v>340107</v>
       </c>
@@ -5083,37 +5122,40 @@
         <v>2303280</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P30" s="10">
         <v>0.15</v>
       </c>
-      <c r="Q30" s="10">
+      <c r="Q30" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="R30" s="10">
         <v>2303070</v>
       </c>
-      <c r="R30" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="S30" s="10">
+      <c r="S30" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="T30" s="10">
         <v>0.15</v>
       </c>
-      <c r="T30" s="10"/>
       <c r="U30" s="10"/>
-      <c r="V30" s="11" t="str">
+      <c r="V30" s="10"/>
+      <c r="W30" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2301004,0.5;2302007,0.3;2303280;0.152303070;0.15</v>
-      </c>
-      <c r="AE30" s="11">
+        <v>2301004,0.5;2302007,0.3;2303280,0.152303070,0.15</v>
+      </c>
+      <c r="AF30" s="11">
         <v>2302008</v>
       </c>
-      <c r="AF30" s="11" t="s">
+      <c r="AG30" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AG30" s="11" t="s">
+      <c r="AH30" s="11" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="10">
         <v>350101</v>
       </c>
@@ -5152,7 +5194,7 @@
         <v>2303290</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P31" s="10">
         <v>0.15</v>
@@ -5162,21 +5204,22 @@
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
-      <c r="V31" s="11" t="str">
+      <c r="V31" s="10"/>
+      <c r="W31" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2301005,0.5;2302003,0.3;2303290;0.15</v>
-      </c>
-      <c r="AE31" s="11">
+        <v>2301005,0.5;2302003,0.3;2303290,0.15</v>
+      </c>
+      <c r="AF31" s="11">
         <v>2302009</v>
       </c>
-      <c r="AF31" s="11" t="s">
+      <c r="AG31" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AG31" s="11" t="s">
+      <c r="AH31" s="11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B32" s="10">
         <v>350102</v>
       </c>
@@ -5215,37 +5258,40 @@
         <v>2303300</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P32" s="10">
         <v>0.15</v>
       </c>
-      <c r="Q32" s="10">
+      <c r="Q32" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="R32" s="10">
         <v>2303020</v>
       </c>
-      <c r="R32" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="S32" s="10">
+      <c r="S32" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="T32" s="10">
         <v>0.15</v>
       </c>
-      <c r="T32" s="10"/>
       <c r="U32" s="10"/>
-      <c r="V32" s="11" t="str">
+      <c r="V32" s="10"/>
+      <c r="W32" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2301010,0.5;2302006,0.3;2303300;0.152303020;0.15</v>
-      </c>
-      <c r="AE32" s="11">
+        <v>2301010,0.5;2302006,0.3;2303300,0.152303020,0.15</v>
+      </c>
+      <c r="AF32" s="11">
         <v>2302010</v>
       </c>
-      <c r="AF32" s="11" t="s">
+      <c r="AG32" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AG32" s="11" t="s">
+      <c r="AH32" s="11" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B33" s="10">
         <v>350103</v>
       </c>
@@ -5284,7 +5330,7 @@
         <v>2303310</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P33" s="10">
         <v>0.15</v>
@@ -5294,21 +5340,22 @@
       <c r="S33" s="10"/>
       <c r="T33" s="10"/>
       <c r="U33" s="10"/>
-      <c r="V33" s="11" t="str">
+      <c r="V33" s="10"/>
+      <c r="W33" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2301007,0.5;2302004,0.3;2303310;0.15</v>
-      </c>
-      <c r="AE33" s="11">
+        <v>2301007,0.5;2302004,0.3;2303310,0.15</v>
+      </c>
+      <c r="AF33" s="11">
         <v>2302011</v>
       </c>
-      <c r="AF33" s="11" t="s">
+      <c r="AG33" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AG33" s="11" t="s">
+      <c r="AH33" s="11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B34" s="10">
         <v>350104</v>
       </c>
@@ -5347,7 +5394,7 @@
         <v>2303320</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P34" s="10">
         <v>0.15</v>
@@ -5357,21 +5404,22 @@
       <c r="S34" s="10"/>
       <c r="T34" s="10"/>
       <c r="U34" s="10"/>
-      <c r="V34" s="11" t="str">
+      <c r="V34" s="10"/>
+      <c r="W34" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2301010,0.5;2302005,0.3;2303320;0.15</v>
-      </c>
-      <c r="AE34" s="11">
+        <v>2301010,0.5;2302005,0.3;2303320,0.15</v>
+      </c>
+      <c r="AF34" s="11">
         <v>2302012</v>
       </c>
-      <c r="AF34" s="11" t="s">
+      <c r="AG34" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AG34" s="11" t="s">
+      <c r="AH34" s="11" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B35" s="10">
         <v>350105</v>
       </c>
@@ -5410,7 +5458,7 @@
         <v>2303330</v>
       </c>
       <c r="O35" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P35" s="10">
         <v>0.15</v>
@@ -5420,21 +5468,22 @@
       <c r="S35" s="10"/>
       <c r="T35" s="10"/>
       <c r="U35" s="10"/>
-      <c r="V35" s="11" t="str">
+      <c r="V35" s="10"/>
+      <c r="W35" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2301009,0.5;2302001,0.3;2303330;0.15</v>
-      </c>
-      <c r="AE35" s="11">
+        <v>2301009,0.5;2302001,0.3;2303330,0.15</v>
+      </c>
+      <c r="AF35" s="11">
         <v>2302013</v>
       </c>
-      <c r="AF35" s="11" t="s">
+      <c r="AG35" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AG35" s="11" t="s">
+      <c r="AH35" s="11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B36" s="10">
         <v>350106</v>
       </c>
@@ -5473,37 +5522,40 @@
         <v>2303340</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P36" s="10">
         <v>0.15</v>
       </c>
-      <c r="Q36" s="10">
+      <c r="Q36" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="R36" s="10">
         <v>2303240</v>
       </c>
-      <c r="R36" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="S36" s="10">
+      <c r="S36" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="T36" s="10">
         <v>0.15</v>
       </c>
-      <c r="T36" s="10"/>
       <c r="U36" s="10"/>
-      <c r="V36" s="11" t="str">
+      <c r="V36" s="10"/>
+      <c r="W36" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2301010,0.5;2302002,0.3;2303340;0.152303240;0.15</v>
-      </c>
-      <c r="AE36" s="11">
+        <v>2301010,0.5;2302002,0.3;2303340,0.152303240,0.15</v>
+      </c>
+      <c r="AF36" s="11">
         <v>2302014</v>
       </c>
-      <c r="AF36" s="11" t="s">
+      <c r="AG36" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AG36" s="11" t="s">
+      <c r="AH36" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -5524,17 +5576,18 @@
       <c r="S37" s="10"/>
       <c r="T37" s="10"/>
       <c r="U37" s="10"/>
-      <c r="AE37" s="11">
+      <c r="V37" s="10"/>
+      <c r="AF37" s="11">
         <v>2302015</v>
       </c>
-      <c r="AF37" s="11" t="s">
+      <c r="AG37" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AG37" s="11" t="s">
+      <c r="AH37" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B38" s="10"/>
       <c r="C38" s="10" t="s">
         <v>523</v>
@@ -5546,40 +5599,65 @@
       <c r="F38" s="10">
         <v>2301014</v>
       </c>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
+      <c r="G38" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H38" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>229</v>
+      </c>
       <c r="J38" s="10">
         <v>2302001</v>
       </c>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
+      <c r="K38" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L38" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="M38" s="10" t="s">
+        <v>229</v>
+      </c>
       <c r="N38" s="10">
         <v>2302019</v>
       </c>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10">
+      <c r="O38" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="P38" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="Q38" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="R38" s="10">
         <v>2304020</v>
       </c>
-      <c r="R38" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
+      <c r="S38" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="T38" s="10">
+        <v>0.3</v>
+      </c>
       <c r="U38" s="10"/>
-      <c r="AE38" s="11">
+      <c r="V38" s="10"/>
+      <c r="W38" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>2301014,0.5;2302001,0.3;2302019,0.32304020,0.3</v>
+      </c>
+      <c r="AF38" s="11">
         <v>2302016</v>
       </c>
-      <c r="AF38" s="11" t="s">
+      <c r="AG38" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AG38" s="11" t="s">
+      <c r="AH38" s="11" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B39" s="10"/>
       <c r="C39" s="10" t="s">
         <v>524</v>
@@ -5591,40 +5669,65 @@
       <c r="F39" s="10">
         <v>2301015</v>
       </c>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
+      <c r="G39" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H39" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>229</v>
+      </c>
       <c r="J39" s="10">
         <v>2302002</v>
       </c>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
+      <c r="K39" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L39" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="M39" s="10" t="s">
+        <v>229</v>
+      </c>
       <c r="N39" s="10">
         <v>2303170</v>
       </c>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10">
+      <c r="O39" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="P39" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="Q39" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="R39" s="10">
         <v>2304060</v>
       </c>
-      <c r="R39" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
+      <c r="S39" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="T39" s="10">
+        <v>0.3</v>
+      </c>
       <c r="U39" s="10"/>
-      <c r="AE39" s="11">
+      <c r="V39" s="10"/>
+      <c r="W39" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>2301015,0.5;2302002,0.3;2303170,0.32304060,0.3</v>
+      </c>
+      <c r="AF39" s="11">
         <v>2302017</v>
       </c>
-      <c r="AF39" s="11" t="s">
+      <c r="AG39" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AG39" s="11" t="s">
+      <c r="AH39" s="11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B40" s="10"/>
       <c r="C40" s="10" t="s">
         <v>528</v>
@@ -5636,40 +5739,65 @@
       <c r="F40" s="10">
         <v>2301016</v>
       </c>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
+      <c r="G40" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H40" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>229</v>
+      </c>
       <c r="J40" s="10">
         <v>2302003</v>
       </c>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
+      <c r="K40" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L40" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="M40" s="10" t="s">
+        <v>229</v>
+      </c>
       <c r="N40" s="10">
         <v>2303270</v>
       </c>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10">
+      <c r="O40" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="P40" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="Q40" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="R40" s="10">
         <v>2304070</v>
       </c>
-      <c r="R40" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
+      <c r="S40" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="T40" s="10">
+        <v>0.3</v>
+      </c>
       <c r="U40" s="10"/>
-      <c r="AE40" s="11">
+      <c r="V40" s="10"/>
+      <c r="W40" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>2301016,0.5;2302003,0.3;2303270,0.32304070,0.3</v>
+      </c>
+      <c r="AF40" s="11">
         <v>2302018</v>
       </c>
-      <c r="AF40" s="11" t="s">
+      <c r="AG40" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AG40" s="11" t="s">
+      <c r="AH40" s="11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B41" s="10"/>
       <c r="C41" s="10" t="s">
         <v>525</v>
@@ -5681,40 +5809,65 @@
       <c r="F41" s="10">
         <v>2301017</v>
       </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
+      <c r="G41" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H41" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>229</v>
+      </c>
       <c r="J41" s="10">
         <v>2302005</v>
       </c>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
+      <c r="K41" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L41" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="M41" s="10" t="s">
+        <v>229</v>
+      </c>
       <c r="N41" s="10">
         <v>2302020</v>
       </c>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10">
+      <c r="O41" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="P41" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="Q41" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="R41" s="10">
         <v>2304010</v>
       </c>
-      <c r="R41" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
+      <c r="S41" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="T41" s="10">
+        <v>0.3</v>
+      </c>
       <c r="U41" s="10"/>
-      <c r="AE41" s="11">
+      <c r="V41" s="10"/>
+      <c r="W41" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>2301017,0.5;2302005,0.3;2302020,0.32304010,0.3</v>
+      </c>
+      <c r="AF41" s="11">
         <v>2302019</v>
       </c>
-      <c r="AF41" s="11" t="s">
+      <c r="AG41" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AG41" s="11" t="s">
+      <c r="AH41" s="11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B42" s="10"/>
       <c r="C42" s="10" t="s">
         <v>526</v>
@@ -5726,40 +5879,65 @@
       <c r="F42" s="10">
         <v>2301018</v>
       </c>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
+      <c r="G42" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H42" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>229</v>
+      </c>
       <c r="J42" s="10">
         <v>2302014</v>
       </c>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
+      <c r="K42" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L42" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="M42" s="10" t="s">
+        <v>229</v>
+      </c>
       <c r="N42" s="10">
         <v>2302018</v>
       </c>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10">
+      <c r="O42" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="P42" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="Q42" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="R42" s="10">
         <v>2304040</v>
       </c>
-      <c r="R42" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
+      <c r="S42" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="T42" s="10">
+        <v>0.3</v>
+      </c>
       <c r="U42" s="10"/>
-      <c r="AE42" s="11">
+      <c r="V42" s="10"/>
+      <c r="W42" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>2301018,0.5;2302014,0.3;2302018,0.32304040,0.3</v>
+      </c>
+      <c r="AF42" s="11">
         <v>2302020</v>
       </c>
-      <c r="AF42" s="11" t="s">
+      <c r="AG42" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AG42" s="11" t="s">
+      <c r="AH42" s="11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B43" s="10"/>
       <c r="C43" s="10" t="s">
         <v>527</v>
@@ -5771,31 +5949,56 @@
       <c r="F43" s="10">
         <v>2301019</v>
       </c>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
+      <c r="G43" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H43" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>229</v>
+      </c>
       <c r="J43" s="10">
         <v>2302007</v>
       </c>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
+      <c r="K43" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L43" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="M43" s="10" t="s">
+        <v>229</v>
+      </c>
       <c r="N43" s="10">
         <v>2303210</v>
       </c>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10">
+      <c r="O43" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="P43" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="Q43" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="R43" s="10">
         <v>2304030</v>
       </c>
-      <c r="R43" s="10" t="s">
-        <v>517</v>
-      </c>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
+      <c r="S43" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="T43" s="10">
+        <v>0.3</v>
+      </c>
       <c r="U43" s="10"/>
-    </row>
-    <row r="44" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="V43" s="10"/>
+      <c r="W43" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>2301019,0.5;2302007,0.3;2303210,0.32304030,0.3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B44" s="10"/>
       <c r="C44" s="10" t="s">
         <v>529</v>
@@ -5807,31 +6010,56 @@
       <c r="F44" s="10">
         <v>2301020</v>
       </c>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
+      <c r="G44" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H44" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>229</v>
+      </c>
       <c r="J44" s="10">
         <v>2302006</v>
       </c>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
+      <c r="K44" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L44" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="M44" s="10" t="s">
+        <v>229</v>
+      </c>
       <c r="N44" s="10">
         <v>2302003</v>
       </c>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10">
+      <c r="O44" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="P44" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="Q44" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="R44" s="10">
         <v>2304080</v>
       </c>
-      <c r="R44" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="S44" s="10"/>
-      <c r="T44" s="10"/>
+      <c r="S44" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="T44" s="10">
+        <v>0.3</v>
+      </c>
       <c r="U44" s="10"/>
-    </row>
-    <row r="45" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="V44" s="10"/>
+      <c r="W44" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>2301020,0.5;2302006,0.3;2302003,0.32304080,0.3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B45" s="10"/>
       <c r="C45" s="10" t="s">
         <v>530</v>
@@ -5843,31 +6071,56 @@
       <c r="F45" s="10">
         <v>2301005</v>
       </c>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
+      <c r="G45" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H45" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>229</v>
+      </c>
       <c r="J45" s="10">
         <v>2302018</v>
       </c>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
+      <c r="K45" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L45" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="M45" s="10" t="s">
+        <v>229</v>
+      </c>
       <c r="N45" s="10">
         <v>2302006</v>
       </c>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10">
+      <c r="O45" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="P45" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="Q45" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="R45" s="10">
         <v>2304050</v>
       </c>
-      <c r="R45" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
+      <c r="S45" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="T45" s="10">
+        <v>0.3</v>
+      </c>
       <c r="U45" s="10"/>
-    </row>
-    <row r="46" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="V45" s="10"/>
+      <c r="W45" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>2301005,0.5;2302018,0.3;2302006,0.32304050,0.3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -5887,8 +6140,9 @@
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
       <c r="U46" s="10"/>
-    </row>
-    <row r="47" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="V46" s="10"/>
+    </row>
+    <row r="47" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -5908,8 +6162,9 @@
       <c r="S47" s="10"/>
       <c r="T47" s="10"/>
       <c r="U47" s="10"/>
-    </row>
-    <row r="48" spans="2:33" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="V47" s="10"/>
+    </row>
+    <row r="48" spans="2:34" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -5930,8 +6185,9 @@
       <c r="S48" s="10"/>
       <c r="T48" s="10"/>
       <c r="U48" s="10"/>
-    </row>
-    <row r="49" spans="2:21" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="V48" s="10"/>
+    </row>
+    <row r="49" spans="2:22" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -5952,8 +6208,9 @@
       <c r="S49" s="10"/>
       <c r="T49" s="10"/>
       <c r="U49" s="10"/>
-    </row>
-    <row r="50" spans="2:21" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="V49" s="10"/>
+    </row>
+    <row r="50" spans="2:22" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -5974,8 +6231,9 @@
       <c r="S50" s="10"/>
       <c r="T50" s="10"/>
       <c r="U50" s="10"/>
-    </row>
-    <row r="51" spans="2:21">
+      <c r="V50" s="10"/>
+    </row>
+    <row r="51" spans="2:22">
       <c r="N51" s="2">
         <v>2301010</v>
       </c>
@@ -5985,11 +6243,11 @@
       <c r="P51" s="2">
         <v>0.1</v>
       </c>
-      <c r="Q51" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="52" spans="2:21">
+      <c r="R51" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22">
       <c r="N52" s="2">
         <v>2301019</v>
       </c>
@@ -5999,11 +6257,11 @@
       <c r="P52" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q52" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="53" spans="2:21">
+      <c r="R52" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="53" spans="2:22">
       <c r="N53" s="2">
         <v>2301019</v>
       </c>
@@ -6013,11 +6271,11 @@
       <c r="P53" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q53" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="54" spans="2:21">
+      <c r="R53" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="54" spans="2:22">
       <c r="N54" s="2">
         <v>2301008</v>
       </c>
@@ -6027,11 +6285,11 @@
       <c r="P54" s="2">
         <v>0.1</v>
       </c>
-      <c r="Q54" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="55" spans="2:21">
+      <c r="R54" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="55" spans="2:22">
       <c r="N55" s="2">
         <v>2301020</v>
       </c>
@@ -6041,11 +6299,11 @@
       <c r="P55" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q55" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="56" spans="2:21">
+      <c r="R55" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22">
       <c r="N56" s="2">
         <v>2301016</v>
       </c>
@@ -6055,11 +6313,11 @@
       <c r="P56" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q56" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="57" spans="2:21">
+      <c r="R56" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="57" spans="2:22">
       <c r="N57" s="2">
         <v>2301020</v>
       </c>
@@ -6069,11 +6327,11 @@
       <c r="P57" s="2">
         <v>0.1</v>
       </c>
-      <c r="Q57" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="58" spans="2:21">
+      <c r="R57" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="58" spans="2:22">
       <c r="N58" s="2">
         <v>2301017</v>
       </c>
@@ -6083,11 +6341,11 @@
       <c r="P58" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q58" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="59" spans="2:21">
+      <c r="R58" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="59" spans="2:22">
       <c r="N59" s="2">
         <v>2301007</v>
       </c>
@@ -6097,11 +6355,11 @@
       <c r="P59" s="2">
         <v>0.1</v>
       </c>
-      <c r="Q59" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="60" spans="2:21">
+      <c r="R59" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="60" spans="2:22">
       <c r="N60" s="2">
         <v>2301016</v>
       </c>
@@ -6111,11 +6369,11 @@
       <c r="P60" s="2">
         <v>0.1</v>
       </c>
-      <c r="Q60" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="61" spans="2:21">
+      <c r="R60" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="61" spans="2:22">
       <c r="N61" s="2">
         <v>2301020</v>
       </c>
@@ -6125,11 +6383,11 @@
       <c r="P61" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q61" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="62" spans="2:21">
+      <c r="R61" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="62" spans="2:22">
       <c r="N62" s="2">
         <v>2301013</v>
       </c>
@@ -6139,11 +6397,11 @@
       <c r="P62" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q62" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="63" spans="2:21">
+      <c r="R62" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" spans="2:22">
       <c r="N63" s="2">
         <v>2301014</v>
       </c>
@@ -6153,11 +6411,11 @@
       <c r="P63" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q63" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="64" spans="2:21">
+      <c r="R63" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="64" spans="2:22">
       <c r="N64" s="2">
         <v>2301005</v>
       </c>
@@ -6167,11 +6425,11 @@
       <c r="P64" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q64" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="65" spans="14:20">
+      <c r="R64" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="65" spans="14:21">
       <c r="N65" s="2">
         <v>2302017</v>
       </c>
@@ -6181,11 +6439,11 @@
       <c r="P65" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q65" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="66" spans="14:20">
+      <c r="R65" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="66" spans="14:21">
       <c r="N66" s="2">
         <v>2301018</v>
       </c>
@@ -6195,11 +6453,11 @@
       <c r="P66" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q66" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="67" spans="14:20">
+      <c r="R66" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="67" spans="14:21">
       <c r="N67" s="2">
         <v>2302014</v>
       </c>
@@ -6209,11 +6467,11 @@
       <c r="P67" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q67" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="68" spans="14:20">
+      <c r="R67" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="68" spans="14:21">
       <c r="N68" s="2">
         <v>2301015</v>
       </c>
@@ -6223,11 +6481,11 @@
       <c r="P68" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q68" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="69" spans="14:20">
+      <c r="R68" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="69" spans="14:21">
       <c r="N69" s="2">
         <v>2301016</v>
       </c>
@@ -6237,11 +6495,11 @@
       <c r="P69" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q69" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="70" spans="14:20">
+      <c r="R69" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="70" spans="14:21">
       <c r="N70" s="2">
         <v>2301001</v>
       </c>
@@ -6251,11 +6509,11 @@
       <c r="P70" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q70" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="71" spans="14:20">
+      <c r="R70" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="71" spans="14:21">
       <c r="N71" s="2">
         <v>2301002</v>
       </c>
@@ -6265,11 +6523,11 @@
       <c r="P71" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q71" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="72" spans="14:20">
+      <c r="R71" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="72" spans="14:21">
       <c r="N72" s="2">
         <v>2301019</v>
       </c>
@@ -6279,11 +6537,11 @@
       <c r="P72" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q72" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="73" spans="14:20">
+      <c r="R72" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="73" spans="14:21">
       <c r="N73" s="2">
         <v>2301020</v>
       </c>
@@ -6293,11 +6551,11 @@
       <c r="P73" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q73" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="74" spans="14:20">
+      <c r="R73" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="74" spans="14:21">
       <c r="N74" s="2">
         <v>2302011</v>
       </c>
@@ -6307,11 +6565,11 @@
       <c r="P74" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q74" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="75" spans="14:20">
+      <c r="R74" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="75" spans="14:21">
       <c r="N75" s="2">
         <v>2301019</v>
       </c>
@@ -6321,11 +6579,11 @@
       <c r="P75" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q75" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="76" spans="14:20">
+      <c r="R75" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="76" spans="14:21">
       <c r="N76" s="2">
         <v>2301002</v>
       </c>
@@ -6335,11 +6593,11 @@
       <c r="P76" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q76" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="77" spans="14:20">
+      <c r="R76" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="77" spans="14:21">
       <c r="N77" s="2">
         <v>2302009</v>
       </c>
@@ -6349,11 +6607,11 @@
       <c r="P77" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q77" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="78" spans="14:20">
+      <c r="R77" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="78" spans="14:21">
       <c r="N78" s="2">
         <v>2301011</v>
       </c>
@@ -6363,11 +6621,11 @@
       <c r="P78" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q78" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="79" spans="14:20">
+      <c r="R78" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="79" spans="14:21">
       <c r="N79" s="2">
         <v>2301012</v>
       </c>
@@ -6377,20 +6635,20 @@
       <c r="P79" s="2">
         <v>0.1</v>
       </c>
-      <c r="Q79" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="R79" s="2">
+      <c r="R79" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="S79" s="2">
         <v>2301016</v>
       </c>
-      <c r="S79" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="T79" s="2">
+      <c r="T79" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="U79" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="80" spans="14:20">
+    <row r="80" spans="14:21">
       <c r="N80" s="2">
         <v>2301007</v>
       </c>
@@ -6400,20 +6658,20 @@
       <c r="P80" s="2">
         <v>0.1</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="R80" s="2">
+      <c r="R80" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="S80" s="2">
         <v>2301017</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="T80" s="2">
+      <c r="T80" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="U80" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="81" spans="14:20">
+    <row r="81" spans="14:21">
       <c r="N81" s="2">
         <v>2301020</v>
       </c>
@@ -6423,20 +6681,20 @@
       <c r="P81" s="2">
         <v>0.1</v>
       </c>
-      <c r="Q81" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="R81" s="2">
+      <c r="R81" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="S81" s="2">
         <v>2301010</v>
       </c>
-      <c r="S81" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="T81" s="2">
+      <c r="T81" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="U81" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="82" spans="14:20">
+    <row r="82" spans="14:21">
       <c r="N82" s="2">
         <v>2301009</v>
       </c>
@@ -6446,20 +6704,20 @@
       <c r="P82" s="2">
         <v>0.1</v>
       </c>
-      <c r="Q82" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="R82" s="2">
+      <c r="R82" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="S82" s="2">
         <v>2301011</v>
       </c>
-      <c r="S82" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="T82" s="2">
+      <c r="T82" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="U82" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="83" spans="14:20">
+    <row r="83" spans="14:21">
       <c r="N83" s="2">
         <v>2302019</v>
       </c>
@@ -6469,20 +6727,20 @@
       <c r="P83" s="2">
         <v>0.1</v>
       </c>
-      <c r="Q83" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="R83" s="2">
+      <c r="R83" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="S83" s="2">
         <v>2301012</v>
       </c>
-      <c r="S83" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="T83" s="2">
+      <c r="T83" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="U83" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="84" spans="14:20">
+    <row r="84" spans="14:21">
       <c r="N84" s="2">
         <v>2302020</v>
       </c>
@@ -6492,16 +6750,16 @@
       <c r="P84" s="2">
         <v>0.1</v>
       </c>
-      <c r="Q84" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="R84" s="2">
+      <c r="R84" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="S84" s="2">
         <v>2301013</v>
       </c>
-      <c r="S84" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="T84" s="2">
+      <c r="T84" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="U84" s="2">
         <v>0.1</v>
       </c>
     </row>

--- a/GameDesign/宠物设计.xlsx
+++ b/GameDesign/宠物设计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9136BF6F-BF5C-457C-A703-AA261129C678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A51350-C85A-4BDA-918F-3BCBEE64F44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="宠物被动技能" sheetId="1" r:id="rId1"/>
@@ -3336,7 +3336,7 @@
   <dimension ref="B1:AH84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/GameDesign/宠物设计.xlsx
+++ b/GameDesign/宠物设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A51350-C85A-4BDA-918F-3BCBEE64F44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF50287E-AE3F-4020-A008-4EADEFFE5E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3335,8 +3335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64ED461B-9A4E-44B2-982C-34BEFDC32D79}">
   <dimension ref="B1:AH84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/GameDesign/宠物设计.xlsx
+++ b/GameDesign/宠物设计.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF50287E-AE3F-4020-A008-4EADEFFE5E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA28C241-ECB6-4B93-B966-91392A9A3304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="宠物被动技能" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="宠物卡牌" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="532">
   <si>
     <t>勇猛</t>
   </si>
@@ -1861,6 +1862,10 @@
   </si>
   <si>
     <t>天狼蜘蛛</t>
+  </si>
+  <si>
+    <t>魔法卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3335,7 +3340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64ED461B-9A4E-44B2-982C-34BEFDC32D79}">
   <dimension ref="B1:AH84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
@@ -8767,4 +8772,74 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B142EE-3256-4AF5-860E-8707B3C73B35}">
+  <dimension ref="B1:B50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="2:2" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="2" spans="2:2" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B2" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="4" spans="2:2" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="5" spans="2:2" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="6" spans="2:2" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="7" spans="2:2" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="8" spans="2:2" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="9" spans="2:2" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="10" spans="2:2" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="11" spans="2:2" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="12" spans="2:2" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="13" spans="2:2" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="14" spans="2:2" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="15" spans="2:2" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="16" spans="2:2" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="20" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="23" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="24" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="27" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="28" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="29" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="30" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="32" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="33" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="34" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="35" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="36" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="37" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="38" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="39" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="40" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="41" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="42" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="43" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="44" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="45" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="46" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="47" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="48" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="49" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="50" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GameDesign/宠物设计.xlsx
+++ b/GameDesign/宠物设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA28C241-ECB6-4B93-B966-91392A9A3304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DDE660-A001-47D3-B89B-62B8710BF13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="562">
   <si>
     <t>勇猛</t>
   </si>
@@ -1865,6 +1865,126 @@
   </si>
   <si>
     <t>魔法卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法轰炸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对指定区域产生爆炸,造成300%伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈焰燃烧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对指定区域进行燃烧,每秒造成100%伤害,持续5秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻轰击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对指定区域造成冰击，造成200%伤害,并使其眩晕2秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击上升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对指定区域的己方单位使其攻击提升50%,持续6秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对指定区域的己方单位使其受到的伤害降低50%,持续6秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对大范围的敌方单位每秒造成50%伤害,并使其移动速度降低50%,持续4秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体治愈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对己方单位的恢复20%的最大生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅捷急速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对范围内的己方单位使其移动速度提升50%,并使其攻击速度和命中率提升50%,持续5秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对己方一个单位生命恢复30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌方一个单位造成400%伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒素投掷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标范围内的敌方单位释放毒素使其中毒,使其每秒损失2%的生命,并使其防御属性降低50%，持续5秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在目标区域放置一个旗帜,使附近己方单位每秒恢复2%最大生命值,并使其攻击提升25%,持续5秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜利旗帜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思维控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制目标一个单位使其成为我方单位持续5秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒气爆发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即恢复自身30点怒气,并使自己后续恢复怒气值提升100%,持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标区域造成伤害,并使其造成伤害降低50%,持续5秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>削弱之击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝地反击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低目标区域己方单位10%的当前生命,并每秒损失5%当前生命,使其伤害提升100%,持续5秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8776,50 +8896,213 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B142EE-3256-4AF5-860E-8707B3C73B35}">
-  <dimension ref="B1:B50"/>
+  <dimension ref="B1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD50"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="4" max="4" width="64.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="2" spans="2:2" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="2" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="3" spans="2:2" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="4" spans="2:2" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="5" spans="2:2" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="6" spans="2:2" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="7" spans="2:2" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="8" spans="2:2" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="9" spans="2:2" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="10" spans="2:2" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="11" spans="2:2" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="12" spans="2:2" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="13" spans="2:2" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="14" spans="2:2" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="15" spans="2:2" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="16" spans="2:2" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="20" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="23" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="24" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="27" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="28" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="29" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="30" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="31" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="32" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="3" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="2">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="2">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="2">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B18" s="2">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="20" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="21" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="22" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="23" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="24" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="25" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="26" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="27" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="28" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="29" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="30" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="31" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="32" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="33" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="34" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="35" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>

--- a/GameDesign/宠物设计.xlsx
+++ b/GameDesign/宠物设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DDE660-A001-47D3-B89B-62B8710BF13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC027CF6-A498-4E18-966E-536488C4E1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="564">
   <si>
     <t>勇猛</t>
   </si>
@@ -1944,10 +1944,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对目标范围内的敌方单位释放毒素使其中毒,使其每秒损失2%的生命,并使其防御属性降低50%，持续5秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在目标区域放置一个旗帜,使附近己方单位每秒恢复2%最大生命值,并使其攻击提升25%,持续5秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1985,6 +1981,18 @@
   </si>
   <si>
     <t>降低目标区域己方单位10%的当前生命,并每秒损失5%当前生命,使其伤害提升100%,持续5秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标区域释放陷阱,地方玩家碰到后触发，造成300%伤害,并眩晕2秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标范围内的敌方单位释放毒素使其中毒,使其每秒损失3%的生命,并使其防御属性降低50%，持续5秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8899,7 +8907,7 @@
   <dimension ref="B1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9031,7 +9039,7 @@
         <v>550</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="14" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -9039,10 +9047,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="15" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -9050,10 +9058,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>554</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="16" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -9061,10 +9069,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>556</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="17" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -9072,10 +9080,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="18" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -9083,13 +9091,23 @@
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="D18" s="6" t="s">
+    </row>
+    <row r="19" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="2">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+      <c r="D19" s="6" t="s">
+        <v>562</v>
+      </c>
+    </row>
     <row r="20" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="21" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="22" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>

--- a/GameDesign/宠物设计.xlsx
+++ b/GameDesign/宠物设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC027CF6-A498-4E18-966E-536488C4E1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DC651F-3608-4A7A-9D1C-82F0A0D6F798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1944,6 +1944,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>对目标范围内的敌方单位释放毒素使其中毒,使其每秒损失2%的生命,并使其防御属性降低50%，持续5秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>在目标区域放置一个旗帜,使附近己方单位每秒恢复2%最大生命值,并使其攻击提升25%,持续5秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1980,19 +1984,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>降低目标区域己方单位10%的当前生命,并每秒损失5%当前生命,使其伤害提升100%,持续5秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>陷阱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对目标区域释放陷阱,地方玩家碰到后触发，造成300%伤害,并眩晕2秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对目标范围内的敌方单位释放毒素使其中毒,使其每秒损失3%的生命,并使其防御属性降低50%，持续5秒</t>
+    <t>降低目标区域己方单位10%的当前生命,并每秒损失2%当前生命,使其伤害提升100%,持续5秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标区域释放陷阱,地方玩家碰到后触发，造成250%伤害,并眩晕2秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8907,7 +8907,7 @@
   <dimension ref="B1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9039,7 +9039,7 @@
         <v>550</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
     </row>
     <row r="14" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -9047,10 +9047,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>552</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="15" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -9058,10 +9058,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="16" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -9069,10 +9069,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="17" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -9080,10 +9080,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>558</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="18" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -9091,10 +9091,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="19" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -9105,7 +9105,7 @@
         <v>561</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20" spans="2:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
